--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="709">
   <si>
     <t>type</t>
   </si>
@@ -2189,6 +2189,51 @@
   </si>
   <si>
     <t>Please copy this identifier onto the specimen vial: **${specimen_id}**</t>
+  </si>
+  <si>
+    <t>labs</t>
+  </si>
+  <si>
+    <t>Ag-RDT</t>
+  </si>
+  <si>
+    <t>AMPATH Care Lab Eldoret</t>
+  </si>
+  <si>
+    <t>Aga Khan</t>
+  </si>
+  <si>
+    <t>Coast Provincial General Hospital Molecular Lab</t>
+  </si>
+  <si>
+    <t>EDARP Nairobi</t>
+  </si>
+  <si>
+    <t>KEMRI Alupe HIV Lab</t>
+  </si>
+  <si>
+    <t>KEMRI Nairobi</t>
+  </si>
+  <si>
+    <t>KEMRI Kilifi</t>
+  </si>
+  <si>
+    <t>KEMRI CDC Kisumu</t>
+  </si>
+  <si>
+    <t>KEMRI Walter Reed Kericho</t>
+  </si>
+  <si>
+    <t>Kenyatta National Hospial Lab Nairobi</t>
+  </si>
+  <si>
+    <t>Lancet</t>
+  </si>
+  <si>
+    <t>NPHL</t>
+  </si>
+  <si>
+    <t>Nyumbani Diagnostic Lab</t>
   </si>
 </sst>
 </file>
@@ -2429,7 +2474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2543,6 +2588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -6411,7 +6457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N989"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12558,18 +12604,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z286"/>
+  <dimension ref="A1:Z301"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A267" sqref="A267:C286"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18416,6 +18463,160 @@
       </c>
       <c r="C286" s="41" t="s">
         <v>618</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="63" t="s">
+        <v>694</v>
+      </c>
+      <c r="B288" s="63" t="s">
+        <v>695</v>
+      </c>
+      <c r="C288" s="63" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>694</v>
+      </c>
+      <c r="B289" t="s">
+        <v>696</v>
+      </c>
+      <c r="C289" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>694</v>
+      </c>
+      <c r="B290" t="s">
+        <v>697</v>
+      </c>
+      <c r="C290" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>694</v>
+      </c>
+      <c r="B291" t="s">
+        <v>698</v>
+      </c>
+      <c r="C291" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>694</v>
+      </c>
+      <c r="B292" t="s">
+        <v>699</v>
+      </c>
+      <c r="C292" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>694</v>
+      </c>
+      <c r="B293" t="s">
+        <v>700</v>
+      </c>
+      <c r="C293" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>694</v>
+      </c>
+      <c r="B294" t="s">
+        <v>701</v>
+      </c>
+      <c r="C294" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>694</v>
+      </c>
+      <c r="B295" t="s">
+        <v>702</v>
+      </c>
+      <c r="C295" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>694</v>
+      </c>
+      <c r="B296" t="s">
+        <v>703</v>
+      </c>
+      <c r="C296" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>694</v>
+      </c>
+      <c r="B297" t="s">
+        <v>704</v>
+      </c>
+      <c r="C297" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>694</v>
+      </c>
+      <c r="B298" t="s">
+        <v>705</v>
+      </c>
+      <c r="C298" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>694</v>
+      </c>
+      <c r="B299" t="s">
+        <v>706</v>
+      </c>
+      <c r="C299" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>694</v>
+      </c>
+      <c r="B300" t="s">
+        <v>707</v>
+      </c>
+      <c r="C300" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>694</v>
+      </c>
+      <c r="B301" t="s">
+        <v>708</v>
+      </c>
+      <c r="C301" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -18524,7 +18725,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44476.572369675923</v>
+        <v>44476.590111574071</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>214</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\Revised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -6458,7 +6458,7 @@
   <dimension ref="A1:N989"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F146" sqref="F146"/>
@@ -12607,16 +12607,15 @@
   <dimension ref="A1:Z301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B298" sqref="B298"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E291" sqref="E291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="5" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18725,7 +18724,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44476.590111574071</v>
+        <v>44476.61146064815</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>214</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$41</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="709">
   <si>
     <t>type</t>
   </si>
@@ -2594,6 +2594,137 @@
   <dxfs count="355">
     <dxf>
       <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike/>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -2611,87 +2742,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
@@ -5862,16 +5912,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
@@ -6011,16 +6051,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -6041,36 +6071,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6452,13 +6452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N989"/>
+  <dimension ref="A1:N990"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C149" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
+      <selection pane="bottomRight" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6655,42 +6655,38 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -6705,7 +6701,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -6727,7 +6723,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>528</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
@@ -6749,10 +6745,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>528</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>529</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
@@ -6767,36 +6763,36 @@
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -6812,13 +6808,13 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -6834,21 +6830,17 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -6860,19 +6852,21 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>462</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -6884,23 +6878,19 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -6910,21 +6900,25 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>465</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -6934,14 +6928,20 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+    <row r="20" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>541</v>
+      </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -6953,6 +6953,11 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6966,19 +6971,8 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>478</v>
-      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -6990,20 +6984,23 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -7012,23 +7009,16 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="11"/>
@@ -7040,17 +7030,23 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>530</v>
+        <v>226</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="11"/>
@@ -7060,55 +7056,52 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>530</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>231</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="6"/>
+      <c r="K27" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -7118,47 +7111,50 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>38</v>
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -7168,14 +7164,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -7184,26 +7182,18 @@
       <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>42</v>
+      <c r="A31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>457</v>
-      </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -7216,10 +7206,10 @@
         <v>18</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>44</v>
@@ -7244,12 +7234,14 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="28" t="s">
@@ -7266,23 +7258,25 @@
       <c r="N33" s="6"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>526</v>
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G34" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -7293,8 +7287,8 @@
       <c r="A35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
+      <c r="B35" s="14" t="s">
+        <v>526</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
@@ -7305,7 +7299,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="3" t="s">
-        <v>527</v>
+        <v>50</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -7314,25 +7308,23 @@
       <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>52</v>
+      <c r="A36" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
@@ -7341,13 +7333,13 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>44</v>
@@ -7367,25 +7359,23 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -7395,26 +7385,24 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>531</v>
+        <v>61</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -7425,21 +7413,27 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -7449,13 +7443,13 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="3"/>
@@ -7472,18 +7466,20 @@
       <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>29</v>
+      <c r="A42" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D42" s="6"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="16"/>
+      <c r="F42" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -7495,10 +7491,14 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="16"/>
@@ -7512,7 +7512,9 @@
       <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+      <c r="A44" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -7528,19 +7530,11 @@
       <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>534</v>
-      </c>
+      <c r="A45" s="12"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="E45" s="3"/>
       <c r="F45" s="16"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -7551,18 +7545,20 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>533</v>
+        <v>479</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>77</v>
+        <v>534</v>
       </c>
       <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="F46" s="16"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -7573,21 +7569,19 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>78</v>
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F47" s="16"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -7599,30 +7593,24 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="F48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -7632,13 +7620,13 @@
         <v>72</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -7659,39 +7647,43 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>221</v>
+        <v>84</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="K50" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>44</v>
@@ -7703,9 +7695,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -7713,16 +7703,16 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
@@ -7732,7 +7722,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="3" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -7741,23 +7731,27 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>532</v>
+        <v>223</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="J53" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -7768,13 +7762,13 @@
         <v>18</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>473</v>
+        <v>91</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -7792,21 +7786,21 @@
         <v>18</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>92</v>
+        <v>473</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>474</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6" t="s">
-        <v>224</v>
-      </c>
+      <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -7816,56 +7810,58 @@
         <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
+      <c r="K56" s="6" t="s">
+        <v>224</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -7881,17 +7877,15 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -7905,21 +7899,19 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -7931,19 +7923,21 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -7955,21 +7949,19 @@
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>482</v>
+        <v>104</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>483</v>
+        <v>105</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -7981,13 +7973,21 @@
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -7999,14 +7999,10 @@
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -8020,9 +8016,15 @@
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -8036,19 +8038,11 @@
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>536</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -8059,18 +8053,20 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -8081,28 +8077,24 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="68" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="30" t="s">
-        <v>504</v>
-      </c>
+      <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -8112,10 +8104,10 @@
         <v>486</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>44</v>
@@ -8127,7 +8119,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="30" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -8135,65 +8127,63 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
-        <v>49</v>
+        <v>486</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>488</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="30" t="s">
-        <v>507</v>
-      </c>
+      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="K70" s="30" t="s">
+        <v>505</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>490</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="30" t="s">
+        <v>507</v>
+      </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="30" t="s">
-        <v>506</v>
-      </c>
+      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
-      <c r="N71" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
-        <v>486</v>
+        <v>29</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>44</v>
@@ -8204,20 +8194,24 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="K72" s="30" t="s">
+        <v>506</v>
+      </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+      <c r="N72" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>486</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>44</v>
@@ -8235,13 +8229,13 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
-        <v>62</v>
+        <v>486</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>44</v>
@@ -8262,10 +8256,10 @@
         <v>62</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>44</v>
@@ -8286,10 +8280,10 @@
         <v>62</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>44</v>
@@ -8307,11 +8301,17 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -8324,9 +8324,11 @@
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -8340,19 +8342,11 @@
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>538</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3" t="s">
-        <v>472</v>
-      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -8363,18 +8357,20 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>538</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -8385,22 +8381,19 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>517</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>71</v>
-      </c>
+    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -8415,10 +8408,10 @@
         <v>55</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D82" s="30" t="s">
         <v>44</v>
@@ -8440,10 +8433,10 @@
         <v>55</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D83" s="30" t="s">
         <v>44</v>
@@ -8465,10 +8458,10 @@
         <v>55</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D84" s="30" t="s">
         <v>44</v>
@@ -8490,16 +8483,13 @@
         <v>55</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D85" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>515</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>71</v>
@@ -8508,68 +8498,72 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="30" t="s">
-        <v>524</v>
-      </c>
+      <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
-        <v>49</v>
+      <c r="A86" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="C86" s="31"/>
-      <c r="F86" s="3"/>
+        <v>514</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="33" t="s">
-        <v>523</v>
-      </c>
+      <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="30" t="s">
+        <v>524</v>
+      </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="D87" s="30"/>
+        <v>516</v>
+      </c>
+      <c r="C87" s="31"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="I87" s="33" t="s">
+        <v>523</v>
+      </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
     </row>
-    <row r="88" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>540</v>
+      <c r="B88" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>522</v>
       </c>
       <c r="D88" s="30"/>
-      <c r="E88" s="35" t="s">
-        <v>539</v>
-      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -8580,14 +8574,20 @@
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
+    <row r="89" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A89" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="D89" s="30"/>
+      <c r="E89" s="35" t="s">
+        <v>539</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -8617,7 +8617,9 @@
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -8633,19 +8635,11 @@
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>543</v>
-      </c>
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="35" t="s">
-        <v>546</v>
-      </c>
+      <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -8656,17 +8650,20 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D93" s="3"/>
+      <c r="E93" s="35" t="s">
+        <v>546</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -8679,16 +8676,15 @@
     </row>
     <row r="94" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="C94" t="s">
-        <v>548</v>
+        <v>544</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>545</v>
       </c>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -8699,15 +8695,15 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C95" s="36" t="s">
-        <v>550</v>
+        <v>547</v>
+      </c>
+      <c r="C95" t="s">
+        <v>548</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -8721,15 +8717,15 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B96" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C96" t="s">
-        <v>552</v>
+      <c r="B96" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>550</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -8748,10 +8744,10 @@
         <v>29</v>
       </c>
       <c r="B97" s="37" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C97" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -8770,10 +8766,10 @@
         <v>29</v>
       </c>
       <c r="B98" s="37" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C98" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -8788,11 +8784,15 @@
       <c r="N98" s="3"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C99" t="s">
+        <v>556</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -8806,7 +8806,9 @@
       <c r="N99" s="3"/>
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -8821,16 +8823,10 @@
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="C101" t="s">
-        <v>558</v>
-      </c>
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -8845,13 +8841,13 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="36" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="C102" s="36" t="s">
-        <v>560</v>
+        <v>557</v>
+      </c>
+      <c r="C102" t="s">
+        <v>558</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -8865,15 +8861,15 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>563</v>
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>560</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -8889,13 +8885,13 @@
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -8911,13 +8907,13 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -8933,13 +8929,13 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
-        <v>29</v>
+        <v>567</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -8958,10 +8954,10 @@
         <v>29</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8980,10 +8976,10 @@
         <v>29</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -9002,10 +8998,10 @@
         <v>29</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>113</v>
+        <v>574</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -9024,10 +9020,10 @@
         <v>29</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>577</v>
+        <v>113</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -9046,10 +9042,10 @@
         <v>29</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C111" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
+      </c>
+      <c r="C111" s="31" t="s">
+        <v>578</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -9063,12 +9059,16 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" s="36"/>
-      <c r="C112" s="36"/>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>580</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -9081,10 +9081,12 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="36"/>
+      <c r="C113" s="36"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -9097,22 +9099,16 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="36" t="s">
-        <v>619</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>620</v>
-      </c>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -9120,19 +9116,17 @@
       <c r="N114" s="3"/>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115" s="31" t="s">
-        <v>621</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>622</v>
+      <c r="A115" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>620</v>
       </c>
       <c r="D115" s="41"/>
-      <c r="E115" s="33" t="s">
-        <v>623</v>
-      </c>
+      <c r="E115" s="41"/>
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
       <c r="H115" s="41"/>
@@ -9148,14 +9142,14 @@
         <v>29</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C116" s="31" t="s">
         <v>622</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
@@ -9172,14 +9166,14 @@
         <v>29</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="33" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
@@ -9192,13 +9186,19 @@
       <c r="N117" s="3"/>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
+      <c r="A118" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>627</v>
+      </c>
       <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
+      <c r="E118" s="33" t="s">
+        <v>628</v>
+      </c>
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
       <c r="H118" s="41"/>
@@ -9210,9 +9210,11 @@
       <c r="N118" s="3"/>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="41"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41"/>
+      <c r="A119" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="36"/>
+      <c r="C119" s="36"/>
       <c r="D119" s="41"/>
       <c r="E119" s="41"/>
       <c r="F119" s="41"/>
@@ -9242,23 +9244,15 @@
       <c r="N120" s="3"/>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="36" t="s">
-        <v>629</v>
-      </c>
-      <c r="C121" s="36" t="s">
-        <v>630</v>
-      </c>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -9266,23 +9260,23 @@
       <c r="N121" s="3"/>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B122" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="C122" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="43"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="37" t="s">
-        <v>632</v>
-      </c>
+      <c r="A122" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>629</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>630</v>
+      </c>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -9294,7 +9288,7 @@
         <v>49</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C123" s="44" t="s">
         <v>16</v>
@@ -9305,7 +9299,7 @@
       <c r="G123" s="41"/>
       <c r="H123" s="41"/>
       <c r="I123" s="37" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -9315,20 +9309,22 @@
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>635</v>
-      </c>
-      <c r="C124" s="45" t="s">
-        <v>636</v>
+        <v>633</v>
+      </c>
+      <c r="C124" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="D124" s="43"/>
       <c r="E124" s="45"/>
       <c r="F124" s="37"/>
       <c r="G124" s="41"/>
       <c r="H124" s="41"/>
-      <c r="I124" s="37"/>
+      <c r="I124" s="37" t="s">
+        <v>634</v>
+      </c>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -9337,25 +9333,19 @@
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>637</v>
-      </c>
-      <c r="C125" s="46" t="s">
-        <v>638</v>
-      </c>
-      <c r="D125" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" s="43"/>
+        <v>635</v>
+      </c>
+      <c r="C125" s="45" t="s">
+        <v>636</v>
+      </c>
+      <c r="D125" s="43"/>
+      <c r="E125" s="45"/>
       <c r="F125" s="37"/>
-      <c r="G125" s="41" t="s">
-        <v>639</v>
-      </c>
-      <c r="H125" s="41" t="s">
-        <v>640</v>
-      </c>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
       <c r="I125" s="37"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -9365,19 +9355,25 @@
     </row>
     <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="43" t="s">
-        <v>641</v>
+        <v>58</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>642</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="D126" s="47"/>
+        <v>637</v>
+      </c>
+      <c r="C126" s="46" t="s">
+        <v>638</v>
+      </c>
+      <c r="D126" s="47" t="s">
+        <v>44</v>
+      </c>
       <c r="E126" s="43"/>
       <c r="F126" s="37"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
+      <c r="G126" s="41" t="s">
+        <v>639</v>
+      </c>
+      <c r="H126" s="41" t="s">
+        <v>640</v>
+      </c>
       <c r="I126" s="37"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -9386,9 +9382,15 @@
       <c r="N126" s="3"/>
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="43"/>
-      <c r="B127" s="43"/>
-      <c r="C127" s="48"/>
+      <c r="A127" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="B127" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>643</v>
+      </c>
       <c r="D127" s="47"/>
       <c r="E127" s="43"/>
       <c r="F127" s="37"/>
@@ -9402,24 +9404,33 @@
       <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="36"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="37"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
     </row>
-    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="36"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="36"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -9427,15 +9438,6 @@
       <c r="N129" s="3"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="49" t="s">
-        <v>644</v>
-      </c>
-      <c r="C130" s="49" t="s">
-        <v>645</v>
-      </c>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
@@ -9443,17 +9445,14 @@
       <c r="N130" s="3"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>647</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="E131" s="33" t="s">
-        <v>649</v>
+      <c r="A131" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="C131" s="49" t="s">
+        <v>645</v>
       </c>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -9463,16 +9462,16 @@
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
-        <v>29</v>
+        <v>646</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -9481,11 +9480,18 @@
       <c r="N132" s="3"/>
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B133" s="49"/>
-      <c r="C133" s="49"/>
+      <c r="A133" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>652</v>
+      </c>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -9493,9 +9499,11 @@
       <c r="N133" s="3"/>
     </row>
     <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
+      <c r="A134" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
@@ -9503,15 +9511,9 @@
       <c r="N134" s="3"/>
     </row>
     <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="49" t="s">
-        <v>653</v>
-      </c>
-      <c r="C135" s="49" t="s">
-        <v>654</v>
-      </c>
+      <c r="A135" s="31"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -9519,17 +9521,14 @@
       <c r="N135" s="3"/>
     </row>
     <row r="136" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B136" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="C136" s="31" t="s">
-        <v>656</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>657</v>
+      <c r="A136" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" s="49" t="s">
+        <v>653</v>
+      </c>
+      <c r="C136" s="49" t="s">
+        <v>654</v>
       </c>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
@@ -9538,11 +9537,18 @@
       <c r="N136" s="3"/>
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B137" s="49"/>
-      <c r="C137" s="49"/>
+      <c r="A137" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>657</v>
+      </c>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -9550,30 +9556,18 @@
       <c r="N137" s="3"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="49"/>
+      <c r="C138" s="49"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" s="44" t="s">
-        <v>658</v>
-      </c>
-      <c r="C139" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" s="44"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="G139" s="44"/>
-      <c r="H139" s="44"/>
-      <c r="I139" s="44"/>
+    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -9581,23 +9575,23 @@
       <c r="N139" s="3"/>
     </row>
     <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B140" s="51" t="s">
-        <v>660</v>
-      </c>
-      <c r="C140" s="52" t="s">
-        <v>661</v>
-      </c>
-      <c r="D140" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="52"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="50"/>
-      <c r="I140" s="50"/>
+      <c r="A140" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="C140" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="44"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="42" t="s">
+        <v>659</v>
+      </c>
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="44"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
@@ -9605,64 +9599,69 @@
       <c r="N140" s="3"/>
     </row>
     <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="53" t="s">
+      <c r="A141" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="51" t="s">
+        <v>660</v>
+      </c>
+      <c r="C141" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="D141" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="52"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142" s="53" t="s">
         <v>658</v>
       </c>
-      <c r="C141" s="54" t="s">
+      <c r="C142" s="54" t="s">
         <v>662</v>
       </c>
-      <c r="D141" s="53"/>
-      <c r="E141" s="53"/>
-      <c r="F141" s="53" t="s">
+      <c r="D142" s="53"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="53" t="s">
         <v>663</v>
       </c>
-      <c r="G141" s="53"/>
-      <c r="H141" s="53"/>
-      <c r="I141" s="53"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
-      <c r="N141" s="16"/>
-    </row>
-    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="52" t="s">
+      <c r="G142" s="53"/>
+      <c r="H142" s="53"/>
+      <c r="I142" s="53"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="16"/>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B142" s="52" t="s">
+      <c r="B143" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="C142" s="51" t="s">
+      <c r="C143" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="D142" s="52"/>
-      <c r="E142" s="52"/>
-      <c r="F142" s="52"/>
-      <c r="G142" s="52"/>
-      <c r="H142" s="52"/>
-      <c r="I142" s="50"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
-    </row>
-    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C143" s="55" t="s">
-        <v>666</v>
-      </c>
-      <c r="E143" t="s">
-        <v>667</v>
-      </c>
+      <c r="D143" s="52"/>
+      <c r="E143" s="52"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
+      <c r="I143" s="50"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
@@ -9674,13 +9673,13 @@
         <v>29</v>
       </c>
       <c r="B144" s="37" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E144" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
@@ -9693,38 +9692,33 @@
         <v>29</v>
       </c>
       <c r="B145" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="C145" s="55" t="s">
+        <v>668</v>
+      </c>
+      <c r="E145" t="s">
+        <v>669</v>
+      </c>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+    </row>
+    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="C145" s="55" t="s">
+      <c r="C146" s="55" t="s">
         <v>670</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E146" t="s">
         <v>671</v>
       </c>
-      <c r="J145" s="16"/>
-      <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
-      <c r="M145" s="16"/>
-      <c r="N145" s="16"/>
-    </row>
-    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B146" s="57" t="s">
-        <v>672</v>
-      </c>
-      <c r="C146" s="58" t="s">
-        <v>673</v>
-      </c>
-      <c r="D146" s="56"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56" t="s">
-        <v>674</v>
-      </c>
-      <c r="G146" s="56"/>
-      <c r="H146" s="56"/>
-      <c r="I146" s="56"/>
       <c r="J146" s="16"/>
       <c r="K146" s="16"/>
       <c r="L146" s="16"/>
@@ -9732,41 +9726,44 @@
       <c r="N146" s="16"/>
     </row>
     <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="51" t="s">
+      <c r="A147" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B147" s="31" t="s">
-        <v>582</v>
-      </c>
-      <c r="C147" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="D147" s="37"/>
-      <c r="E147" s="45" t="s">
-        <v>675</v>
-      </c>
-      <c r="F147" s="59" t="s">
-        <v>676</v>
-      </c>
-      <c r="G147" s="50"/>
-      <c r="H147" s="50"/>
-      <c r="I147" s="50"/>
+      <c r="B147" s="57" t="s">
+        <v>672</v>
+      </c>
+      <c r="C147" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="D147" s="56"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="G147" s="56"/>
+      <c r="H147" s="56"/>
+      <c r="I147" s="56"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
+      <c r="N147" s="16"/>
     </row>
     <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="51" t="s">
         <v>29</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D148" s="37"/>
       <c r="E148" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="F148" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="F148" s="59" t="s">
         <v>676</v>
       </c>
       <c r="G148" s="50"/>
@@ -9778,14 +9775,14 @@
         <v>29</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C149" s="31" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D149" s="37"/>
       <c r="E149" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F149" s="50" t="s">
         <v>676</v>
@@ -9799,14 +9796,14 @@
         <v>29</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C150" s="31" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D150" s="37"/>
       <c r="E150" s="45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F150" s="50" t="s">
         <v>676</v>
@@ -9820,14 +9817,14 @@
         <v>29</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C151" s="31" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D151" s="37"/>
       <c r="E151" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F151" s="50" t="s">
         <v>676</v>
@@ -9841,14 +9838,14 @@
         <v>29</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C152" s="31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D152" s="37"/>
       <c r="E152" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F152" s="50" t="s">
         <v>676</v>
@@ -9862,14 +9859,14 @@
         <v>29</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D153" s="37"/>
       <c r="E153" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F153" s="50" t="s">
         <v>676</v>
@@ -9883,14 +9880,14 @@
         <v>29</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D154" s="37"/>
       <c r="E154" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F154" s="50" t="s">
         <v>676</v>
@@ -9904,14 +9901,14 @@
         <v>29</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D155" s="37"/>
       <c r="E155" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F155" s="50" t="s">
         <v>676</v>
@@ -9925,14 +9922,14 @@
         <v>29</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D156" s="37"/>
       <c r="E156" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F156" s="50" t="s">
         <v>676</v>
@@ -9946,14 +9943,14 @@
         <v>29</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D157" s="37"/>
       <c r="E157" s="45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F157" s="50" t="s">
         <v>676</v>
@@ -9967,14 +9964,14 @@
         <v>29</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D158" s="37"/>
       <c r="E158" s="45" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F158" s="50" t="s">
         <v>676</v>
@@ -9988,14 +9985,14 @@
         <v>29</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>26</v>
+        <v>605</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D159" s="37"/>
       <c r="E159" s="45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F159" s="50" t="s">
         <v>676</v>
@@ -10008,15 +10005,15 @@
       <c r="A160" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B160" s="30" t="s">
-        <v>609</v>
-      </c>
-      <c r="C160" s="30" t="s">
-        <v>610</v>
+      <c r="B160" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>607</v>
       </c>
       <c r="D160" s="37"/>
       <c r="E160" s="45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F160" s="50" t="s">
         <v>676</v>
@@ -10030,14 +10027,14 @@
         <v>29</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D161" s="37"/>
       <c r="E161" s="45" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F161" s="50" t="s">
         <v>676</v>
@@ -10051,14 +10048,14 @@
         <v>29</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D162" s="37"/>
       <c r="E162" s="45" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F162" s="50" t="s">
         <v>676</v>
@@ -10071,11 +10068,19 @@
       <c r="A163" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B163" s="51"/>
-      <c r="C163" s="60"/>
+      <c r="B163" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>614</v>
+      </c>
       <c r="D163" s="37"/>
-      <c r="E163" s="45"/>
-      <c r="F163" s="50"/>
+      <c r="E163" s="45" t="s">
+        <v>691</v>
+      </c>
+      <c r="F163" s="50" t="s">
+        <v>676</v>
+      </c>
       <c r="G163" s="50"/>
       <c r="H163" s="50"/>
       <c r="I163" s="50"/>
@@ -10084,36 +10089,48 @@
       <c r="A164" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B164" s="51" t="s">
-        <v>692</v>
-      </c>
-      <c r="C164" s="45" t="s">
-        <v>693</v>
-      </c>
+      <c r="B164" s="51"/>
+      <c r="C164" s="60"/>
       <c r="D164" s="37"/>
       <c r="E164" s="45"/>
-      <c r="F164" s="61"/>
-      <c r="G164" s="61"/>
-      <c r="H164" s="61"/>
-      <c r="I164" s="51"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
+      <c r="H164" s="50"/>
+      <c r="I164" s="50"/>
     </row>
     <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="44" t="s">
+      <c r="A165" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B165" s="51" t="s">
+        <v>692</v>
+      </c>
+      <c r="C165" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="D165" s="37"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="61"/>
+      <c r="G165" s="61"/>
+      <c r="H165" s="61"/>
+      <c r="I165" s="51"/>
+    </row>
+    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B165" s="44"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="44"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="44"/>
-      <c r="I165" s="44"/>
-    </row>
-    <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="51"/>
-    </row>
-    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="44"/>
+      <c r="I166" s="44"/>
+    </row>
+    <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="51"/>
+    </row>
     <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10936,1665 +10953,1666 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A29:J29 A30:F33 I30:J33 A40:K40 A34:J39 K28:K39 D21:N21 E24:E25 A22:N22 L26:N52 F41:K47 A166:N989 A53:D61 F53:N61 A62:N63 D81:D85 E89:E92 F64:N113 J23:N25 F23:H25 A23:D25 A41:D49 C66:C67 C80 A87:D93 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165 A1:N20">
-    <cfRule type="containsText" dxfId="354" priority="162" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52 K52:N52 A29:H29 A30:F33 F26:H28 A50:H51 C16:C17 I26:J39 A34:H40 K28:K39 L26:N39 A15:N15 A16:B20 A20:C20 A24:H25 A41:D44 A47:D49 I40:N51 A45:B46 D45:D46 F41:H47 D16:N20 A166:N989 I53:N61 A53:D61 F52:H61 A62:N63 D81:D85 E89:E92 A87:D93 F64:N113 J23:N25 A23:D23 F23:H23 C45 C66 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165 A1:N13">
-    <cfRule type="expression" dxfId="353" priority="163">
+  <conditionalFormatting sqref="A30:J30 A31:F34 I31:J34 A41:K41 A35:J40 K29:K40 D22:N22 E25:E26 A23:N23 L27:N53 F42:K48 A167:N990 A54:D62 F54:N62 A63:N64 D82:D86 E90:E93 F65:N114 J24:N26 F24:H26 A24:D26 A42:D50 C67:C68 C81 A88:D94 E95:E114 A101:D101 D95:D100 A114:D114 D102:D113 J115:N166 A1:N21">
+    <cfRule type="containsText" dxfId="4" priority="162" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53 K53:N53 A30:H30 A31:F34 F27:H29 A51:H52 C17:C18 I27:J40 A35:H41 K29:K40 L27:N40 A16:N16 A17:B21 A21:C21 A25:H26 A42:D45 A48:D50 I41:N52 A46:B47 D46:D47 F42:H48 D17:N21 A167:N990 I54:N62 A54:D62 F53:H62 A63:N64 D82:D86 E90:E93 A88:D94 F65:N114 J24:N26 A24:D24 F24:H24 C46 C67 E95:E114 A101:D101 D95:D100 A114:D114 D102:D113 J115:N166 A1:N14">
+    <cfRule type="expression" dxfId="3" priority="163">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:J29 A30:F33 I30:J33 A34:J40 K28:K39 L26:N39 D21:N21 E24:E25 A22:N22 K40:N52 F41:J47 A166:N989 A53:D61 F53:N61 A62:N63 D81:D85 E89:E92 F64:N113 J23:N25 F23:H25 A23:D25 A41:D49 C66:C67 C80 A87:D93 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165 A1:N20">
-    <cfRule type="cellIs" dxfId="352" priority="165" operator="equal">
+  <conditionalFormatting sqref="A30:J30 A31:F34 I31:J34 A35:J41 K29:K40 L27:N40 D22:N22 E25:E26 A23:N23 K41:N53 F42:J48 A167:N990 A54:D62 F54:N62 A63:N64 D82:D86 E90:E93 F65:N114 J24:N26 F24:H26 A24:D26 A42:D50 C67:C68 C81 A88:D94 E95:E114 A101:D101 D95:D100 A114:D114 D102:D113 J115:N166 A1:N21">
+    <cfRule type="cellIs" dxfId="2" priority="165" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I113 I166:I989 I1:I20">
-    <cfRule type="expression" dxfId="351" priority="166">
+  <conditionalFormatting sqref="I27:I114 I167:I990 I1:I21">
+    <cfRule type="expression" dxfId="354" priority="166">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17 C47:C63 C81:C93 C23:C45 C66 C100 C113 C166:C989 C1:C13">
-    <cfRule type="expression" dxfId="350" priority="167">
+  <conditionalFormatting sqref="C16:C18 C48:C64 C82:C94 C24:C46 C67 C101 C114 C167:C990 C1:C14">
+    <cfRule type="expression" dxfId="353" priority="167">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B20 B23:B93 B100 B113 B166:B989 B1:B13">
-    <cfRule type="expression" dxfId="349" priority="168">
+  <conditionalFormatting sqref="B16:B21 B24:B94 B101 B114 B167:B990 B1:B14">
+    <cfRule type="expression" dxfId="352" priority="168">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22 A53:A93 A22:A51 A100 A113 A166:A989 A1:A20">
-    <cfRule type="cellIs" dxfId="348" priority="169" operator="equal">
+  <conditionalFormatting sqref="A23:C23 A54:A94 A23:A52 A101 A114 A167:A990 A1:A21">
+    <cfRule type="cellIs" dxfId="1" priority="169" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="347" priority="171" operator="notEqual">
+    <cfRule type="cellIs" dxfId="351" priority="171" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="346" priority="172" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="350" priority="172" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="345" priority="173" operator="notEqual">
+    <cfRule type="cellIs" dxfId="349" priority="173" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="344" priority="174" operator="notEqual">
+    <cfRule type="cellIs" dxfId="348" priority="174" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="343" priority="175" operator="notEqual">
+    <cfRule type="cellIs" dxfId="347" priority="175" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="342" priority="176" operator="notEqual">
+    <cfRule type="cellIs" dxfId="346" priority="176" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="341" priority="177" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="345" priority="177" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="340" priority="178" operator="notEqual">
+    <cfRule type="cellIs" dxfId="344" priority="178" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="339" priority="179" operator="notEqual">
+    <cfRule type="cellIs" dxfId="343" priority="179" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="338" priority="180" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="342" priority="180" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="337" priority="181" operator="notEqual">
+    <cfRule type="cellIs" dxfId="341" priority="181" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="336" priority="182" operator="notEqual">
+    <cfRule type="cellIs" dxfId="340" priority="182" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H113 H166:H989 H1:H29">
-    <cfRule type="expression" dxfId="335" priority="183">
+  <conditionalFormatting sqref="H35:H114 H167:H990 H1:H30">
+    <cfRule type="expression" dxfId="339" priority="183">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52 K52:N52 A29:H29 A30:F33 F26:H28 A50:H51 C16:C17 I26:J39 A34:H40 K28:K39 L26:N39 A15:N15 A16:B20 A20:C20 A24:H25 A41:D44 A47:D49 I40:N51 A45:B46 D45:D46 F41:H47 D16:N20 A166:N989 I53:N61 A53:D61 F52:H61 A62:N63 D81:D85 E89:E92 A87:D93 F64:N113 J23:N25 A23:D23 F23:H23 C45 C66 E94:E113 A100:D100 D94:D99 A113:D113 D101:D112 J114:N165 A1:N13">
-    <cfRule type="expression" dxfId="334" priority="184">
+  <conditionalFormatting sqref="I53 K53:N53 A30:H30 A31:F34 F27:H29 A51:H52 C17:C18 I27:J40 A35:H41 K29:K40 L27:N40 A16:N16 A17:B21 A21:C21 A25:H26 A42:D45 A48:D50 I41:N52 A46:B47 D46:D47 F42:H48 D17:N21 A167:N990 I54:N62 A54:D62 F53:H62 A63:N64 D82:D86 E90:E93 A88:D94 F65:N114 J24:N26 A24:D24 F24:H24 C46 C67 E95:E114 A101:D101 D95:D100 A114:D114 D102:D113 J115:N166 A1:N14">
+    <cfRule type="expression" dxfId="0" priority="184">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="expression" dxfId="333" priority="186">
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="expression" dxfId="338" priority="186">
+      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:J42 A42:D45 A48:D50 F48:J48 E43:J45 A54:D62 F54:J62 A63:J64 C46 F65:N66 C67 F69:N79 F95:N114 F90:N92 A101:D101 A90:D92 D95:D100 A114:D114 D102:D113 J115:N141">
+    <cfRule type="expression" dxfId="337" priority="187">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="336" priority="188">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:J42 A42:D45 A48:D50 E48:J48 E43:J45 A54:D62 F54:J62 A63:J64 C46 F65:N66 C67 F69:N79 F95:N114 F90:N92 A101:D101 A90:D92 D95:D100 A114:D114 D102:D113 J115:N141">
+    <cfRule type="expression" dxfId="335" priority="189">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79">
+    <cfRule type="expression" dxfId="334" priority="192">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79">
+    <cfRule type="cellIs" dxfId="333" priority="193" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="expression" dxfId="332" priority="196">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 E23">
+    <cfRule type="expression" dxfId="331" priority="197">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="expression" dxfId="330" priority="198">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 E23">
+    <cfRule type="expression" dxfId="329" priority="199">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18 C14 C24:C26">
+    <cfRule type="expression" dxfId="328" priority="200">
+      <formula>AND($C14 = "", $A14 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18 C14 C25:C26">
+    <cfRule type="expression" dxfId="327" priority="201">
+      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C18 C14 C25:C26">
+    <cfRule type="expression" dxfId="326" priority="202">
+      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 F27:J29 A51:K52 A27:C29 F49:F50 H49:K50 B53:D53 F53:I53 K53">
+    <cfRule type="containsText" dxfId="325" priority="203" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F49:F50 H49:H50 B53:D53">
+    <cfRule type="expression" dxfId="324" priority="204">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F27:J29 F49:F50 H49:J50 B53:D53 F53:I53">
+    <cfRule type="expression" dxfId="323" priority="205">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27 F27:J29 A51:J52 A27:C29 F49:F50 H49:J50 B53:D53 F53:I53">
+    <cfRule type="cellIs" dxfId="322" priority="206" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="321" priority="209">
+      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $B31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F49:F50 H49:H50 B53:D53">
+    <cfRule type="expression" dxfId="320" priority="212">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:C29 F27:J29 F49:F50 H49:J50 B53:D53 F53:I53">
+    <cfRule type="expression" dxfId="319" priority="213">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="containsText" dxfId="318" priority="226" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="317" priority="227" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="containsText" dxfId="316" priority="234" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="315" priority="235">
+      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="314" priority="236">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="313" priority="237" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="312" priority="238">
       <formula>AND($A42="begin repeat", NOT($B42 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:J41 A41:D44 A47:D49 F47:J47 E42:J44 A53:D61 F53:J61 A62:J63 C45 F64:N65 C66 F68:N78 F94:N113 F89:N91 A100:D100 A89:D91 D94:D99 A113:D113 D101:D112 J114:N140">
-    <cfRule type="expression" dxfId="332" priority="187">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="331" priority="188">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F41:J41 A41:D44 A47:D49 E47:J47 E42:J44 A53:D61 F53:J61 A62:J63 C45 F64:N65 C66 F68:N78 F94:N113 F89:N91 A100:D100 A89:D91 D94:D99 A113:D113 D101:D112 J114:N140">
-    <cfRule type="expression" dxfId="330" priority="189">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78">
-    <cfRule type="expression" dxfId="329" priority="192">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78">
-    <cfRule type="cellIs" dxfId="328" priority="193" operator="equal">
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="311" priority="239">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", $G42 = "", $H42 = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="containsText" dxfId="310" priority="246" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="expression" dxfId="309" priority="247">
+      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E45">
+    <cfRule type="cellIs" dxfId="308" priority="249" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="327" priority="196">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K26 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26 E22">
-    <cfRule type="expression" dxfId="326" priority="197">
+  <conditionalFormatting sqref="E48">
+    <cfRule type="containsText" dxfId="307" priority="256" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="306" priority="257" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="305" priority="258">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="304" priority="259">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="containsText" dxfId="303" priority="260" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="302" priority="261">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="301" priority="262">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="300" priority="263" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="299" priority="264">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="expression" dxfId="298" priority="265">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="containsText" dxfId="297" priority="266" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="296" priority="267">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="295" priority="268">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="294" priority="269" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="293" priority="270">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="292" priority="271">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="containsText" dxfId="291" priority="284" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="290" priority="285">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="289" priority="286">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="288" priority="287" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="287" priority="288">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="expression" dxfId="286" priority="289">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" dxfId="285" priority="296" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="284" priority="297">
+      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="283" priority="298">
+      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="282" priority="299" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="281" priority="300">
+      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="280" priority="301">
+      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsText" dxfId="279" priority="308" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="278" priority="309">
+      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="277" priority="310">
+      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="276" priority="311" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="275" priority="312">
+      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="expression" dxfId="274" priority="313">
+      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" dxfId="273" priority="314" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="272" priority="315">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="271" priority="316">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="270" priority="317" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="269" priority="318">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="268" priority="319">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="267" priority="320" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="266" priority="321">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="265" priority="322">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="264" priority="323" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="263" priority="324">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="262" priority="325">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="261" priority="326" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="260" priority="327">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="259" priority="328">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="258" priority="329" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="257" priority="330">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="256" priority="331">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="containsText" dxfId="255" priority="332" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="254" priority="333">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="253" priority="334">
+      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="252" priority="335" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="251" priority="336">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="250" priority="337">
+      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="containsText" dxfId="249" priority="338" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="248" priority="339">
+      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="247" priority="340">
+      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="246" priority="341" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="245" priority="342">
+      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="expression" dxfId="244" priority="343">
+      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="containsText" dxfId="243" priority="344" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="242" priority="345">
+      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="241" priority="346">
+      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="240" priority="347" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="239" priority="348">
+      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="expression" dxfId="238" priority="349">
+      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="containsText" dxfId="237" priority="350" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="236" priority="351">
+      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="235" priority="352">
+      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="234" priority="353" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="233" priority="354">
+      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="expression" dxfId="232" priority="355">
+      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A67:B68 D67:D68 A72:D79 A71:B71 D71 A82:D86 A80:B81 D80:D81 A87:C87 C80">
+    <cfRule type="containsText" dxfId="231" priority="374" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A67:B68 D67:D68 A72:D79 A71:B71 D71 A82:D86 A80:B81 D80:D81 A87:C87 C80">
+    <cfRule type="expression" dxfId="230" priority="375">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A72:D79 A71:B71 D71 C80">
+    <cfRule type="expression" dxfId="229" priority="376">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A67:B68 D67:D68 A72:D79 A71:B71 D71 A82:D86 A80:B81 D80:D81 A87:C87 C80">
+    <cfRule type="cellIs" dxfId="228" priority="377" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:C66 C69:C70 C72:C80">
+    <cfRule type="expression" dxfId="227" priority="379">
+      <formula>AND(AND(NOT($A65 = "end group"), NOT($A65 = "end repeat"), NOT($A65 = "")), $C65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A67:B68 D67:D68 A72:D79 A71:B71 D71 A82:D86 A80:B81 D80:D81 A87:C87 C80">
+    <cfRule type="expression" dxfId="226" priority="383">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65:D66 A69:D70 A72:D79 A71:B71 D71 C80">
+    <cfRule type="expression" dxfId="225" priority="384">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79">
+    <cfRule type="expression" dxfId="224" priority="390">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79 E95:E114 E90:E92">
+    <cfRule type="expression" dxfId="223" priority="391">
+      <formula>AND($E65 = "", $A65 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79 E95:E114 E90:E92">
+    <cfRule type="expression" dxfId="222" priority="392">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $E65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79 E95:E114 E90:E92">
+    <cfRule type="expression" dxfId="221" priority="393">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $E65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:E66 E69:E70 E72:E79">
+    <cfRule type="containsText" dxfId="220" priority="394" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="containsText" dxfId="219" priority="145" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="218" priority="146">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="217" priority="147">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="cellIs" dxfId="216" priority="148" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="215" priority="149">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="expression" dxfId="214" priority="150">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="containsText" dxfId="213" priority="151" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="expression" dxfId="212" priority="152">
+      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="211" priority="153">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="cellIs" dxfId="210" priority="154" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="expression" dxfId="209" priority="155">
+      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="208" priority="156">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="207" priority="157">
+      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="206" priority="158">
+      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", #REF! = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="205" priority="159">
+      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K27 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="204" priority="160">
+      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", #REF! = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="containsText" dxfId="203" priority="139" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="202" priority="140">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="201" priority="141">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="200" priority="142" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="199" priority="143">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="expression" dxfId="198" priority="144">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="containsText" dxfId="197" priority="133" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="196" priority="134">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="195" priority="135">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="194" priority="136" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="193" priority="137">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="192" priority="138">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="containsText" dxfId="191" priority="126" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="190" priority="127">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="189" priority="128">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="188" priority="129" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="cellIs" dxfId="187" priority="130" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="186" priority="131">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="expression" dxfId="185" priority="132">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="containsText" dxfId="184" priority="120" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="183" priority="121">
+      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="182" priority="122">
+      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="181" priority="123" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="180" priority="124">
+      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="expression" dxfId="179" priority="125">
+      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:F34 I34:N34">
+    <cfRule type="expression" dxfId="178" priority="491">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", #REF! = "", #REF! = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:N33">
+    <cfRule type="expression" dxfId="177" priority="493">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G32 = "", $H32 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:F34 I34:N34">
+    <cfRule type="expression" dxfId="176" priority="505">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", #REF! = "", #REF! = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:N33">
+    <cfRule type="expression" dxfId="175" priority="507">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G32 = "", $H32 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="174" priority="114">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="173" priority="115">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="172" priority="116">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="expression" dxfId="171" priority="117">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="containsText" dxfId="170" priority="118" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G34">
+    <cfRule type="cellIs" dxfId="169" priority="119" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="168" priority="107">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="167" priority="108">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="166" priority="109">
+      <formula>AND(NOT($G32 = ""), $H32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="165" priority="110">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="expression" dxfId="164" priority="111">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="containsText" dxfId="163" priority="112" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H34">
+    <cfRule type="cellIs" dxfId="162" priority="113" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="161" priority="652">
+      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="160" priority="654">
+      <formula>AND($A17="end group", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="159" priority="664">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="158" priority="666">
+      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="157" priority="668">
+      <formula>AND($A17="end repeat", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="156" priority="679">
+      <formula>AND($C19 = "", $A17 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="155" priority="681">
+      <formula>AND($A17="end repeat", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C19 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="expression" dxfId="154" priority="683">
+      <formula>AND($A17="end group", $B17 = "", $C19 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $C19 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="153" priority="927">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="152" priority="929">
+      <formula>AND($A19="end group", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="151" priority="931">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="150" priority="933">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="149" priority="935">
+      <formula>AND($A19="end repeat", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="148" priority="937">
+      <formula>AND($C23 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="147" priority="939">
+      <formula>AND($A19="end repeat", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C23 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="146" priority="941">
+      <formula>AND($A19="end group", $B19 = "", $C23 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C23 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="145" priority="948">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="144" priority="954">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15 D15:N15">
+    <cfRule type="expression" dxfId="143" priority="970">
+      <formula>AND($A15="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15 D15:N15">
+    <cfRule type="expression" dxfId="142" priority="986">
+      <formula>AND($A15="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="141" priority="1014">
+      <formula>AND($A19="end group", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="140" priority="1015">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="139" priority="1016">
+      <formula>AND($A19="end repeat", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="138" priority="1017">
+      <formula>AND($C15 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="137" priority="1018">
+      <formula>AND($A19="end repeat", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C15 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="136" priority="1019">
+      <formula>AND($A19="end group", $B19 = "", $C15 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C15 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="135" priority="86" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="134" priority="84" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="133" priority="85" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="132" priority="87">
+      <formula>AND($A15="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="131" priority="88">
+      <formula>AND($A15="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="containsText" dxfId="130" priority="77" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="cellIs" dxfId="129" priority="79" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="cellIs" dxfId="128" priority="78" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="expression" dxfId="127" priority="1038">
+      <formula>AND($A19="end group", $B19 = "", $C24 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C20">
+    <cfRule type="expression" dxfId="126" priority="1039">
+      <formula>AND($A19="end repeat", $B19 = "", $C24 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $I19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="125" priority="1043">
+      <formula>AND($A23="begin group", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 D23:N23">
+    <cfRule type="expression" dxfId="124" priority="1044">
+      <formula>AND(#REF!="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="123" priority="1047">
+      <formula>AND($I22 = "", $A23 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="122" priority="1048">
+      <formula>AND($I23 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="121" priority="1050">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="120" priority="1054">
+      <formula>AND($A23="begin repeat", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 D23:N23">
+    <cfRule type="expression" dxfId="119" priority="1055">
+      <formula>AND(#REF!="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="expression" dxfId="118" priority="1069">
+      <formula>AND($A23="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:N22">
+    <cfRule type="expression" dxfId="117" priority="1070">
+      <formula>AND($A23="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="expression" dxfId="116" priority="1071">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:C15">
+    <cfRule type="expression" dxfId="115" priority="1072">
+      <formula>AND($A23="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:N22">
+    <cfRule type="expression" dxfId="114" priority="1073">
+      <formula>AND($A23="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="113" priority="72">
+      <formula>AND($A23="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="112" priority="73">
+      <formula>AND($A23="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="111" priority="70">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="expression" dxfId="110" priority="71">
       <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="325" priority="198">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K26 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26 E22">
-    <cfRule type="expression" dxfId="324" priority="199">
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="109" priority="68">
+      <formula>AND($A23="begin group", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="108" priority="69">
+      <formula>AND($A23="begin repeat", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="107" priority="66">
       <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17 C13 C23:C25">
-    <cfRule type="expression" dxfId="323" priority="200">
-      <formula>AND($C13 = "", $A13 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17 C13 C24:C25">
-    <cfRule type="expression" dxfId="322" priority="201">
-      <formula>AND($A13="end repeat", $B13 = "", $C13 = "", $D13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $C13 = "", $J13 = "", $K13 = "", $L13 = "", $M13 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C17 C13 C24:C25">
-    <cfRule type="expression" dxfId="321" priority="202">
-      <formula>AND($A13="end group", $B13 = "", $C13 = "", $D13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $C13 = "", $J13 = "", $K13 = "", $L13 = "", $M13 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26 F26:J28 A50:K51 A26:C28 F48:F49 H48:K49 B52:D52 F52:I52 K52">
-    <cfRule type="containsText" dxfId="320" priority="203" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C28 F48:F49 H48:H49 B52:D52">
-    <cfRule type="expression" dxfId="319" priority="204">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C28 F26:J28 F48:F49 H48:J49 B52:D52 F52:I52">
-    <cfRule type="expression" dxfId="318" priority="205">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26 F26:J28 A50:J51 A26:C28 F48:F49 H48:J49 B52:D52 F52:I52">
-    <cfRule type="cellIs" dxfId="317" priority="206" operator="equal">
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="106" priority="67">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="105" priority="1091">
+      <formula>AND($A24="end repeat", $B24 = "", $C24 = "", $D24 = "", $E23 = "", $F24 = "", $G24 = "", $H24 = "", $C24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="expression" dxfId="104" priority="1093">
+      <formula>AND($A24="end group", $B24 = "", $C24 = "", $D24 = "", $E23 = "", $F24 = "", $G24 = "", $H24 = "", $C24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:B47 F46:J47">
+    <cfRule type="expression" dxfId="103" priority="1128">
+      <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="102" priority="1153">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="101" priority="1154">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="100" priority="1168">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="99" priority="1169">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C47 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="98" priority="1170">
+      <formula>AND(#REF!="end group", #REF! = "", $C47 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="containsText" dxfId="97" priority="60" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="cellIs" dxfId="96" priority="61" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="316" priority="209">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C28 F48:F49 H48:H49 B52:D52">
-    <cfRule type="expression" dxfId="315" priority="212">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:C28 F26:J28 F48:F49 H48:J49 B52:D52 F52:I52">
-    <cfRule type="expression" dxfId="314" priority="213">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="containsText" dxfId="313" priority="226" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="312" priority="227" operator="equal">
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="95" priority="62">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="94" priority="63">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="93" priority="64">
+      <formula>AND(#REF!="begin group", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="expression" dxfId="92" priority="65">
+      <formula>AND(#REF!="begin repeat", NOT($B46 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B167:B990 B2:B21 A15 C15 A23:C23">
+    <cfRule type="expression" dxfId="91" priority="1185">
+      <formula>COUNTIF($B$2:$B$998,A2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68 C81">
+    <cfRule type="expression" dxfId="90" priority="55">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68 C81">
+    <cfRule type="expression" dxfId="89" priority="56">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="88" priority="57">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="expression" dxfId="87" priority="58">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C68 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68 C81">
+    <cfRule type="expression" dxfId="86" priority="59">
+      <formula>AND(#REF!="end group", #REF! = "", $C68 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="containsText" dxfId="85" priority="47" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="cellIs" dxfId="84" priority="48" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="containsText" dxfId="311" priority="234" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="310" priority="235">
-      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="309" priority="236">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="308" priority="237" operator="equal">
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="83" priority="49">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="82" priority="50">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="81" priority="51">
+      <formula>AND(#REF!="begin group", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="expression" dxfId="80" priority="52">
+      <formula>AND(#REF!="begin repeat", NOT($B67 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="79" priority="42" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="78" priority="43">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="cellIs" dxfId="77" priority="44" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="307" priority="238">
-      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="306" priority="239">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="containsText" dxfId="305" priority="246" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="expression" dxfId="304" priority="247">
-      <formula>AND($A42="begin group", NOT($B42 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E44">
-    <cfRule type="cellIs" dxfId="303" priority="249" operator="equal">
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="76" priority="45">
+      <formula>AND(AND(NOT($A71 = "end group"), NOT($A71 = "end repeat"), NOT($A71 = "")), $C71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" dxfId="75" priority="46">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="containsText" dxfId="74" priority="38" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="73" priority="39">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="72" priority="40" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="containsText" dxfId="302" priority="256" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" dxfId="301" priority="257" operator="equal">
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="71" priority="41">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" dxfId="70" priority="35">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" dxfId="69" priority="36">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C81 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="cellIs" dxfId="67" priority="26" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="300" priority="258">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
-    <cfRule type="expression" dxfId="299" priority="259">
-      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="containsText" dxfId="298" priority="260" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="297" priority="261">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="296" priority="262">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="295" priority="263" operator="equal">
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="66" priority="27">
+      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="65" priority="28">
+      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="64" priority="29">
+      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="63" priority="30">
+      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:N89 A82:C89">
+    <cfRule type="expression" dxfId="62" priority="1257">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", #REF! = "", $D82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:N89 A82:C89">
+    <cfRule type="expression" dxfId="61" priority="1262">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", #REF! = "", $D82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:D86 D88:D89">
+    <cfRule type="expression" dxfId="60" priority="1268">
+      <formula>AND($D82 = "", $A82 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:D86 D88:D89">
+    <cfRule type="expression" dxfId="59" priority="1270">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", #REF! = "", $D82 = "", $F82 = "", $G82 = "", $H82 = "", $D82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82:D86 D88:D89">
+    <cfRule type="expression" dxfId="58" priority="1272">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", #REF! = "", $D82 = "", $F82 = "", $G82 = "", $H82 = "", $D82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31 B24:B94 B101 B114">
+    <cfRule type="expression" dxfId="57" priority="1325">
+      <formula>COUNTIF($B$2:$B$1037,B24)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:F86">
+    <cfRule type="expression" dxfId="56" priority="23">
+      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:F86">
+    <cfRule type="expression" dxfId="55" priority="24">
+      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="54" priority="1331">
+      <formula>AND($A21="end group", $B21 = "", $C27 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="53" priority="1333">
+      <formula>AND($A21="end repeat", $B21 = "", $C27 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="52" priority="1373">
+      <formula>AND($A23="end group", $B15 = "", $C27 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="51" priority="1374">
+      <formula>AND($A23="end repeat", $B15 = "", $C27 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="50" priority="1375">
+      <formula>AND($A32="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="49" priority="1376">
+      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="48" priority="1377">
+      <formula>AND($A32="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="47" priority="1380">
+      <formula>AND(#REF!="end group", $B23 = "", $C27 = "", $D23 = "", #REF! = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="expression" dxfId="46" priority="1381">
+      <formula>AND(#REF!="end repeat", $B23 = "", $C27 = "", $D23 = "", #REF! = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47 F68:N68 A68:B68 D68 F81:N81 A81:B81 D81">
+    <cfRule type="expression" dxfId="45" priority="1395">
+      <formula>AND($A47="end group", $B47 = "", #REF! = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46 F67:N67 A67:B67 D67 F80:N80 A80:B80 D80">
+    <cfRule type="expression" dxfId="44" priority="1396">
+      <formula>AND($A46="end group", $B46 = "", $C47 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67:N67 A67:B67 D67 F80:N80 A80:B80 D80">
+    <cfRule type="expression" dxfId="43" priority="1399">
+      <formula>AND($A67="end repeat", $B67 = "", $C68 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:N68 A68:B68 D68 F81:N81 A81:B81 D81">
+    <cfRule type="expression" dxfId="42" priority="1400">
+      <formula>AND($A68="end repeat", $B68 = "", #REF! = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="41" priority="20">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="40" priority="21">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="39" priority="22">
+      <formula>AND(#REF!="end group", #REF! = "", $C94 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="38" priority="18">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="expression" dxfId="37" priority="19">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C94 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:N94 A94:D94">
+    <cfRule type="expression" dxfId="36" priority="1403">
+      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E93 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93:N93 A93:D93">
+    <cfRule type="expression" dxfId="35" priority="1404">
+      <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", #REF! = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:N94 A94:D94">
+    <cfRule type="expression" dxfId="34" priority="1409">
+      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E93 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93:N93 A93:D93">
+    <cfRule type="expression" dxfId="33" priority="1410">
+      <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", #REF! = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="expression" dxfId="31" priority="12">
+      <formula>AND($A95="begin group", NOT($B95 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="294" priority="264">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="293" priority="265">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="292" priority="266" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="291" priority="267">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="290" priority="268">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="289" priority="269" operator="equal">
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="expression" dxfId="28" priority="15">
+      <formula>AND($A95="begin repeat", NOT($B95 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="expression" dxfId="27" priority="16">
+      <formula>AND($A95="end repeat", $B95 = "", $C95 = "", $D95 = "", #REF! = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:B96">
+    <cfRule type="expression" dxfId="26" priority="17">
+      <formula>AND($A95="end group", $B95 = "", $C95 = "", $D95 = "", #REF! = "", $F95 = "", $G95 = "", $H95 = "", $I95 = "", $J95 = "", $K95 = "", $L95 = "", $M95 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="expression" dxfId="24" priority="5">
+      <formula>AND($A100="begin group", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="288" priority="270">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="287" priority="271">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="286" priority="284" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="285" priority="285">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="284" priority="286">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="283" priority="287" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="282" priority="288">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="281" priority="289">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="280" priority="296" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="279" priority="297">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="278" priority="298">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="277" priority="299" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="276" priority="300">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="expression" dxfId="275" priority="301">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="274" priority="308" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="273" priority="309">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="272" priority="310">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="271" priority="311" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="270" priority="312">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="269" priority="313">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="268" priority="314" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="267" priority="315">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="266" priority="316">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="265" priority="317" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="264" priority="318">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="263" priority="319">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="262" priority="320" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="261" priority="321">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="260" priority="322">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="259" priority="323" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="258" priority="324">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="257" priority="325">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="256" priority="326" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="255" priority="327">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="254" priority="328">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="253" priority="329" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="252" priority="330">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="251" priority="331">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="250" priority="332" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="249" priority="333">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="248" priority="334">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="247" priority="335" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="246" priority="336">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="245" priority="337">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="244" priority="338" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="243" priority="339">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="242" priority="340">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="241" priority="341" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="240" priority="342">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="239" priority="343">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" dxfId="238" priority="344" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="237" priority="345">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="236" priority="346">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="235" priority="347" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="234" priority="348">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="233" priority="349">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="232" priority="350" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="231" priority="351">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="230" priority="352">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="229" priority="353" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="228" priority="354">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="227" priority="355">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A66:B67 D66:D67 A71:D78 A70:B70 D70 A81:D85 A79:B80 D79:D80 A86:C86 C79">
-    <cfRule type="containsText" dxfId="226" priority="374" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A66:B67 D66:D67 A71:D78 A70:B70 D70 A81:D85 A79:B80 D79:D80 A86:C86 C79">
-    <cfRule type="expression" dxfId="225" priority="375">
-      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A71:D78 A70:B70 D70 C79">
-    <cfRule type="expression" dxfId="224" priority="376">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A66:B67 D66:D67 A71:D78 A70:B70 D70 A81:D85 A79:B80 D79:D80 A86:C86 C79">
-    <cfRule type="cellIs" dxfId="223" priority="377" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64:C65 C68:C69 C71:C79">
-    <cfRule type="expression" dxfId="222" priority="379">
-      <formula>AND(AND(NOT($A64 = "end group"), NOT($A64 = "end repeat"), NOT($A64 = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A66:B67 D66:D67 A71:D78 A70:B70 D70 A81:D85 A79:B80 D79:D80 A86:C86 C79">
-    <cfRule type="expression" dxfId="221" priority="383">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D65 A68:D69 A71:D78 A70:B70 D70 C79">
-    <cfRule type="expression" dxfId="220" priority="384">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78">
-    <cfRule type="expression" dxfId="219" priority="390">
-      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78 E94:E113 E89:E91">
-    <cfRule type="expression" dxfId="218" priority="391">
-      <formula>AND($E64 = "", $A64 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78 E94:E113 E89:E91">
-    <cfRule type="expression" dxfId="217" priority="392">
-      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $E64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78 E94:E113 E89:E91">
-    <cfRule type="expression" dxfId="216" priority="393">
-      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $E64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65 E68:E69 E71:E78">
-    <cfRule type="containsText" dxfId="215" priority="394" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="containsText" dxfId="214" priority="145" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="213" priority="146">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="212" priority="147">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="cellIs" dxfId="211" priority="148" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="210" priority="149">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D28">
-    <cfRule type="expression" dxfId="209" priority="150">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="containsText" dxfId="208" priority="151" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="expression" dxfId="207" priority="152">
-      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="206" priority="153">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="cellIs" dxfId="205" priority="154" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E28">
-    <cfRule type="expression" dxfId="204" priority="155">
-      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="203" priority="156">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="202" priority="157">
-      <formula>AND($A27="end group", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K26 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="201" priority="158">
-      <formula>AND($A26="end group", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", #REF! = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="200" priority="159">
-      <formula>AND($A27="end repeat", $B27 = "", $C27 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K26 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="199" priority="160">
-      <formula>AND($A26="end repeat", $B26 = "", $C26 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", #REF! = "", $L26 = "", $M26 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="containsText" dxfId="198" priority="139" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="197" priority="140">
-      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="196" priority="141">
-      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" dxfId="195" priority="142" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="194" priority="143">
-      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="193" priority="144">
-      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="192" priority="133" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="191" priority="134">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="190" priority="135">
-      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="189" priority="136" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="188" priority="137">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="expression" dxfId="187" priority="138">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="containsText" dxfId="186" priority="126" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="185" priority="127">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="184" priority="128">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="183" priority="129" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="182" priority="130" operator="equal">
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="181" priority="131">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="180" priority="132">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="179" priority="120" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="178" priority="121">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="177" priority="122">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="176" priority="123" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="175" priority="124">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="174" priority="125">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33 I33:N33">
-    <cfRule type="expression" dxfId="173" priority="491">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", #REF! = "", #REF! = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:N32">
-    <cfRule type="expression" dxfId="172" priority="493">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G31 = "", $H31 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:F33 I33:N33">
-    <cfRule type="expression" dxfId="171" priority="505">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", #REF! = "", #REF! = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:N32">
-    <cfRule type="expression" dxfId="170" priority="507">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G31 = "", $H31 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="169" priority="114">
-      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="168" priority="115">
-      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="167" priority="116">
-      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="expression" dxfId="166" priority="117">
-      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="containsText" dxfId="165" priority="118" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G33">
-    <cfRule type="cellIs" dxfId="164" priority="119" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="163" priority="107">
-      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="162" priority="108">
-      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="161" priority="109">
-      <formula>AND(NOT($G31 = ""), $H31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="160" priority="110">
-      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="expression" dxfId="159" priority="111">
-      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="containsText" dxfId="158" priority="112" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:H33">
-    <cfRule type="cellIs" dxfId="157" priority="113" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="156" priority="652">
-      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="155" priority="654">
-      <formula>AND($A16="end group", $B16 = "", $C18 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $I16 = "", $J16 = "", $K16 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="154" priority="664">
-      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="153" priority="666">
-      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="152" priority="668">
-      <formula>AND($A16="end repeat", $B16 = "", $C18 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $I16 = "", $J16 = "", $K16 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="151" priority="679">
-      <formula>AND($C18 = "", $A16 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="150" priority="681">
-      <formula>AND($A16="end repeat", $B16 = "", $C18 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $C18 = "", $J16 = "", $K16 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="149" priority="683">
-      <formula>AND($A16="end group", $B16 = "", $C18 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $C18 = "", $J16 = "", $K16 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="148" priority="927">
-      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="147" priority="929">
-      <formula>AND($A18="end group", $B18 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="146" priority="931">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="145" priority="933">
-      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="144" priority="935">
-      <formula>AND($A18="end repeat", $B18 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="143" priority="937">
-      <formula>AND($C22 = "", $A18 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="142" priority="939">
-      <formula>AND($A18="end repeat", $B18 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C22 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="141" priority="941">
-      <formula>AND($A18="end group", $B18 = "", $C22 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C22 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="140" priority="948">
-      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="139" priority="954">
-      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14 D14:N14">
-    <cfRule type="expression" dxfId="138" priority="970">
-      <formula>AND($A14="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14 D14:N14">
-    <cfRule type="expression" dxfId="137" priority="986">
-      <formula>AND($A14="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="136" priority="1014">
-      <formula>AND($A18="end group", $B18 = "", $C14 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="135" priority="1015">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="134" priority="1016">
-      <formula>AND($A18="end repeat", $B18 = "", $C14 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="133" priority="1017">
-      <formula>AND($C14 = "", $A18 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="132" priority="1018">
-      <formula>AND($A18="end repeat", $B18 = "", $C14 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C14 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="131" priority="1019">
-      <formula>AND($A18="end group", $B18 = "", $C14 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C14 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="130" priority="86" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="129" priority="84" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="128" priority="85" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="127" priority="87">
-      <formula>AND($A14="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="126" priority="88">
-      <formula>AND($A14="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
-    <cfRule type="containsText" dxfId="125" priority="77" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="124" priority="79" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:C20">
-    <cfRule type="cellIs" dxfId="123" priority="78" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
-    <cfRule type="expression" dxfId="122" priority="1038">
-      <formula>AND($A18="end group", $B18 = "", $C23 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
-    <cfRule type="expression" dxfId="121" priority="1039">
-      <formula>AND($A18="end repeat", $B18 = "", $C23 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="120" priority="1043">
-      <formula>AND($A22="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 D22:N22">
-    <cfRule type="expression" dxfId="119" priority="1044">
-      <formula>AND(#REF!="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="118" priority="1047">
-      <formula>AND($I21 = "", $A22 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="117" priority="1048">
-      <formula>AND($I22 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="116" priority="1050">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="115" priority="1054">
-      <formula>AND($A22="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 D22:N22">
-    <cfRule type="expression" dxfId="114" priority="1055">
-      <formula>AND(#REF!="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14">
-    <cfRule type="expression" dxfId="113" priority="1069">
-      <formula>AND($A22="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:N21">
-    <cfRule type="expression" dxfId="112" priority="1070">
-      <formula>AND($A22="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14">
-    <cfRule type="expression" dxfId="111" priority="1071">
-      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:C14">
-    <cfRule type="expression" dxfId="110" priority="1072">
-      <formula>AND($A22="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:N21">
-    <cfRule type="expression" dxfId="109" priority="1073">
-      <formula>AND($A22="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="108" priority="72">
-      <formula>AND($A22="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="107" priority="73">
-      <formula>AND($A22="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="106" priority="70">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="expression" dxfId="105" priority="71">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="104" priority="68">
-      <formula>AND($A22="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="103" priority="69">
-      <formula>AND($A22="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="102" priority="66">
-      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="expression" dxfId="101" priority="67">
-      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="100" priority="1091">
-      <formula>AND($A23="end repeat", $B23 = "", $C23 = "", $D23 = "", $E22 = "", $F23 = "", $G23 = "", $H23 = "", $C23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="99" priority="1093">
-      <formula>AND($A23="end group", $B23 = "", $C23 = "", $D23 = "", $E22 = "", $F23 = "", $G23 = "", $H23 = "", $C23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:B46 F45:J46">
-    <cfRule type="expression" dxfId="98" priority="1128">
-      <formula>AND($A45="end group", $B45 = "", #REF! = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="97" priority="1153">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="96" priority="1154">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="95" priority="1168">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="94" priority="1169">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="93" priority="1170">
-      <formula>AND(#REF!="end group", #REF! = "", $C46 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="containsText" dxfId="92" priority="60" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="cellIs" dxfId="91" priority="61" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="90" priority="62">
-      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="89" priority="63">
-      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="88" priority="64">
-      <formula>AND(#REF!="begin group", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E46">
-    <cfRule type="expression" dxfId="87" priority="65">
-      <formula>AND(#REF!="begin repeat", NOT($B45 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B166:B989 B2:B20 A14 C14 A22:C22">
-    <cfRule type="expression" dxfId="86" priority="1185">
-      <formula>COUNTIF($B$2:$B$997,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67 C80">
-    <cfRule type="expression" dxfId="85" priority="55">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67 C80">
-    <cfRule type="expression" dxfId="84" priority="56">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="83" priority="57">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="expression" dxfId="82" priority="58">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C67 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67 C80">
-    <cfRule type="expression" dxfId="81" priority="59">
-      <formula>AND(#REF!="end group", #REF! = "", $C67 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="containsText" dxfId="80" priority="47" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="cellIs" dxfId="79" priority="48" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="78" priority="49">
-      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="77" priority="50">
-      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="76" priority="51">
-      <formula>AND(#REF!="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67">
-    <cfRule type="expression" dxfId="75" priority="52">
-      <formula>AND(#REF!="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="containsText" dxfId="74" priority="42" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="73" priority="43">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="cellIs" dxfId="72" priority="44" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="71" priority="45">
-      <formula>AND(AND(NOT($A70 = "end group"), NOT($A70 = "end repeat"), NOT($A70 = "")), $C70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="70" priority="46">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="containsText" dxfId="69" priority="38" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="68" priority="39">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="67" priority="40" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="66" priority="41">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="65" priority="35">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C80 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="64" priority="36">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C80 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="cellIs" dxfId="62" priority="26" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="expression" dxfId="61" priority="27">
-      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="expression" dxfId="60" priority="28">
-      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="expression" dxfId="59" priority="29">
-      <formula>AND(#REF!="begin group", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:E80">
-    <cfRule type="expression" dxfId="58" priority="30">
-      <formula>AND(#REF!="begin repeat", NOT($B79 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:N88 A81:C88">
-    <cfRule type="expression" dxfId="57" priority="1257">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", #REF! = "", $D81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:N88 A81:C88">
-    <cfRule type="expression" dxfId="56" priority="1262">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", #REF! = "", $D81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D85 D87:D88">
-    <cfRule type="expression" dxfId="55" priority="1268">
-      <formula>AND($D81 = "", $A81 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D85 D87:D88">
-    <cfRule type="expression" dxfId="54" priority="1270">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", #REF! = "", $D81 = "", $F81 = "", $G81 = "", $H81 = "", $D81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D85 D87:D88">
-    <cfRule type="expression" dxfId="53" priority="1272">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", #REF! = "", $D81 = "", $F81 = "", $G81 = "", $H81 = "", $D81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30 B23:B93 B100 B113">
-    <cfRule type="expression" dxfId="52" priority="1325">
-      <formula>COUNTIF($B$2:$B$1036,B23)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F85">
-    <cfRule type="expression" dxfId="51" priority="23">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:F85">
-    <cfRule type="expression" dxfId="50" priority="24">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="49" priority="1331">
-      <formula>AND($A20="end group", $B20 = "", $C26 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="48" priority="1333">
-      <formula>AND($A20="end repeat", $B20 = "", $C26 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="47" priority="1373">
-      <formula>AND($A22="end group", $B14 = "", $C26 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="46" priority="1374">
-      <formula>AND($A22="end repeat", $B14 = "", $C26 = "", $D21 = "", $E21 = "", $F21 = "", $G21 = "", $H21 = "", $I21 = "", $J21 = "", $K21 = "", $L21 = "", $M21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="45" priority="1375">
-      <formula>AND($A31="begin group", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="44" priority="1376">
-      <formula>AND(AND(NOT($A31 = "end group"), NOT($A31 = "end repeat"), NOT($A31 = "")), $B22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:C22">
-    <cfRule type="expression" dxfId="43" priority="1377">
-      <formula>AND($A31="begin repeat", NOT($B22 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="42" priority="1380">
-      <formula>AND(#REF!="end group", $B22 = "", $C26 = "", $D22 = "", #REF! = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="41" priority="1381">
-      <formula>AND(#REF!="end repeat", $B22 = "", $C26 = "", $D22 = "", #REF! = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46 F67:N67 A67:B67 D67 F80:N80 A80:B80 D80">
-    <cfRule type="expression" dxfId="40" priority="1395">
-      <formula>AND($A46="end group", $B46 = "", #REF! = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45 F66:N66 A66:B66 D66 F79:N79 A79:B79 D79">
-    <cfRule type="expression" dxfId="39" priority="1396">
-      <formula>AND($A45="end group", $B45 = "", $C46 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66:N66 A66:B66 D66 F79:N79 A79:B79 D79">
-    <cfRule type="expression" dxfId="38" priority="1399">
-      <formula>AND($A66="end repeat", $B66 = "", $C67 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:N67 A67:B67 D67 F80:N80 A80:B80 D80">
-    <cfRule type="expression" dxfId="37" priority="1400">
-      <formula>AND($A67="end repeat", $B67 = "", #REF! = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="36" priority="20">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="35" priority="21">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="34" priority="22">
-      <formula>AND(#REF!="end group", #REF! = "", $C93 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="33" priority="18">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="32" priority="19">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C93 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93:N93 A93:D93">
-    <cfRule type="expression" dxfId="31" priority="1403">
-      <formula>AND($A93="end repeat", $B93 = "", $C93 = "", $D93 = "", $E92 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:N92 A92:D92">
-    <cfRule type="expression" dxfId="30" priority="1404">
-      <formula>AND($A92="end repeat", $B92 = "", $C92 = "", $D92 = "", #REF! = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F93:N93 A93:D93">
-    <cfRule type="expression" dxfId="29" priority="1409">
-      <formula>AND($A93="end group", $B93 = "", $C93 = "", $D93 = "", $E92 = "", $F93 = "", $G93 = "", $H93 = "", $I93 = "", $J93 = "", $K93 = "", $L93 = "", $M93 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:N92 A92:D92">
-    <cfRule type="expression" dxfId="28" priority="1410">
-      <formula>AND($A92="end group", $B92 = "", $C92 = "", $D92 = "", #REF! = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="26" priority="12">
-      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="23" priority="15">
-      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="22" priority="16">
-      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", #REF! = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95">
-    <cfRule type="expression" dxfId="21" priority="17">
-      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", #REF! = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="19" priority="5">
-      <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:C99">
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A141">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="expression" dxfId="21" priority="8">
+      <formula>AND($A100="begin repeat", NOT($B100 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="expression" dxfId="20" priority="9">
+      <formula>AND($A100="end repeat", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:C100">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>AND($A100="end group", $B100 = "", $C100 = "", $D100 = "", $E100 = "", $F100 = "", $G100 = "", $H100 = "", $I100 = "", $J100 = "", $K100 = "", $L100 = "", $M100 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+  <conditionalFormatting sqref="A143">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="A147">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="1437">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$998, "begin group") = COUNTIF($A$1:$A$998, "end group"))</formula>
+    <cfRule type="expression" dxfId="15" priority="1437">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$999, "begin group") = COUNTIF($A$1:$A$999, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="1438">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$989, "begin group") = COUNTIF($A$1:$A$998, "end group")))</formula>
+    <cfRule type="expression" dxfId="14" priority="1438">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$990, "begin group") = COUNTIF($A$1:$A$999, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D146">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D147">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C111" r:id="rId1" display="mailto:info@agra.org"/>
+    <hyperlink ref="C112" r:id="rId1" display="mailto:info@agra.org"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12605,7 +12623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E291" sqref="E291"/>
     </sheetView>
@@ -18619,45 +18637,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="4" priority="362">
+    <cfRule type="expression" dxfId="7" priority="362">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="3" priority="363">
+    <cfRule type="expression" dxfId="6" priority="363">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="2" priority="773">
+    <cfRule type="expression" dxfId="5" priority="773">
       <formula>COUNTIF($B$2:$B$125,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18723,7 +18741,7 @@
       </c>
       <c r="C2" s="26">
         <f ca="1">NOW()</f>
-        <v>44476.619666087965</v>
+        <v>44476.635772222224</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>214</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\newforms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Original\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="548">
   <si>
     <t>type</t>
   </si>
@@ -1627,12 +1627,6 @@
     <t>elig</t>
   </si>
   <si>
-    <t>p_name</t>
-  </si>
-  <si>
-    <t>../p_name</t>
-  </si>
-  <si>
     <t>meta</t>
   </si>
   <si>
@@ -1676,6 +1670,9 @@
   </si>
   <si>
     <t>&lt;b&gt;In that case this marks the end of your participation in this study. Thank you for your time, and remember to stay safe and adhere to COVID-19 and TB safety measures&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>../name</t>
   </si>
 </sst>
 </file>
@@ -5543,10 +5540,10 @@
   <dimension ref="A1:N940"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C6"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5833,7 +5830,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>16</v>
@@ -5858,7 +5855,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="5"/>
@@ -6024,7 +6021,7 @@
         <v>477</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
@@ -6149,7 +6146,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
@@ -6376,7 +6373,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>16</v>
@@ -6411,7 +6408,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -6520,7 +6517,7 @@
         <v>65</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -6641,7 +6638,7 @@
         <v>485</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -6662,7 +6659,7 @@
         <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>77</v>
@@ -6853,7 +6850,7 @@
         <v>91</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>66</v>
@@ -7149,7 +7146,7 @@
         <v>490</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
@@ -7170,7 +7167,7 @@
         <v>29</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>491</v>
@@ -7453,7 +7450,7 @@
         <v>514</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
@@ -7474,7 +7471,7 @@
         <v>29</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>515</v>
@@ -7670,11 +7667,11 @@
         <v>29</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D89" s="31"/>
       <c r="E89" s="36" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -7725,7 +7722,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="17"/>
@@ -15983,7 +15980,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44476.688786342595</v>
+        <v>44476.861425578703</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Original\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Working Monday Oct 11 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="22404" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$57</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="578">
   <si>
     <t>type</t>
   </si>
@@ -1685,6 +1685,93 @@
   </si>
   <si>
     <t>${patient_name}</t>
+  </si>
+  <si>
+    <t>${national_id}</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>${phone}</t>
+  </si>
+  <si>
+    <t>patient_age</t>
+  </si>
+  <si>
+    <t>${age_years}</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>${dob_calendar}</t>
+  </si>
+  <si>
+    <t>p_national_id</t>
+  </si>
+  <si>
+    <t>${p_national_id}</t>
+  </si>
+  <si>
+    <t>dob_raw</t>
+  </si>
+  <si>
+    <t>if(${dob_known} = 'yes', ${dob_calendar},${dob_approx})</t>
+  </si>
+  <si>
+    <t>dob_iso</t>
+  </si>
+  <si>
+    <t>format-date-time(decimal-date-time(../dob_raw),"%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>age_in_years</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>floor( difference-in-months( ${date_of_birth}, today() ) div 12 )</t>
+  </si>
+  <si>
+    <t>. &lt; today()</t>
+  </si>
+  <si>
+    <t>Date cannot be in the future.</t>
+  </si>
+  <si>
+    <t>${dob_iso}</t>
+  </si>
+  <si>
+    <t>ephemeral_years</t>
+  </si>
+  <si>
+    <t>if(format-date-time(today(),"%m") - ${age_months} &lt; 0, format-date-time(today(),"%Y") - ${age_years} - 1, format-date-time(today(),"%Y") - ${age_years})</t>
+  </si>
+  <si>
+    <t>dob_approx</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>date(concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d"))))</t>
+  </si>
+  <si>
+    <t>dob_debug</t>
+  </si>
+  <si>
+    <t>Months: ${ephemeral_months} Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} DOB ISO: ${dob_iso} AGE Years: ${age_in_years}</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1884,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1840,6 +1927,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1853,7 +1976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1929,11 +2052,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="337">
+  <dxfs count="438">
     <dxf>
       <fill>
         <patternFill>
@@ -1982,6 +2121,917 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5617,13 +6667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N941"/>
+  <dimension ref="A1:N956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5975,20 +7025,22 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>466</v>
+        <v>550</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>467</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" t="s">
+        <v>560</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -5997,20 +7049,22 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>482</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" t="s">
+        <v>552</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -6019,20 +7073,22 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>472</v>
+        <v>553</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>473</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" t="s">
+        <v>554</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -6041,24 +7097,20 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" t="s">
+        <v>558</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -6067,22 +7119,22 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>486</v>
+        <v>555</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>475</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" t="s">
+        <v>556</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -6091,23 +7143,17 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -6117,20 +7163,18 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>546</v>
+        <v>482</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>487</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -6142,11 +7186,15 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>473</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6160,9 +7208,22 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -6173,18 +7234,18 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>484</v>
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>486</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6198,47 +7259,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>469</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>471</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>232</v>
+        <v>477</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -6246,202 +7310,177 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="7" t="s">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>40</v>
+      <c r="E31" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>535</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="I33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="K33" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="I34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="10" t="s">
+        <v>549</v>
+      </c>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -6451,69 +7490,70 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>463</v>
-      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>1</v>
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="I36" s="10"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>51</v>
+      <c r="A37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="3" t="s">
-        <v>547</v>
-      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -6521,24 +7561,18 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>53</v>
+      <c r="A38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="F38" s="3"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -6548,23 +7582,25 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>463</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -6574,24 +7610,24 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3" t="s">
-        <v>61</v>
+      <c r="G40" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>463</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -6602,26 +7638,22 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>536</v>
+      <c r="G41" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>463</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -6631,23 +7663,23 @@
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>69</v>
+      <c r="A42" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -6655,23 +7687,23 @@
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>73</v>
+      <c r="A43" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="I43" s="3" t="s">
+        <v>547</v>
+      </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -6679,18 +7711,22 @@
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>29</v>
+      <c r="A44" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="17"/>
+      <c r="F44" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -6701,14 +7737,22 @@
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -6718,62 +7762,82 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>29</v>
+    <row r="46" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+    </row>
+    <row r="47" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="17"/>
+      <c r="F48" s="3"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="I48" s="3" t="s">
+        <v>572</v>
+      </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
@@ -6781,23 +7845,23 @@
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>78</v>
+      <c r="A49" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>574</v>
+      </c>
+      <c r="D49" s="7"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="I49" s="3" t="s">
+        <v>575</v>
+      </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -6805,234 +7869,201 @@
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>72</v>
+      <c r="A50" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>81</v>
+        <v>576</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="3"/>
+        <v>577</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-    </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
+    <row r="51" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+    </row>
+    <row r="52" spans="1:14" s="39" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="38"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+    </row>
+    <row r="53" spans="1:14" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+    </row>
+    <row r="54" spans="1:14" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="D54" s="38"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+    </row>
+    <row r="55" spans="1:14" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="H55" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="I55" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+    </row>
+    <row r="56" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
-      <c r="K57" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -7042,369 +8073,381 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="F60" s="17"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>101</v>
+      <c r="F61" s="17"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>102</v>
+        <v>485</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>18</v>
+        <v>539</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>104</v>
+        <v>538</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="17"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="G66" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>490</v>
+        <v>88</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>540</v>
+        <v>90</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>498</v>
+      <c r="F69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>537</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>499</v>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>480</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>495</v>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>500</v>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -7417,18 +8460,16 @@
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>506</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -7441,17 +8482,17 @@
       <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>507</v>
+      <c r="A76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -7465,20 +8506,22 @@
       <c r="N76" s="3"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>508</v>
+      <c r="A77" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -7489,17 +8532,17 @@
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>509</v>
+      <c r="A78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -7513,14 +8556,22 @@
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -7531,7 +8582,9 @@
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -7548,18 +8601,16 @@
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>543</v>
+        <v>106</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -7570,16 +8621,10 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>515</v>
-      </c>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -7593,21 +8638,20 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -7617,22 +8661,19 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>524</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>71</v>
-      </c>
+    <row r="84" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -7644,115 +8685,122 @@
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
-        <v>55</v>
+        <v>492</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="D85" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="K85" s="31" t="s">
+        <v>510</v>
+      </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
-        <v>55</v>
+        <v>492</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>519</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="D86" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="31" t="s">
+        <v>511</v>
+      </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="I87" s="31" t="s">
+        <v>513</v>
+      </c>
       <c r="J87" s="3"/>
-      <c r="K87" s="31" t="s">
-        <v>530</v>
-      </c>
+      <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>49</v>
+      <c r="A88" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C88" s="32"/>
+        <v>496</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="34" t="s">
-        <v>529</v>
-      </c>
+      <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="K88" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
+      <c r="N88" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
-        <v>29</v>
+      <c r="A89" s="32" t="s">
+        <v>492</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>528</v>
-      </c>
-      <c r="D89" s="31"/>
+        <v>501</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -7763,20 +8811,20 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="D90" s="31"/>
-      <c r="E90" s="36" t="s">
-        <v>544</v>
-      </c>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -7788,12 +8836,18 @@
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="A91" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -7806,10 +8860,18 @@
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="A92" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -7821,166 +8883,484 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B96" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B99" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="D104" s="31"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+    </row>
+    <row r="105" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="D105" s="31"/>
+      <c r="E105" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="5" t="s">
+      <c r="C108" s="5"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-    </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="3" t="s">
+      <c r="D109" s="7"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-    </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="3" t="s">
+      <c r="D110" s="7"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-    </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="3" t="s">
+      <c r="D111" s="7"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-    </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="18" t="s">
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-    </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8794,1573 +10174,2069 @@
     <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A31:J31 A32:F35 I32:J35 A42:K42 A36:J41 K30:K41 D23:N23 E26:E27 A24:N24 L28:N54 F43:K49 A1:N13 A93:N941 A55:D63 F55:N63 A64:N65 D83:D87 E91:E92 A89:D92 F66:N92 J25:N27 F25:H27 A25:D27 A43:D51 C68:C69 C82 A14:H14 J14:N14 A15:N22">
-    <cfRule type="containsText" dxfId="336" priority="150" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54 K54:N54 A31:H31 A32:F35 F28:H30 A52:H53 C18:C19 I28:J41 A36:H42 K30:K41 L28:N41 A1:N13 A17:N17 A18:B22 A22:C22 A26:H27 A43:D46 A49:D51 I42:N53 A47:B48 D47:D48 F43:H49 D18:N22 A93:N941 I55:N63 A55:D63 F54:H63 A64:N65 D83:D87 E91:E92 A89:D92 F66:N92 J25:N27 A25:D25 F25:H25 C47 C68 A15:N15 A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="335" priority="151">
+  <conditionalFormatting sqref="A37:J37 A38:F41 I38:J41 A42:J47 K36:K47 D28:N28 E31:E32 A29:N29 L33:N47 F58:K64 A1:N13 A108:N956 A70:D78 F70:N78 A79:N80 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 F30:H32 A30:D32 A58:D66 C83:C84 C97 A19:H19 J19:N19 A20:N27 L57:N69 A57:K57 A51:N51">
+    <cfRule type="containsText" dxfId="437" priority="251" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69 K69:N69 A37:H37 A38:F41 F33:H36 A67:H68 C23:C24 I33:J47 A42:H47 K36:K47 L33:N47 A1:N13 A22:N22 A23:B27 A27:C27 A31:H32 A58:D61 A64:D66 A62:B63 D62:D63 F58:H64 D23:N27 A108:N956 I70:N78 A70:D78 F69:H78 A79:N80 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 A30:D30 F30:H30 C62 C83 A20:N20 A19:H19 J19:N19 A57:H57 I57:N68 A51:N51">
+    <cfRule type="expression" dxfId="436" priority="252">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:J31 A32:F35 I32:J35 A36:J42 K30:K41 L28:N41 D23:N23 E26:E27 A24:N24 K42:N54 F43:J49 A1:N13 A93:N941 A55:D63 F55:N63 A64:N65 D83:D87 E91:E92 A89:D92 F66:N92 J25:N27 F25:H27 A25:D27 A43:D51 C68:C69 C82 A14:H14 J14:N14 A15:N22">
-    <cfRule type="cellIs" dxfId="334" priority="153" operator="equal">
+  <conditionalFormatting sqref="A37:J37 A38:F41 I38:J41 A42:J47 K36:K47 L33:N47 D28:N28 E31:E32 A29:N29 F58:J64 A1:N13 A108:N956 A70:D78 F70:N78 A79:N80 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 F30:H32 A30:D32 A58:D66 C83:C84 C97 A19:H19 J19:N19 A20:N27 K57:N69 A57:J57 A51:N51">
+    <cfRule type="cellIs" dxfId="435" priority="254" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I13 I28:I941 I16:I22">
-    <cfRule type="expression" dxfId="333" priority="154">
+  <conditionalFormatting sqref="I1:I13 I33:I47 I21:I27 I57:I956 I51">
+    <cfRule type="expression" dxfId="434" priority="255">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C13 C17:C19 C49:C65 C83:C941 C25:C47 C68 C15">
-    <cfRule type="expression" dxfId="332" priority="155">
+  <conditionalFormatting sqref="C1:C13 C22:C24 C64:C80 C98:C956 C30:C47 C83 C20 C57:C62 C51">
+    <cfRule type="expression" dxfId="433" priority="256">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13 B17:B22 B25:B941 B15">
-    <cfRule type="expression" dxfId="331" priority="156">
+  <conditionalFormatting sqref="B1:B13 B22:B27 B30:B47 B20 B57:B956 B51">
+    <cfRule type="expression" dxfId="432" priority="257">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A13 A24:C24 A55:A941 A24:A53 A15:A22">
-    <cfRule type="cellIs" dxfId="330" priority="157" operator="equal">
+  <conditionalFormatting sqref="A1:A13 A29:C29 A70:A956 A29:A47 A20:A27 A57:A68 A51">
+    <cfRule type="cellIs" dxfId="431" priority="258" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="329" priority="159" operator="notEqual">
+    <cfRule type="cellIs" dxfId="430" priority="260" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="328" priority="160" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="429" priority="261" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="327" priority="161" operator="notEqual">
+    <cfRule type="cellIs" dxfId="428" priority="262" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="326" priority="162" operator="notEqual">
+    <cfRule type="cellIs" dxfId="427" priority="263" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="325" priority="163" operator="notEqual">
+    <cfRule type="cellIs" dxfId="426" priority="264" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="324" priority="164" operator="notEqual">
+    <cfRule type="cellIs" dxfId="425" priority="265" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="323" priority="165" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="424" priority="266" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="322" priority="166" operator="notEqual">
+    <cfRule type="cellIs" dxfId="423" priority="267" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="321" priority="167" operator="notEqual">
+    <cfRule type="cellIs" dxfId="422" priority="268" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="320" priority="168" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="421" priority="269" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="319" priority="169" operator="notEqual">
+    <cfRule type="cellIs" dxfId="420" priority="270" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="318" priority="170" operator="notEqual">
+    <cfRule type="cellIs" dxfId="419" priority="271" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H941 H1:H13 H15:H31">
-    <cfRule type="expression" dxfId="317" priority="171">
+  <conditionalFormatting sqref="H42:H47 H1:H13 H20:H37 H57:H956 H51">
+    <cfRule type="expression" dxfId="418" priority="272">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54 K54:N54 A31:H31 A32:F35 F28:H30 A52:H53 C18:C19 I28:J41 A36:H42 K30:K41 L28:N41 A1:N13 A17:N17 A18:B22 A22:C22 A26:H27 A43:D46 A49:D51 I42:N53 A47:B48 D47:D48 F43:H49 D18:N22 A93:N941 I55:N63 A55:D63 F54:H63 A64:N65 D83:D87 E91:E92 A89:D92 F66:N92 J25:N27 A25:D25 F25:H25 C47 C68 A15:N15 A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="316" priority="172">
+  <conditionalFormatting sqref="I69 K69:N69 A37:H37 A38:F41 F33:H36 A67:H68 C23:C24 I33:J47 A42:H47 K36:K47 L33:N47 A1:N13 A22:N22 A23:B27 A27:C27 A31:H32 A58:D61 A64:D66 A62:B63 D62:D63 F58:H64 D23:N27 A108:N956 I70:N78 A70:D78 F69:H78 A79:N80 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 A30:D30 F30:H30 C62 C83 A20:N20 A19:H19 J19:N19 A57:H57 I57:N68 A51:N51">
+    <cfRule type="expression" dxfId="417" priority="273">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="expression" dxfId="315" priority="174">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:J43 A43:D46 A49:D51 F49:J49 E44:J46 A55:D63 F55:J63 A64:J65 F91:N92 A91:D92 C47 F66:N67 C68 F70:N80">
-    <cfRule type="expression" dxfId="314" priority="175">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="313" priority="176">
+  <conditionalFormatting sqref="E59:E61">
+    <cfRule type="expression" dxfId="416" priority="275">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58:J58 A58:D61 A64:D66 F64:J64 E59:J61 A70:D78 F70:J78 A79:J80 F106:N107 A106:D107 C62 F81:N82 C83 F85:N95">
+    <cfRule type="expression" dxfId="415" priority="276">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="414" priority="277">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58:J58 A58:D61 A64:D66 E64:J64 E59:J61 A70:D78 F70:J78 A79:J80 F106:N107 A106:D107 C62 F81:N82 C83 F85:N95">
+    <cfRule type="expression" dxfId="413" priority="278">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
+    <cfRule type="expression" dxfId="412" priority="281">
+      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
+    <cfRule type="cellIs" dxfId="411" priority="282" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K34">
+    <cfRule type="expression" dxfId="410" priority="285">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="409" priority="286">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K34">
+    <cfRule type="expression" dxfId="408" priority="287">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="407" priority="288">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24 C20 C30:C32">
+    <cfRule type="expression" dxfId="406" priority="289">
+      <formula>AND($C20 = "", $A20 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24 C31:C32 C20">
+    <cfRule type="expression" dxfId="405" priority="290">
+      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24 C31:C32 C20">
+    <cfRule type="expression" dxfId="404" priority="291">
+      <formula>AND($A20="end group", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K34 F33:J36 A67:K68 A33:C36 F65:F66 H65:K66 B69:D69 F69:I69 K69">
+    <cfRule type="containsText" dxfId="403" priority="292" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C36 F65:F66 H65:H66 B69:D69">
+    <cfRule type="expression" dxfId="402" priority="293">
+      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C36 F33:J36 F65:F66 H65:J66 B69:D69 F69:I69">
+    <cfRule type="expression" dxfId="401" priority="294">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K34 F33:J36 A67:J68 A33:C36 F65:F66 H65:J66 B69:D69 F69:I69">
+    <cfRule type="cellIs" dxfId="400" priority="295" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="399" priority="298">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C36 F65:F66 H65:H66 B69:D69">
+    <cfRule type="expression" dxfId="398" priority="301">
+      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C36 F33:J36 F65:F66 H65:J66 B69:D69 F69:I69">
+    <cfRule type="expression" dxfId="397" priority="302">
+      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="396" priority="315" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="395" priority="316" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="394" priority="323" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="393" priority="324">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="392" priority="325">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="391" priority="326" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="390" priority="327">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="389" priority="328">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E61">
+    <cfRule type="containsText" dxfId="388" priority="335" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E61">
+    <cfRule type="expression" dxfId="387" priority="336">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E61">
+    <cfRule type="cellIs" dxfId="386" priority="338" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" dxfId="385" priority="345" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="384" priority="346" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="383" priority="347">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="382" priority="348">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="containsText" dxfId="381" priority="349" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="380" priority="350">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="379" priority="351">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="378" priority="352" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="377" priority="353">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="376" priority="354">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="containsText" dxfId="375" priority="355" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="374" priority="356">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="373" priority="357">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="372" priority="358" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="371" priority="359">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="expression" dxfId="370" priority="360">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" dxfId="369" priority="373" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="368" priority="374">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="367" priority="375">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="366" priority="376" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="365" priority="377">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="364" priority="378">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="containsText" dxfId="363" priority="385" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="362" priority="386">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="361" priority="387">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="360" priority="388" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="359" priority="389">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="358" priority="390">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="containsText" dxfId="357" priority="397" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="356" priority="398">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="355" priority="399">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="354" priority="400" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="353" priority="401">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="352" priority="402">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" dxfId="351" priority="403" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="350" priority="404">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="349" priority="405">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="348" priority="406" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="347" priority="407">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="346" priority="408">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="containsText" dxfId="345" priority="409" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="344" priority="410">
+      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="343" priority="411">
+      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="342" priority="412" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="341" priority="413">
+      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="340" priority="414">
+      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="containsText" dxfId="339" priority="415" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="338" priority="416">
+      <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="337" priority="417">
+      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="336" priority="418" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="335" priority="419">
+      <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="334" priority="420">
+      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" dxfId="333" priority="421" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="332" priority="422">
+      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="331" priority="423">
+      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="330" priority="424" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="329" priority="425">
+      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="328" priority="426">
+      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="containsText" dxfId="327" priority="427" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="326" priority="428">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="325" priority="429">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="324" priority="430" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="323" priority="431">
+      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="322" priority="432">
+      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="containsText" dxfId="321" priority="433" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="320" priority="434">
+      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="319" priority="435">
+      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="318" priority="436" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="317" priority="437">
+      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="316" priority="438">
+      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="containsText" dxfId="315" priority="439" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="314" priority="440">
+      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="313" priority="441">
+      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="312" priority="442" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="311" priority="443">
+      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="310" priority="444">
+      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
+    <cfRule type="containsText" dxfId="309" priority="463" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
+    <cfRule type="expression" dxfId="308" priority="464">
+      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A88:D95 A87:B87 D87 C96">
+    <cfRule type="expression" dxfId="307" priority="465">
+      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
+    <cfRule type="cellIs" dxfId="306" priority="466" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C82 C85:C86 C88:C96">
+    <cfRule type="expression" dxfId="305" priority="468">
+      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $C81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
+    <cfRule type="expression" dxfId="304" priority="472">
+      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A88:D95 A87:B87 D87 C96">
+    <cfRule type="expression" dxfId="303" priority="473">
+      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
+    <cfRule type="expression" dxfId="302" priority="479">
+      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
+    <cfRule type="expression" dxfId="301" priority="480">
+      <formula>AND($E81 = "", $A81 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
+    <cfRule type="expression" dxfId="300" priority="481">
+      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $E81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
+    <cfRule type="expression" dxfId="299" priority="482">
+      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $E81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
+    <cfRule type="containsText" dxfId="298" priority="483" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="containsText" dxfId="297" priority="234" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="expression" dxfId="296" priority="235">
+      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="expression" dxfId="295" priority="236">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="cellIs" dxfId="294" priority="237" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="expression" dxfId="293" priority="238">
+      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="expression" dxfId="292" priority="239">
+      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E36">
+    <cfRule type="containsText" dxfId="291" priority="240" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E36">
+    <cfRule type="expression" dxfId="290" priority="241">
+      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="289" priority="242">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E36">
+    <cfRule type="cellIs" dxfId="288" priority="243" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E36">
+    <cfRule type="expression" dxfId="287" priority="244">
+      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="286" priority="245">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="285" priority="246">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="284" priority="247">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", #REF! = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="283" priority="248">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="282" priority="249">
+      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", #REF! = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="containsText" dxfId="281" priority="228" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="280" priority="229">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="279" priority="230">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" dxfId="278" priority="231" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="277" priority="232">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="276" priority="233">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="containsText" dxfId="275" priority="222" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="274" priority="223">
+      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="273" priority="224">
+      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="cellIs" dxfId="272" priority="225" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="271" priority="226">
+      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66">
+    <cfRule type="expression" dxfId="270" priority="227">
+      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="containsText" dxfId="269" priority="215" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="268" priority="216">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="267" priority="217">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" dxfId="266" priority="218" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" dxfId="265" priority="219" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="264" priority="220">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="263" priority="221">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="containsText" dxfId="262" priority="209" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="expression" dxfId="261" priority="210">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="expression" dxfId="260" priority="211">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="cellIs" dxfId="259" priority="212" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="expression" dxfId="258" priority="213">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="expression" dxfId="257" priority="214">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:F41 I41:N41">
+    <cfRule type="expression" dxfId="256" priority="580">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", #REF! = "", #REF! = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:N40">
+    <cfRule type="expression" dxfId="255" priority="582">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G39 = "", $H39 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:F41 I41:N41">
+    <cfRule type="expression" dxfId="254" priority="594">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", #REF! = "", #REF! = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:N40">
+    <cfRule type="expression" dxfId="253" priority="596">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G39 = "", $H39 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="expression" dxfId="252" priority="203">
+      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="expression" dxfId="251" priority="204">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="expression" dxfId="250" priority="205">
+      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="expression" dxfId="249" priority="206">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="containsText" dxfId="248" priority="207" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="cellIs" dxfId="247" priority="208" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="246" priority="196">
+      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="245" priority="197">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="244" priority="198">
+      <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="243" priority="199">
+      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="242" priority="200">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="containsText" dxfId="241" priority="201" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="cellIs" dxfId="240" priority="202" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="239" priority="741">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="238" priority="743">
+      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="237" priority="753">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="236" priority="755">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="235" priority="757">
+      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="234" priority="768">
+      <formula>AND($C25 = "", $A23 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="233" priority="770">
+      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C27">
+    <cfRule type="expression" dxfId="232" priority="772">
+      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="231" priority="1016">
+      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="230" priority="1018">
+      <formula>AND($A25="end group", $B25 = "", $C29 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="229" priority="1020">
+      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="228" priority="1022">
+      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="227" priority="1024">
+      <formula>AND($A25="end repeat", $B25 = "", $C29 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="226" priority="1026">
+      <formula>AND($C29 = "", $A25 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="225" priority="1028">
+      <formula>AND($A25="end repeat", $B25 = "", $C29 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C29 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="224" priority="1030">
+      <formula>AND($A25="end group", $B25 = "", $C29 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C29 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="223" priority="1037">
+      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="222" priority="1043">
+      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21 D21:N21">
+    <cfRule type="expression" dxfId="221" priority="1059">
+      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21 D21:N21">
+    <cfRule type="expression" dxfId="220" priority="1075">
+      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="219" priority="1103">
+      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="218" priority="1104">
+      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="217" priority="1105">
+      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="216" priority="1106">
+      <formula>AND($C21 = "", $A25 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="215" priority="1107">
+      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="214" priority="1108">
+      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="213" priority="175" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="212" priority="173" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="211" priority="174" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="210" priority="176">
+      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="209" priority="177">
+      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="containsText" dxfId="208" priority="166" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="cellIs" dxfId="207" priority="168" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="cellIs" dxfId="206" priority="167" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="expression" dxfId="205" priority="1127">
+      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="expression" dxfId="204" priority="1128">
+      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="203" priority="1132">
+      <formula>AND($A29="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29 D29:N29">
+    <cfRule type="expression" dxfId="202" priority="1133">
+      <formula>AND(#REF!="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="201" priority="1136">
+      <formula>AND($I28 = "", $A29 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="200" priority="1137">
+      <formula>AND($I29 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="199" priority="1139">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="198" priority="1143">
+      <formula>AND($A29="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29 D29:N29">
+    <cfRule type="expression" dxfId="197" priority="1144">
+      <formula>AND(#REF!="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:C21">
+    <cfRule type="expression" dxfId="196" priority="1158">
+      <formula>AND($A29="begin group", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:N28">
+    <cfRule type="expression" dxfId="195" priority="1159">
+      <formula>AND($A29="begin group", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:C21">
+    <cfRule type="expression" dxfId="194" priority="1160">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:C21">
+    <cfRule type="expression" dxfId="193" priority="1161">
+      <formula>AND($A29="begin repeat", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:N28">
+    <cfRule type="expression" dxfId="192" priority="1162">
+      <formula>AND($A29="begin repeat", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="191" priority="161">
+      <formula>AND($A29="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="190" priority="162">
+      <formula>AND($A29="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="189" priority="159">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="188" priority="160">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="187" priority="157">
+      <formula>AND($A29="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="186" priority="158">
+      <formula>AND($A29="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="185" priority="155">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="184" priority="156">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="183" priority="1180">
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E29 = "", $F30 = "", $G30 = "", $H30 = "", $C30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="182" priority="1182">
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E29 = "", $F30 = "", $G30 = "", $H30 = "", $C30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B63 F62:J63">
+    <cfRule type="expression" dxfId="181" priority="1217">
+      <formula>AND($A62="end group", $B62 = "", #REF! = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="180" priority="1242">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="179" priority="1243">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="178" priority="1257">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="177" priority="1258">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C63 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="176" priority="1259">
+      <formula>AND(#REF!="end group", #REF! = "", $C63 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="containsText" dxfId="175" priority="149" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="cellIs" dxfId="174" priority="150" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63 K33:K34">
+    <cfRule type="expression" dxfId="173" priority="151">
+      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63 K33:K34">
+    <cfRule type="expression" dxfId="172" priority="152">
+      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="expression" dxfId="171" priority="153">
+      <formula>AND(#REF!="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="expression" dxfId="170" priority="154">
+      <formula>AND(#REF!="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108:B956 B2:B13 A21 C21 A29:C29 B20:B27">
+    <cfRule type="expression" dxfId="169" priority="1274">
+      <formula>COUNTIF($B$2:$B$964,A2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84 C97">
+    <cfRule type="expression" dxfId="168" priority="144">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84 C97">
+    <cfRule type="expression" dxfId="167" priority="145">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="expression" dxfId="166" priority="146">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="expression" dxfId="165" priority="147">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C84 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84 C97">
+    <cfRule type="expression" dxfId="164" priority="148">
+      <formula>AND(#REF!="end group", #REF! = "", $C84 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="containsText" dxfId="163" priority="136" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="cellIs" dxfId="162" priority="137" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="161" priority="138">
+      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="160" priority="139">
+      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="159" priority="140">
+      <formula>AND(#REF!="begin group", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="158" priority="141">
+      <formula>AND(#REF!="begin repeat", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="containsText" dxfId="157" priority="131" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" dxfId="156" priority="132">
+      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="cellIs" dxfId="155" priority="133" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" dxfId="154" priority="134">
+      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" dxfId="153" priority="135">
+      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="containsText" dxfId="152" priority="127" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="151" priority="128">
+      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="150" priority="129" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="149" priority="130">
+      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="expression" dxfId="148" priority="124">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="expression" dxfId="147" priority="125">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C97 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="containsText" dxfId="146" priority="114" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="cellIs" dxfId="145" priority="115" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="expression" dxfId="144" priority="116">
+      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="expression" dxfId="143" priority="117">
+      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="expression" dxfId="142" priority="118">
+      <formula>AND(#REF!="begin group", NOT($B96 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="expression" dxfId="141" priority="119">
+      <formula>AND(#REF!="begin repeat", NOT($B96 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:N105 A98:C105">
+    <cfRule type="expression" dxfId="140" priority="1346">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:N105 A98:C105">
+    <cfRule type="expression" dxfId="139" priority="1351">
+      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98:D102 D104:D105">
+    <cfRule type="expression" dxfId="138" priority="1357">
+      <formula>AND($D98 = "", $A98 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98:D102 D104:D105">
+    <cfRule type="expression" dxfId="137" priority="1359">
+      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $D98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98:D102 D104:D105">
+    <cfRule type="expression" dxfId="136" priority="1361">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $D98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38 B30:B47 B57:B107 B51">
+    <cfRule type="expression" dxfId="135" priority="1414">
+      <formula>COUNTIF($B$2:$B$1003,B30)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:F102">
+    <cfRule type="expression" dxfId="134" priority="112">
+      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:F102">
+    <cfRule type="expression" dxfId="133" priority="113">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="132" priority="1420">
+      <formula>AND($A27="end group", $B27 = "", $C33 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="131" priority="1422">
+      <formula>AND($A27="end repeat", $B27 = "", $C33 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="130" priority="1462">
+      <formula>AND($A29="end group", $B21 = "", $C33 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="129" priority="1463">
+      <formula>AND($A29="end repeat", $B21 = "", $C33 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="128" priority="1464">
+      <formula>AND($A39="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="127" priority="1465">
+      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="126" priority="1466">
+      <formula>AND($A39="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="125" priority="1469">
+      <formula>AND(#REF!="end group", $B29 = "", $C33 = "", $D29 = "", #REF! = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="124" priority="1470">
+      <formula>AND(#REF!="end repeat", $B29 = "", $C33 = "", $D29 = "", #REF! = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="123" priority="1477">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$965, "begin group") = COUNTIF($A$1:$A$965, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="122" priority="1478">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$956, "begin group") = COUNTIF($A$1:$A$965, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63 F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
+    <cfRule type="expression" dxfId="121" priority="1484">
+      <formula>AND($A63="end group", $B63 = "", #REF! = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62 F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
+    <cfRule type="expression" dxfId="120" priority="1485">
+      <formula>AND($A62="end group", $B62 = "", $C63 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
+    <cfRule type="expression" dxfId="119" priority="1488">
+      <formula>AND($A83="end repeat", $B83 = "", $C84 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
+    <cfRule type="expression" dxfId="118" priority="1489">
+      <formula>AND($A84="end repeat", $B84 = "", #REF! = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="117" priority="106">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="116" priority="107">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="115" priority="108" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="114" priority="109">
+      <formula>AND(NOT($G19 = ""), $H19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="113" priority="111">
+      <formula>COUNTIF($B$2:$B$964,B19)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="112" priority="1496">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="111" priority="1499">
+      <formula>AND($I20 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="110" priority="1501">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="containsText" dxfId="109" priority="98" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="108" priority="99">
+      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="cellIs" dxfId="107" priority="100" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="106" priority="101">
+      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="105" priority="93">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="104" priority="94">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="103" priority="95" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="102" priority="96">
+      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="101" priority="97">
+      <formula>COUNTIF($B$2:$B$964,B14)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="containsText" dxfId="100" priority="89" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="99" priority="90">
+      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="cellIs" dxfId="98" priority="91" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="97" priority="92">
+      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="96" priority="84">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="95" priority="85">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $B15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="94" priority="86" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="93" priority="87">
+      <formula>AND(NOT($G15 = ""), $H15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="92" priority="88">
+      <formula>COUNTIF($B$2:$B$964,B15)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="containsText" dxfId="91" priority="80" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="90" priority="81">
+      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="88" priority="83">
+      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="87" priority="75">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="86" priority="76">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $B16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="85" priority="77" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="84" priority="78">
+      <formula>AND(NOT($G16 = ""), $H16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="83" priority="79">
+      <formula>COUNTIF($B$2:$B$964,B16)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H18 J17:N18">
+    <cfRule type="containsText" dxfId="82" priority="71" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H18 J17:N18">
+    <cfRule type="expression" dxfId="81" priority="72">
+      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H18 J17:N18">
+    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H18 J17:N18">
+    <cfRule type="expression" dxfId="79" priority="74">
+      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C18">
+    <cfRule type="expression" dxfId="78" priority="66">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18">
+    <cfRule type="expression" dxfId="77" priority="67">
+      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H18">
+    <cfRule type="expression" dxfId="75" priority="69">
+      <formula>AND(NOT($G17 = ""), $H17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B18">
+    <cfRule type="expression" dxfId="74" priority="70">
+      <formula>COUNTIF($B$2:$B$964,B17)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:N56 A52:J56">
+    <cfRule type="containsText" dxfId="73" priority="49" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:J56">
+    <cfRule type="expression" dxfId="72" priority="50">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:N56">
+    <cfRule type="expression" dxfId="71" priority="51">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:J56">
+    <cfRule type="cellIs" dxfId="70" priority="52" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:I56">
+    <cfRule type="expression" dxfId="69" priority="53">
+      <formula>AND($I52 = "", $A52 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C56">
+    <cfRule type="expression" dxfId="68" priority="54">
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B56">
+    <cfRule type="expression" dxfId="67" priority="55">
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:A56">
+    <cfRule type="cellIs" dxfId="66" priority="56" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:H56">
+    <cfRule type="expression" dxfId="65" priority="57">
+      <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:J56">
+    <cfRule type="expression" dxfId="64" priority="58">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:N56">
+    <cfRule type="expression" dxfId="63" priority="59">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:K56">
+    <cfRule type="containsText" dxfId="62" priority="60" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:N56">
+    <cfRule type="expression" dxfId="61" priority="61">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:N56">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" dxfId="59" priority="63">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:N56">
+    <cfRule type="expression" dxfId="58" priority="64">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53 B52:B56">
+    <cfRule type="expression" dxfId="57" priority="65">
+      <formula>COUNTIF($B$2:$B$974,B52)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48:N48 A48:J48">
+    <cfRule type="containsText" dxfId="56" priority="33" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:J48">
+    <cfRule type="expression" dxfId="55" priority="34">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:N48">
+    <cfRule type="expression" dxfId="54" priority="35">
+      <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:J48">
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="52" priority="37">
+      <formula>AND($I48 = "", $A48 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="51" priority="38">
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="50" priority="39">
+      <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="48" priority="41">
+      <formula>AND(NOT($G48 = ""), $H48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:J48">
+    <cfRule type="expression" dxfId="47" priority="42">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:N48">
+    <cfRule type="expression" dxfId="46" priority="43">
+      <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:N48">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:N48">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:N48">
+    <cfRule type="expression" dxfId="42" priority="47">
+      <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
+    <cfRule type="expression" dxfId="41" priority="48">
+      <formula>COUNTIF($B$2:$B$969,B48)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:N49 A49:J49">
+    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:J49">
+    <cfRule type="expression" dxfId="39" priority="18">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:J43 A43:D46 A49:D51 E49:J49 E44:J46 A55:D63 F55:J63 A64:J65 F91:N92 A91:D92 C47 F66:N67 C68 F70:N80">
-    <cfRule type="expression" dxfId="312" priority="177">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80">
-    <cfRule type="expression" dxfId="311" priority="180">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80">
-    <cfRule type="cellIs" dxfId="310" priority="181" operator="equal">
+  <conditionalFormatting sqref="A49:N49">
+    <cfRule type="expression" dxfId="38" priority="19">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:J49">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="309" priority="184">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K28 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28 E24">
-    <cfRule type="expression" dxfId="308" priority="185">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="307" priority="186">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K28 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28 E24">
-    <cfRule type="expression" dxfId="306" priority="187">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C19 C15 C25:C27">
-    <cfRule type="expression" dxfId="305" priority="188">
-      <formula>AND($C15 = "", $A15 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C19 C26:C27 C15">
-    <cfRule type="expression" dxfId="304" priority="189">
-      <formula>AND($A15="end repeat", $B15 = "", $C15 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $C15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C19 C26:C27 C15">
-    <cfRule type="expression" dxfId="303" priority="190">
-      <formula>AND($A15="end group", $B15 = "", $C15 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $C15 = "", $J15 = "", $K15 = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28 F28:J30 A52:K53 A28:C30 F50:F51 H50:K51 B54:D54 F54:I54 K54">
-    <cfRule type="containsText" dxfId="302" priority="191" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C30 F50:F51 H50:H51 B54:D54">
-    <cfRule type="expression" dxfId="301" priority="192">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C30 F28:J30 F50:F51 H50:J51 B54:D54 F54:I54">
-    <cfRule type="expression" dxfId="300" priority="193">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28 F28:J30 A52:J53 A28:C30 F50:F51 H50:J51 B54:D54 F54:I54">
-    <cfRule type="cellIs" dxfId="299" priority="194" operator="equal">
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="36" priority="21">
+      <formula>AND($I49 = "", $A49 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="35" priority="22">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="34" priority="23">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="32" priority="25">
+      <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:J49">
+    <cfRule type="expression" dxfId="31" priority="26">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:N49">
+    <cfRule type="expression" dxfId="30" priority="27">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:N49">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:N49">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="298" priority="197">
-      <formula>AND(AND(NOT($A32 = "end group"), NOT($A32 = "end repeat"), NOT($A32 = "")), $B32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C30 F50:F51 H50:H51 B54:D54">
-    <cfRule type="expression" dxfId="297" priority="200">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:C30 F28:J30 F50:F51 H50:J51 B54:D54 F54:I54">
-    <cfRule type="expression" dxfId="296" priority="201">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="containsText" dxfId="295" priority="214" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="294" priority="215" operator="equal">
+  <conditionalFormatting sqref="K49:N49">
+    <cfRule type="expression" dxfId="26" priority="31">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="25" priority="32">
+      <formula>COUNTIF($B$2:$B$969,B49)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50:N50 A50:J50">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:J50">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:N50">
+    <cfRule type="expression" dxfId="22" priority="3">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:J50">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="containsText" dxfId="293" priority="222" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="292" priority="223">
-      <formula>AND($A43="begin group", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="291" priority="224">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="290" priority="225" operator="equal">
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="20" priority="5">
+      <formula>AND($I50 = "", $A50 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="19" priority="6">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="18" priority="7">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" dxfId="16" priority="9">
+      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:J50">
+    <cfRule type="expression" dxfId="15" priority="10">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:N50">
+    <cfRule type="expression" dxfId="14" priority="11">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:N50">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:N50">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="289" priority="226">
-      <formula>AND($A43="begin repeat", NOT($B43 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="expression" dxfId="288" priority="227">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G43 = "", $H43 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="containsText" dxfId="287" priority="234" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="expression" dxfId="286" priority="235">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E46">
-    <cfRule type="cellIs" dxfId="285" priority="237" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="284" priority="244" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="283" priority="245" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="282" priority="246">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="281" priority="247">
-      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="280" priority="248" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="279" priority="249">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="278" priority="250">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="277" priority="251" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="276" priority="252">
+  <conditionalFormatting sqref="K50:N50">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="275" priority="253">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="274" priority="254" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="273" priority="255">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="272" priority="256">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="271" priority="257" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="270" priority="258">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="expression" dxfId="269" priority="259">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="268" priority="272" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="267" priority="273">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="266" priority="274">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="265" priority="275" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="264" priority="276">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="263" priority="277">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="262" priority="284" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="261" priority="285">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="260" priority="286">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="259" priority="287" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="258" priority="288">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="expression" dxfId="257" priority="289">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="256" priority="296" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="255" priority="297">
-      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="254" priority="298">
-      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="253" priority="299" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="252" priority="300">
-      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="expression" dxfId="251" priority="301">
-      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="250" priority="302" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="249" priority="303">
-      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="248" priority="304">
-      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="247" priority="305" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="246" priority="306">
-      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="expression" dxfId="245" priority="307">
-      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="244" priority="308" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="243" priority="309">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="242" priority="310">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="241" priority="311" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="240" priority="312">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="239" priority="313">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="238" priority="314" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="237" priority="315">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="236" priority="316">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="235" priority="317" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="234" priority="318">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="233" priority="319">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" dxfId="232" priority="320" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="231" priority="321">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="230" priority="322">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="229" priority="323" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="228" priority="324">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="227" priority="325">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="containsText" dxfId="226" priority="326" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="225" priority="327">
-      <formula>AND($A61="begin group", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="224" priority="328">
-      <formula>AND($A61="end group", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="223" priority="329" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="222" priority="330">
-      <formula>AND($A61="begin repeat", NOT($B61 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="expression" dxfId="221" priority="331">
-      <formula>AND($A61="end repeat", $B61 = "", $C61 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="containsText" dxfId="220" priority="332" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="219" priority="333">
-      <formula>AND($A62="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="218" priority="334">
-      <formula>AND($A62="end group", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="217" priority="335" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="216" priority="336">
-      <formula>AND($A62="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="expression" dxfId="215" priority="337">
-      <formula>AND($A62="end repeat", $B62 = "", $C62 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="containsText" dxfId="214" priority="338" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="213" priority="339">
-      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="212" priority="340">
-      <formula>AND($A63="end group", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="211" priority="341" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="210" priority="342">
-      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="expression" dxfId="209" priority="343">
-      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A68:B69 D68:D69 A73:D80 A72:B72 D72 A83:D87 A81:B82 D81:D82 A88:C88 C81">
-    <cfRule type="containsText" dxfId="208" priority="362" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A68:B69 D68:D69 A73:D80 A72:B72 D72 A83:D87 A81:B82 D81:D82 A88:C88 C81">
-    <cfRule type="expression" dxfId="207" priority="363">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A73:D80 A72:B72 D72 C81">
-    <cfRule type="expression" dxfId="206" priority="364">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A68:B69 D68:D69 A73:D80 A72:B72 D72 A83:D87 A81:B82 D81:D82 A88:C88 C81">
-    <cfRule type="cellIs" dxfId="205" priority="365" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66:C67 C70:C71 C73:C81">
-    <cfRule type="expression" dxfId="204" priority="367">
-      <formula>AND(AND(NOT($A66 = "end group"), NOT($A66 = "end repeat"), NOT($A66 = "")), $C66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A68:B69 D68:D69 A73:D80 A72:B72 D72 A83:D87 A81:B82 D81:D82 A88:C88 C81">
-    <cfRule type="expression" dxfId="203" priority="371">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:D67 A70:D71 A73:D80 A72:B72 D72 C81">
-    <cfRule type="expression" dxfId="202" priority="372">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80">
-    <cfRule type="expression" dxfId="201" priority="378">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80 E91:E92">
-    <cfRule type="expression" dxfId="200" priority="379">
-      <formula>AND($E66 = "", $A66 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80 E91:E92">
-    <cfRule type="expression" dxfId="199" priority="380">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $E66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80 E91:E92">
-    <cfRule type="expression" dxfId="198" priority="381">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $E66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:E67 E70:E71 E73:E80">
-    <cfRule type="containsText" dxfId="197" priority="382" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="containsText" dxfId="196" priority="133" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="195" priority="134">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="194" priority="135">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="cellIs" dxfId="193" priority="136" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="192" priority="137">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D30">
-    <cfRule type="expression" dxfId="191" priority="138">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="containsText" dxfId="190" priority="139" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="expression" dxfId="189" priority="140">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="188" priority="141">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="cellIs" dxfId="187" priority="142" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="expression" dxfId="186" priority="143">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="185" priority="144">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="184" priority="145">
-      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K28 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="183" priority="146">
-      <formula>AND($A28="end group", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", #REF! = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="182" priority="147">
-      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K28 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="181" priority="148">
-      <formula>AND($A28="end repeat", $B28 = "", $C28 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", #REF! = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="containsText" dxfId="180" priority="127" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="179" priority="128">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="178" priority="129">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="177" priority="130" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="176" priority="131">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="175" priority="132">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="containsText" dxfId="174" priority="121" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="173" priority="122">
-      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="172" priority="123">
-      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="171" priority="124" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="170" priority="125">
-      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="169" priority="126">
-      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="containsText" dxfId="168" priority="114" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="167" priority="115">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="166" priority="116">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="165" priority="117" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="164" priority="118" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="163" priority="119">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="162" priority="120">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="containsText" dxfId="161" priority="108" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="160" priority="109">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="159" priority="110">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="cellIs" dxfId="158" priority="111" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="157" priority="112">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="expression" dxfId="156" priority="113">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:F35 I35:N35">
-    <cfRule type="expression" dxfId="155" priority="479">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", #REF! = "", #REF! = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:N34">
-    <cfRule type="expression" dxfId="154" priority="481">
-      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G33 = "", $H33 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:F35 I35:N35">
-    <cfRule type="expression" dxfId="153" priority="493">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", #REF! = "", #REF! = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:N34">
-    <cfRule type="expression" dxfId="152" priority="495">
-      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G33 = "", $H33 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="expression" dxfId="151" priority="102">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="expression" dxfId="150" priority="103">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="expression" dxfId="149" priority="104">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="expression" dxfId="148" priority="105">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="containsText" dxfId="147" priority="106" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G35">
-    <cfRule type="cellIs" dxfId="146" priority="107" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="145" priority="95">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="144" priority="96">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="143" priority="97">
-      <formula>AND(NOT($G33 = ""), $H33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="142" priority="98">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="expression" dxfId="141" priority="99">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="containsText" dxfId="140" priority="100" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33:H35">
-    <cfRule type="cellIs" dxfId="139" priority="101" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="138" priority="640">
-      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="137" priority="642">
-      <formula>AND($A18="end group", $B18 = "", $C20 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="136" priority="652">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="135" priority="654">
-      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="134" priority="656">
-      <formula>AND($A18="end repeat", $B18 = "", $C20 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="133" priority="667">
-      <formula>AND($C20 = "", $A18 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="132" priority="669">
-      <formula>AND($A18="end repeat", $B18 = "", $C20 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C20 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22">
-    <cfRule type="expression" dxfId="131" priority="671">
-      <formula>AND($A18="end group", $B18 = "", $C20 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $C20 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="130" priority="915">
-      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="129" priority="917">
-      <formula>AND($A20="end group", $B20 = "", $C24 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="128" priority="919">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $C24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="127" priority="921">
-      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="126" priority="923">
-      <formula>AND($A20="end repeat", $B20 = "", $C24 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="125" priority="925">
-      <formula>AND($C24 = "", $A20 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="124" priority="927">
-      <formula>AND($A20="end repeat", $B20 = "", $C24 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C24 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="123" priority="929">
-      <formula>AND($A20="end group", $B20 = "", $C24 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C24 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="122" priority="936">
-      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="121" priority="942">
-      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16 D16:N16">
-    <cfRule type="expression" dxfId="120" priority="958">
-      <formula>AND($A16="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16 D16:N16">
-    <cfRule type="expression" dxfId="119" priority="974">
-      <formula>AND($A16="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="118" priority="1002">
-      <formula>AND($A20="end group", $B20 = "", $C16 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="117" priority="1003">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $C16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="116" priority="1004">
-      <formula>AND($A20="end repeat", $B20 = "", $C16 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="115" priority="1005">
-      <formula>AND($C16 = "", $A20 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="114" priority="1006">
-      <formula>AND($A20="end repeat", $B20 = "", $C16 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C16 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="113" priority="1007">
-      <formula>AND($A20="end group", $B20 = "", $C16 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C16 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="112" priority="74" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="111" priority="72" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="110" priority="73" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="109" priority="75">
-      <formula>AND($A16="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="108" priority="76">
-      <formula>AND($A16="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="containsText" dxfId="107" priority="65" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="106" priority="67" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22">
-    <cfRule type="cellIs" dxfId="105" priority="66" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21">
-    <cfRule type="expression" dxfId="104" priority="1026">
-      <formula>AND($A20="end group", $B20 = "", $C25 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21">
-    <cfRule type="expression" dxfId="103" priority="1027">
-      <formula>AND($A20="end repeat", $B20 = "", $C25 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $I20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="102" priority="1031">
-      <formula>AND($A24="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24 D24:N24">
-    <cfRule type="expression" dxfId="101" priority="1032">
-      <formula>AND(#REF!="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="100" priority="1035">
-      <formula>AND($I23 = "", $A24 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="99" priority="1036">
-      <formula>AND($I24 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="expression" dxfId="98" priority="1038">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="97" priority="1042">
-      <formula>AND($A24="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24 D24:N24">
-    <cfRule type="expression" dxfId="96" priority="1043">
-      <formula>AND(#REF!="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16">
-    <cfRule type="expression" dxfId="95" priority="1057">
-      <formula>AND($A24="begin group", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:N23">
-    <cfRule type="expression" dxfId="94" priority="1058">
-      <formula>AND($A24="begin group", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16">
-    <cfRule type="expression" dxfId="93" priority="1059">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $B16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:C16">
-    <cfRule type="expression" dxfId="92" priority="1060">
-      <formula>AND($A24="begin repeat", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:N23">
-    <cfRule type="expression" dxfId="91" priority="1061">
-      <formula>AND($A24="begin repeat", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="90" priority="60">
-      <formula>AND($A24="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="89" priority="61">
-      <formula>AND($A24="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="88" priority="58">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="expression" dxfId="87" priority="59">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="86" priority="56">
-      <formula>AND($A24="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="85" priority="57">
-      <formula>AND($A24="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="84" priority="54">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:C24">
-    <cfRule type="expression" dxfId="83" priority="55">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="82" priority="1079">
-      <formula>AND($A25="end repeat", $B25 = "", $C25 = "", $D25 = "", $E24 = "", $F25 = "", $G25 = "", $H25 = "", $C25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="81" priority="1081">
-      <formula>AND($A25="end group", $B25 = "", $C25 = "", $D25 = "", $E24 = "", $F25 = "", $G25 = "", $H25 = "", $C25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B48 F47:J48">
-    <cfRule type="expression" dxfId="80" priority="1116">
-      <formula>AND($A47="end group", $B47 = "", #REF! = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="79" priority="1141">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="78" priority="1142">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="77" priority="1156">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="76" priority="1157">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C48 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="75" priority="1158">
-      <formula>AND(#REF!="end group", #REF! = "", $C48 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="containsText" dxfId="74" priority="48" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="cellIs" dxfId="73" priority="49" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="72" priority="50">
-      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="71" priority="51">
-      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="70" priority="52">
-      <formula>AND(#REF!="begin group", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="expression" dxfId="69" priority="53">
-      <formula>AND(#REF!="begin repeat", NOT($B47 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B93:B941 B2:B13 A16 C16 A24:C24 B15:B22">
-    <cfRule type="expression" dxfId="68" priority="1173">
-      <formula>COUNTIF($B$2:$B$949,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69 C82">
-    <cfRule type="expression" dxfId="67" priority="43">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69 C82">
-    <cfRule type="expression" dxfId="66" priority="44">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="65" priority="45">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="64" priority="46">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C69 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69 C82">
-    <cfRule type="expression" dxfId="63" priority="47">
-      <formula>AND(#REF!="end group", #REF! = "", $C69 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="containsText" dxfId="62" priority="35" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="cellIs" dxfId="61" priority="36" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" dxfId="60" priority="37">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" dxfId="59" priority="38">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" dxfId="58" priority="39">
-      <formula>AND(#REF!="begin group", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E69">
-    <cfRule type="expression" dxfId="57" priority="40">
-      <formula>AND(#REF!="begin repeat", NOT($B68 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="56" priority="30" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="55" priority="31">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="53" priority="33">
-      <formula>AND(AND(NOT($A72 = "end group"), NOT($A72 = "end repeat"), NOT($A72 = "")), $C72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="expression" dxfId="52" priority="34">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="51" priority="26" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="50" priority="27">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="48" priority="29">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="47" priority="23">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="46" priority="24">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C82 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="expression" dxfId="43" priority="15">
-      <formula>AND($A83="begin repeat", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="expression" dxfId="42" priority="16">
-      <formula>AND($A83="begin group", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="expression" dxfId="41" priority="17">
-      <formula>AND(#REF!="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="expression" dxfId="40" priority="18">
-      <formula>AND(#REF!="begin repeat", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:N90 A83:C90">
-    <cfRule type="expression" dxfId="39" priority="1245">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", #REF! = "", $D83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:N90 A83:C90">
-    <cfRule type="expression" dxfId="38" priority="1250">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", #REF! = "", $D83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D87 D89:D90">
-    <cfRule type="expression" dxfId="37" priority="1256">
-      <formula>AND($D83 = "", $A83 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D87 D89:D90">
-    <cfRule type="expression" dxfId="36" priority="1258">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", #REF! = "", $D83 = "", $F83 = "", $G83 = "", $H83 = "", $D83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:D87 D89:D90">
-    <cfRule type="expression" dxfId="35" priority="1260">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", #REF! = "", $D83 = "", $F83 = "", $G83 = "", $H83 = "", $D83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32 B25:B92">
-    <cfRule type="expression" dxfId="34" priority="1313">
-      <formula>COUNTIF($B$2:$B$988,B25)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:F87">
-    <cfRule type="expression" dxfId="33" priority="11">
-      <formula>AND($A83="end repeat", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:F87">
-    <cfRule type="expression" dxfId="32" priority="12">
-      <formula>AND($A83="end group", $B83 = "", $C83 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="31" priority="1319">
-      <formula>AND($A22="end group", $B22 = "", $C28 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="30" priority="1321">
-      <formula>AND($A22="end repeat", $B22 = "", $C28 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="29" priority="1361">
-      <formula>AND($A24="end group", $B16 = "", $C28 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="28" priority="1362">
-      <formula>AND($A24="end repeat", $B16 = "", $C28 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="27" priority="1363">
-      <formula>AND($A33="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="26" priority="1364">
-      <formula>AND(AND(NOT($A33 = "end group"), NOT($A33 = "end repeat"), NOT($A33 = "")), $B24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:C24">
-    <cfRule type="expression" dxfId="25" priority="1365">
-      <formula>AND($A33="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="24" priority="1368">
-      <formula>AND(#REF!="end group", $B24 = "", $C28 = "", $D24 = "", #REF! = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="23" priority="1369">
-      <formula>AND(#REF!="end repeat", $B24 = "", $C28 = "", $D24 = "", #REF! = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="22" priority="1376">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$950, "begin group") = COUNTIF($A$1:$A$950, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="21" priority="1377">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$941, "begin group") = COUNTIF($A$1:$A$950, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48 F69:N69 A69:B69 D69 F82:N82 A82:B82 D82">
-    <cfRule type="expression" dxfId="20" priority="1383">
-      <formula>AND($A48="end group", $B48 = "", #REF! = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47 F68:N68 A68:B68 D68 F81:N81 A81:B81 D81">
-    <cfRule type="expression" dxfId="19" priority="1384">
-      <formula>AND($A47="end group", $B47 = "", $C48 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68:N68 A68:B68 D68 F81:N81 A81:B81 D81">
-    <cfRule type="expression" dxfId="18" priority="1387">
-      <formula>AND($A68="end repeat", $B68 = "", $C69 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69:N69 A69:B69 D69 F82:N82 A82:B82 D82">
-    <cfRule type="expression" dxfId="17" priority="1388">
-      <formula>AND($A69="end repeat", $B69 = "", #REF! = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="16" priority="5">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="15" priority="6">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="13" priority="8">
-      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>COUNTIF($B$2:$B$949,B14)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="11" priority="1395">
-      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="10" priority="1398">
-      <formula>AND($I15 = "", $A14 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="9" priority="1400">
-      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="9" priority="16">
+      <formula>COUNTIF($B$2:$B$969,B50)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D98">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D113">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16124,7 +18000,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44477.485852662037</v>
+        <v>44480.60823622685</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -1756,22 +1756,22 @@
     <t>ephemeral_years</t>
   </si>
   <si>
-    <t>if(format-date-time(today(),"%m") - ${age_months} &lt; 0, format-date-time(today(),"%Y") - ${age_years} - 1, format-date-time(today(),"%Y") - ${age_years})</t>
-  </si>
-  <si>
     <t>dob_approx</t>
   </si>
   <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>date(concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d"))))</t>
-  </si>
-  <si>
     <t>dob_debug</t>
   </si>
   <si>
     <t>Months: ${ephemeral_months} Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} DOB ISO: ${dob_iso} AGE Years: ${age_in_years}</t>
+  </si>
+  <si>
+    <t>if(format-date-time(today(),"%Y") - ${age_years} - 1, format-date-time(today(),"%Y") - ${age_years})</t>
+  </si>
+  <si>
+    <t>date(concat(string(${ephemeral_years}),'-',string(format-date-time(today(), "%d"))))</t>
   </si>
 </sst>
 </file>
@@ -6670,10 +6670,10 @@
   <dimension ref="A1:N956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7836,7 +7836,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -7849,10 +7849,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="3"/>
@@ -7860,7 +7860,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -7873,10 +7873,10 @@
         <v>29</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="16" t="b">
@@ -18000,7 +18000,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.60823622685</v>
+        <v>44480.623240740744</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -17,7 +17,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$56</definedName>
   </definedNames>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="577">
   <si>
     <t>type</t>
   </si>
@@ -1712,9 +1712,6 @@
   </si>
   <si>
     <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>${dob_calendar}</t>
   </si>
   <si>
     <t>p_national_id</t>
@@ -2072,1107 +2069,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="438">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="429">
     <dxf>
       <font>
         <strike/>
@@ -3188,6 +2085,1037 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6667,13 +6595,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N956"/>
+  <dimension ref="A1:N955"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7039,7 +6967,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -7100,16 +7028,18 @@
         <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>555</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -7119,22 +7049,20 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>555</v>
+        <v>466</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>467</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" t="s">
-        <v>556</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -7143,13 +7071,13 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -7165,13 +7093,13 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -7187,17 +7115,21 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -7209,21 +7141,19 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -7235,19 +7165,23 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>469</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>476</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -7257,25 +7191,21 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -7285,20 +7215,14 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>546</v>
-      </c>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>487</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -7310,11 +7234,6 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -7328,8 +7247,19 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>484</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -7341,23 +7271,20 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>484</v>
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -7366,16 +7293,23 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="F30" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="12"/>
@@ -7387,23 +7321,17 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>232</v>
+        <v>535</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="12"/>
@@ -7413,74 +7341,77 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>535</v>
+        <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>237</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="10"/>
+      <c r="I33" s="10" t="s">
+        <v>549</v>
+      </c>
       <c r="J33" s="7"/>
-      <c r="K33" s="3" t="s">
-        <v>241</v>
-      </c>
+      <c r="K33" s="3"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="10" t="s">
-        <v>549</v>
-      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="3"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -7490,50 +7421,47 @@
         <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>36</v>
+      <c r="A36" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>239</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -7543,16 +7471,14 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -7561,18 +7487,26 @@
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>40</v>
+      <c r="A38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
+      <c r="G38" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>463</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -7585,10 +7519,10 @@
         <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>44</v>
@@ -7613,14 +7547,12 @@
         <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="29" t="s">
@@ -7637,25 +7569,23 @@
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>47</v>
+      <c r="A41" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="I41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -7666,8 +7596,8 @@
       <c r="A42" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>1</v>
+      <c r="B42" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>16</v>
@@ -7678,7 +7608,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="3" t="s">
-        <v>50</v>
+        <v>547</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -7687,23 +7617,25 @@
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>49</v>
+      <c r="A43" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="3" t="s">
-        <v>547</v>
-      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -7712,13 +7644,13 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>44</v>
@@ -7736,52 +7668,56 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="3" t="s">
+    <row r="45" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="E45" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
     </row>
     <row r="46" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="D46" s="41" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="G46" s="41" t="s">
+        <v>65</v>
+      </c>
       <c r="H46" s="41" t="s">
-        <v>61</v>
+        <v>536</v>
       </c>
       <c r="I46" s="42"/>
       <c r="J46" s="42"/>
@@ -7790,35 +7726,29 @@
       <c r="M46" s="42"/>
       <c r="N46" s="42"/>
     </row>
-    <row r="47" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
@@ -7828,7 +7758,7 @@
         <v>571</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>572</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="3"/>
@@ -7845,79 +7775,79 @@
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>49</v>
+      <c r="A49" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="16" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="3" t="s">
-        <v>577</v>
-      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="16" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-    </row>
-    <row r="52" spans="1:14" s="39" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+    </row>
+    <row r="51" spans="1:14" s="39" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="37" t="s">
+        <v>561</v>
+      </c>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+    </row>
+    <row r="52" spans="1:14" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="37"/>
@@ -7925,7 +7855,7 @@
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
       <c r="I52" s="37" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
@@ -7938,10 +7868,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>67</v>
+        <v>565</v>
       </c>
       <c r="D53" s="38"/>
       <c r="E53" s="37"/>
@@ -7949,7 +7879,7 @@
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
       <c r="I53" s="37" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
@@ -7962,18 +7892,22 @@
         <v>49</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>566</v>
+        <v>16</v>
       </c>
       <c r="D54" s="38"/>
-      <c r="E54" s="37"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="G54" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>568</v>
+      </c>
       <c r="I54" s="37" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
@@ -7981,59 +7915,55 @@
       <c r="M54" s="38"/>
       <c r="N54" s="38"/>
     </row>
-    <row r="55" spans="1:14" s="39" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37" t="s">
-        <v>568</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>569</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-    </row>
-    <row r="56" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
+    <row r="55" spans="1:14" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="3"/>
@@ -8050,20 +7980,18 @@
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>73</v>
+      <c r="A58" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F58" s="17"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -8075,14 +8003,10 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="17"/>
@@ -8096,9 +8020,7 @@
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="A60" s="13"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -8114,11 +8036,19 @@
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="F61" s="17"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
@@ -8129,20 +8059,18 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>539</v>
+        <v>77</v>
       </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="17"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -8153,19 +8081,21 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>29</v>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="17"/>
+      <c r="F63" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -8177,24 +8107,30 @@
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+      <c r="K64" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
@@ -8204,13 +8140,13 @@
         <v>72</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -8231,43 +8167,39 @@
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="F66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-      <c r="K66" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>44</v>
@@ -8279,7 +8211,9 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="J67" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -8287,16 +8221,16 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
@@ -8306,7 +8240,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="3" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
@@ -8315,27 +8249,23 @@
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>229</v>
+        <v>537</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -8346,13 +8276,13 @@
         <v>18</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>91</v>
+        <v>479</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -8370,21 +8300,21 @@
         <v>18</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>479</v>
+        <v>92</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+      <c r="K71" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
@@ -8394,58 +8324,56 @@
         <v>18</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -8461,15 +8389,17 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -8483,19 +8413,21 @@
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -8507,21 +8439,19 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -8533,19 +8463,21 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>104</v>
+        <v>488</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>105</v>
+        <v>489</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -8557,21 +8489,13 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -8583,10 +8507,14 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -8600,15 +8528,9 @@
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -8622,11 +8544,19 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>541</v>
+      </c>
       <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -8637,20 +8567,18 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -8661,24 +8589,28 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D84" s="3"/>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="K84" s="31" t="s">
+        <v>510</v>
+      </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -8688,10 +8620,10 @@
         <v>492</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>44</v>
@@ -8703,7 +8635,7 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="31" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -8711,63 +8643,65 @@
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
-        <v>492</v>
+        <v>49</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="C86" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
+      <c r="I86" s="31" t="s">
+        <v>513</v>
+      </c>
       <c r="J86" s="3"/>
-      <c r="K86" s="31" t="s">
-        <v>511</v>
-      </c>
+      <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>496</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="31" t="s">
-        <v>513</v>
-      </c>
+      <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="K87" s="31" t="s">
+        <v>512</v>
+      </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
+      <c r="N87" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
-        <v>29</v>
+        <v>492</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>44</v>
@@ -8778,24 +8712,20 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="31" t="s">
-        <v>512</v>
-      </c>
+      <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-      <c r="N88" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>492</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>44</v>
@@ -8813,13 +8743,13 @@
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
-        <v>492</v>
+        <v>62</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>44</v>
@@ -8840,10 +8770,10 @@
         <v>62</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>44</v>
@@ -8864,10 +8794,10 @@
         <v>62</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>44</v>
@@ -8885,17 +8815,11 @@
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>509</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -8908,11 +8832,9 @@
       <c r="N93" s="3"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -8926,11 +8848,19 @@
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>543</v>
+      </c>
       <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -8941,20 +8871,18 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="D96" s="3"/>
-      <c r="E96" s="3" t="s">
-        <v>478</v>
-      </c>
+      <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -8965,19 +8893,22 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -8992,10 +8923,10 @@
         <v>55</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C98" s="35" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D98" s="31" t="s">
         <v>44</v>
@@ -9017,10 +8948,10 @@
         <v>55</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D99" s="31" t="s">
         <v>44</v>
@@ -9042,10 +8973,10 @@
         <v>55</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>44</v>
@@ -9067,13 +8998,16 @@
         <v>55</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D101" s="31" t="s">
         <v>44</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>521</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>71</v>
@@ -9082,72 +9016,68 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="K101" s="31" t="s">
+        <v>530</v>
+      </c>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
-        <v>55</v>
+      <c r="A102" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>520</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C102" s="32"/>
+      <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
+      <c r="I102" s="34" t="s">
+        <v>529</v>
+      </c>
       <c r="J102" s="3"/>
-      <c r="K102" s="31" t="s">
-        <v>530</v>
-      </c>
+      <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C103" s="32"/>
+        <v>531</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="D103" s="31"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="34" t="s">
-        <v>529</v>
-      </c>
+      <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
     </row>
-    <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B104" s="32" t="s">
-        <v>531</v>
-      </c>
-      <c r="C104" s="32" t="s">
-        <v>528</v>
+      <c r="B104" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>545</v>
       </c>
       <c r="D104" s="31"/>
+      <c r="E104" s="36" t="s">
+        <v>544</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -9158,20 +9088,14 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
     </row>
-    <row r="105" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="D105" s="31"/>
-      <c r="E105" s="36" t="s">
-        <v>544</v>
-      </c>
+    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -9183,9 +9107,7 @@
       <c r="N105" s="3"/>
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -9200,50 +9122,58 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
+    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
+      <c r="A108" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>16</v>
@@ -9254,7 +9184,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -9267,7 +9197,7 @@
         <v>49</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>16</v>
@@ -9278,7 +9208,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -9287,28 +9217,22 @@
       <c r="N110" s="8"/>
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
+      <c r="A111" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18" t="s">
@@ -9328,39 +9252,22 @@
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-    </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10188,2055 +10095,2009 @@
     <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A37:J37 A38:F41 I38:J41 A42:J47 K36:K47 D28:N28 E31:E32 A29:N29 L33:N47 F58:K64 A1:N13 A108:N956 A70:D78 F70:N78 A79:N80 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 F30:H32 A30:D32 A58:D66 C83:C84 C97 A19:H19 J19:N19 A20:N27 L57:N69 A57:K57 A51:N51">
-    <cfRule type="containsText" dxfId="437" priority="251" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69 K69:N69 A37:H37 A38:F41 F33:H36 A67:H68 C23:C24 I33:J47 A42:H47 K36:K47 L33:N47 A1:N13 A22:N22 A23:B27 A27:C27 A31:H32 A58:D61 A64:D66 A62:B63 D62:D63 F58:H64 D23:N27 A108:N956 I70:N78 A70:D78 F69:H78 A79:N80 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 A30:D30 F30:H30 C62 C83 A20:N20 A19:H19 J19:N19 A57:H57 I57:N68 A51:N51">
-    <cfRule type="expression" dxfId="436" priority="252">
+  <conditionalFormatting sqref="A36:J36 A37:F40 I37:J40 A41:J46 K35:K46 D27:N27 E30:E31 A28:N28 L32:N46 F57:K63 A1:N13 A107:N955 A69:D77 F69:N77 A78:N79 D97:D101 E105:E106 A103:D106 F80:N106 J29:N31 F29:H31 A29:D31 A57:D65 C82:C83 C96 A18:H18 J18:N18 A19:N26 L56:N68 A56:K56 A50:N50">
+    <cfRule type="containsText" dxfId="428" priority="251" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68 K68:N68 A36:H36 A37:F40 F32:H35 A66:H67 C22:C23 I32:J46 A41:H46 K35:K46 L32:N46 A1:N13 A21:N21 A22:B26 A26:C26 A30:H31 A57:D60 A63:D65 A61:B62 D61:D62 F57:H63 D22:N26 A107:N955 I69:N77 A69:D77 F68:H77 A78:N79 D97:D101 E105:E106 A103:D106 F80:N106 J29:N31 A29:D29 F29:H29 C61 C82 A19:N19 A56:H56 I56:N67 A50:N50 A17:H18 J17:N18">
+    <cfRule type="expression" dxfId="427" priority="252">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:J37 A38:F41 I38:J41 A42:J47 K36:K47 L33:N47 D28:N28 E31:E32 A29:N29 F58:J64 A1:N13 A108:N956 A70:D78 F70:N78 A79:N80 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 F30:H32 A30:D32 A58:D66 C83:C84 C97 A19:H19 J19:N19 A20:N27 K57:N69 A57:J57 A51:N51">
-    <cfRule type="cellIs" dxfId="435" priority="254" operator="equal">
+  <conditionalFormatting sqref="A36:J36 A37:F40 I37:J40 A41:J46 K35:K46 L32:N46 D27:N27 E30:E31 A28:N28 F57:J63 A1:N13 A107:N955 A69:D77 F69:N77 A78:N79 D97:D101 E105:E106 A103:D106 F80:N106 J29:N31 F29:H31 A29:D31 A57:D65 C82:C83 C96 A18:H18 J18:N18 A19:N26 K56:N68 A56:J56 A50:N50">
+    <cfRule type="cellIs" dxfId="426" priority="254" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I13 I33:I47 I21:I27 I57:I956 I51">
-    <cfRule type="expression" dxfId="434" priority="255">
+  <conditionalFormatting sqref="I1:I13 I32:I46 I20:I26 I56:I955 I50">
+    <cfRule type="expression" dxfId="425" priority="255">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C13 C22:C24 C64:C80 C98:C956 C30:C47 C83 C20 C57:C62 C51">
-    <cfRule type="expression" dxfId="433" priority="256">
+  <conditionalFormatting sqref="C1:C13 C21:C23 C63:C79 C97:C955 C29:C46 C82 C19 C56:C61 C50 C17">
+    <cfRule type="expression" dxfId="424" priority="256">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13 B22:B27 B30:B47 B20 B57:B956 B51">
-    <cfRule type="expression" dxfId="432" priority="257">
+  <conditionalFormatting sqref="B1:B13 B21:B26 B29:B46 B19 B56:B955 B50 B17">
+    <cfRule type="expression" dxfId="423" priority="257">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A13 A29:C29 A70:A956 A29:A47 A20:A27 A57:A68 A51">
-    <cfRule type="cellIs" dxfId="431" priority="258" operator="equal">
+  <conditionalFormatting sqref="A1:A13 A28:C28 A69:A955 A28:A46 A19:A26 A56:A67 A50">
+    <cfRule type="cellIs" dxfId="422" priority="258" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="430" priority="260" operator="notEqual">
+    <cfRule type="cellIs" dxfId="421" priority="260" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="429" priority="261" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="420" priority="261" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="428" priority="262" operator="notEqual">
+    <cfRule type="cellIs" dxfId="419" priority="262" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="427" priority="263" operator="notEqual">
+    <cfRule type="cellIs" dxfId="418" priority="263" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="426" priority="264" operator="notEqual">
+    <cfRule type="cellIs" dxfId="417" priority="264" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="425" priority="265" operator="notEqual">
+    <cfRule type="cellIs" dxfId="416" priority="265" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="424" priority="266" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="415" priority="266" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="423" priority="267" operator="notEqual">
+    <cfRule type="cellIs" dxfId="414" priority="267" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="422" priority="268" operator="notEqual">
+    <cfRule type="cellIs" dxfId="413" priority="268" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="421" priority="269" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="412" priority="269" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="420" priority="270" operator="notEqual">
+    <cfRule type="cellIs" dxfId="411" priority="270" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="419" priority="271" operator="notEqual">
+    <cfRule type="cellIs" dxfId="410" priority="271" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H47 H1:H13 H20:H37 H57:H956 H51">
-    <cfRule type="expression" dxfId="418" priority="272">
+  <conditionalFormatting sqref="H41:H46 H1:H13 H19:H36 H56:H955 H50 H17">
+    <cfRule type="expression" dxfId="409" priority="272">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69 K69:N69 A37:H37 A38:F41 F33:H36 A67:H68 C23:C24 I33:J47 A42:H47 K36:K47 L33:N47 A1:N13 A22:N22 A23:B27 A27:C27 A31:H32 A58:D61 A64:D66 A62:B63 D62:D63 F58:H64 D23:N27 A108:N956 I70:N78 A70:D78 F69:H78 A79:N80 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 A30:D30 F30:H30 C62 C83 A20:N20 A19:H19 J19:N19 A57:H57 I57:N68 A51:N51">
-    <cfRule type="expression" dxfId="417" priority="273">
+  <conditionalFormatting sqref="I68 K68:N68 A36:H36 A37:F40 F32:H35 A66:H67 C22:C23 I32:J46 A41:H46 K35:K46 L32:N46 A1:N13 A21:N21 A22:B26 A26:C26 A30:H31 A57:D60 A63:D65 A61:B62 D61:D62 F57:H63 D22:N26 A107:N955 I69:N77 A69:D77 F68:H77 A78:N79 D97:D101 E105:E106 A103:D106 F80:N106 J29:N31 A29:D29 F29:H29 C61 C82 A19:N19 A56:H56 I56:N67 A50:N50 A17:H18 J17:N18">
+    <cfRule type="expression" dxfId="408" priority="273">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E61">
-    <cfRule type="expression" dxfId="416" priority="275">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58:J58 A58:D61 A64:D66 F64:J64 E59:J61 A70:D78 F70:J78 A79:J80 F106:N107 A106:D107 C62 F81:N82 C83 F85:N95">
-    <cfRule type="expression" dxfId="415" priority="276">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="expression" dxfId="407" priority="275">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:J57 A57:D60 A63:D65 F63:J63 E58:J60 A69:D77 F69:J77 A78:J79 F105:N106 A105:D106 C61 F80:N81 C82 F84:N94">
+    <cfRule type="expression" dxfId="406" priority="276">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="405" priority="277">
+      <formula>AND($A63="begin group", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:J57 A57:D60 A63:D65 E63:J63 E58:J60 A69:D77 F69:J77 A78:J79 F105:N106 A105:D106 C61 F80:N81 C82 F84:N94">
+    <cfRule type="expression" dxfId="404" priority="278">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81 E84:E85 E87:E94">
+    <cfRule type="expression" dxfId="403" priority="281">
+      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81 E84:E85 E87:E94">
+    <cfRule type="cellIs" dxfId="402" priority="282" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K33">
+    <cfRule type="expression" dxfId="401" priority="285">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K32 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="400" priority="286">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K33">
+    <cfRule type="expression" dxfId="399" priority="287">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K32 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="398" priority="288">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C23 C19 C29:C31">
+    <cfRule type="expression" dxfId="397" priority="289">
+      <formula>AND($C19 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C23 C30:C31 C19">
+    <cfRule type="expression" dxfId="396" priority="290">
+      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C23 C30:C31 C19">
+    <cfRule type="expression" dxfId="395" priority="291">
+      <formula>AND($A19="end group", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K33 F32:J35 A66:K67 A32:C35 F64:F65 H64:K65 B68:D68 F68:I68 K68">
+    <cfRule type="containsText" dxfId="394" priority="292" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:C35 F64:F65 H64:H65 B68:D68">
+    <cfRule type="expression" dxfId="393" priority="293">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:C35 F32:J35 F64:F65 H64:J65 B68:D68 F68:I68">
+    <cfRule type="expression" dxfId="392" priority="294">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K33 F32:J35 A66:J67 A32:C35 F64:F65 H64:J65 B68:D68 F68:I68">
+    <cfRule type="cellIs" dxfId="391" priority="295" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="390" priority="298">
+      <formula>AND(AND(NOT($A37 = "end group"), NOT($A37 = "end repeat"), NOT($A37 = "")), $B37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:C35 F64:F65 H64:H65 B68:D68">
+    <cfRule type="expression" dxfId="389" priority="301">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:C35 F32:J35 F64:F65 H64:J65 B68:D68 F68:I68">
+    <cfRule type="expression" dxfId="388" priority="302">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" dxfId="387" priority="315" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="386" priority="316" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="385" priority="323" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="384" priority="324">
+      <formula>AND($A57="begin group", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="383" priority="325">
+      <formula>AND($A57="end group", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="382" priority="326" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="381" priority="327">
+      <formula>AND($A57="begin repeat", NOT($B57 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="expression" dxfId="380" priority="328">
+      <formula>AND($A57="end repeat", $B57 = "", $C57 = "", $D57 = "", $E57 = "", $F57 = "", $G57 = "", $H57 = "", $I57 = "", $J57 = "", $K57 = "", $L57 = "", $M57 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="containsText" dxfId="379" priority="335" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="expression" dxfId="378" priority="336">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58:E60">
+    <cfRule type="cellIs" dxfId="377" priority="338" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="containsText" dxfId="376" priority="345" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="375" priority="346" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="374" priority="347">
+      <formula>AND($A63="begin repeat", NOT($B63 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="expression" dxfId="373" priority="348">
+      <formula>AND($A63="end repeat", $B63 = "", $C63 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="414" priority="277">
+    <cfRule type="containsText" dxfId="372" priority="349" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="371" priority="350">
       <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:J58 A58:D61 A64:D66 E64:J64 E59:J61 A70:D78 F70:J78 A79:J80 F106:N107 A106:D107 C62 F81:N82 C83 F85:N95">
-    <cfRule type="expression" dxfId="413" priority="278">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
-    <cfRule type="expression" dxfId="412" priority="281">
-      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
-    <cfRule type="cellIs" dxfId="411" priority="282" operator="equal">
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="370" priority="351">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="369" priority="352" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K34">
-    <cfRule type="expression" dxfId="410" priority="285">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="409" priority="286">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K34">
-    <cfRule type="expression" dxfId="408" priority="287">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="407" priority="288">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24 C20 C30:C32">
-    <cfRule type="expression" dxfId="406" priority="289">
-      <formula>AND($C20 = "", $A20 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24 C31:C32 C20">
-    <cfRule type="expression" dxfId="405" priority="290">
-      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24 C31:C32 C20">
-    <cfRule type="expression" dxfId="404" priority="291">
-      <formula>AND($A20="end group", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K34 F33:J36 A67:K68 A33:C36 F65:F66 H65:K66 B69:D69 F69:I69 K69">
-    <cfRule type="containsText" dxfId="403" priority="292" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:C36 F65:F66 H65:H66 B69:D69">
-    <cfRule type="expression" dxfId="402" priority="293">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:C36 F33:J36 F65:F66 H65:J66 B69:D69 F69:I69">
-    <cfRule type="expression" dxfId="401" priority="294">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33:K34 F33:J36 A67:J68 A33:C36 F65:F66 H65:J66 B69:D69 F69:I69">
-    <cfRule type="cellIs" dxfId="400" priority="295" operator="equal">
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="368" priority="353">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="367" priority="354">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="containsText" dxfId="366" priority="355" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="365" priority="356">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="364" priority="357">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="363" priority="358" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="399" priority="298">
-      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:C36 F65:F66 H65:H66 B69:D69">
-    <cfRule type="expression" dxfId="398" priority="301">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:C36 F33:J36 F65:F66 H65:J66 B69:D69 F69:I69">
-    <cfRule type="expression" dxfId="397" priority="302">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="396" priority="315" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="395" priority="316" operator="equal">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="362" priority="359">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="361" priority="360">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="containsText" dxfId="360" priority="373" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="359" priority="374">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="358" priority="375">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" dxfId="357" priority="376" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="394" priority="323" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="393" priority="324">
-      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="392" priority="325">
-      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="391" priority="326" operator="equal">
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="356" priority="377">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="expression" dxfId="355" priority="378">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" dxfId="354" priority="385" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="353" priority="386">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="352" priority="387">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="351" priority="388" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="390" priority="327">
-      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="expression" dxfId="389" priority="328">
-      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E61">
-    <cfRule type="containsText" dxfId="388" priority="335" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E61">
-    <cfRule type="expression" dxfId="387" priority="336">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:E61">
-    <cfRule type="cellIs" dxfId="386" priority="338" operator="equal">
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="350" priority="389">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="349" priority="390">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="containsText" dxfId="348" priority="397" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="347" priority="398">
+      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="346" priority="399">
+      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="345" priority="400" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="containsText" dxfId="385" priority="345" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="384" priority="346" operator="equal">
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="344" priority="401">
+      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="expression" dxfId="343" priority="402">
+      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="containsText" dxfId="342" priority="403" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="341" priority="404">
+      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="340" priority="405">
+      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="339" priority="406" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="383" priority="347">
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="338" priority="407">
+      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="337" priority="408">
+      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" dxfId="336" priority="409" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="335" priority="410">
+      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="334" priority="411">
+      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="333" priority="412" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="332" priority="413">
+      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="331" priority="414">
+      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="containsText" dxfId="330" priority="415" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="329" priority="416">
+      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="328" priority="417">
+      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="cellIs" dxfId="327" priority="418" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="326" priority="419">
+      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="expression" dxfId="325" priority="420">
+      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="containsText" dxfId="324" priority="421" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="323" priority="422">
+      <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="322" priority="423">
+      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="cellIs" dxfId="321" priority="424" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="320" priority="425">
+      <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="319" priority="426">
+      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" dxfId="318" priority="427" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="317" priority="428">
+      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="316" priority="429">
+      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="315" priority="430" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="314" priority="431">
+      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="313" priority="432">
+      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="containsText" dxfId="312" priority="433" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="311" priority="434">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="310" priority="435">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="309" priority="436" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="308" priority="437">
+      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="307" priority="438">
+      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="containsText" dxfId="306" priority="439" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="305" priority="440">
+      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="304" priority="441">
+      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="303" priority="442" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="302" priority="443">
+      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="301" priority="444">
+      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:D81 A84:D85 A82:B83 D82:D83 A87:D94 A86:B86 D86 A97:D101 A95:B96 D95:D96 A102:C102 C95">
+    <cfRule type="containsText" dxfId="300" priority="463" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:D81 A84:D85 A82:B83 D82:D83 A87:D94 A86:B86 D86 A97:D101 A95:B96 D95:D96 A102:C102 C95">
+    <cfRule type="expression" dxfId="299" priority="464">
+      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:D81 A84:D85 A87:D94 A86:B86 D86 C95">
+    <cfRule type="expression" dxfId="298" priority="465">
+      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:D81 A84:D85 A82:B83 D82:D83 A87:D94 A86:B86 D86 A97:D101 A95:B96 D95:D96 A102:C102 C95">
+    <cfRule type="cellIs" dxfId="297" priority="466" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80:C81 C84:C85 C87:C95">
+    <cfRule type="expression" dxfId="296" priority="468">
+      <formula>AND(AND(NOT($A80 = "end group"), NOT($A80 = "end repeat"), NOT($A80 = "")), $C80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:D81 A84:D85 A82:B83 D82:D83 A87:D94 A86:B86 D86 A97:D101 A95:B96 D95:D96 A102:C102 C95">
+    <cfRule type="expression" dxfId="295" priority="472">
+      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:D81 A84:D85 A87:D94 A86:B86 D86 C95">
+    <cfRule type="expression" dxfId="294" priority="473">
+      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81 E84:E85 E87:E94">
+    <cfRule type="expression" dxfId="293" priority="479">
+      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81 E84:E85 E87:E94 E105:E106">
+    <cfRule type="expression" dxfId="292" priority="480">
+      <formula>AND($E80 = "", $A80 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81 E84:E85 E87:E94 E105:E106">
+    <cfRule type="expression" dxfId="291" priority="481">
+      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $E80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81 E84:E85 E87:E94 E105:E106">
+    <cfRule type="expression" dxfId="290" priority="482">
+      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $E80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81 E84:E85 E87:E94">
+    <cfRule type="containsText" dxfId="289" priority="483" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D35">
+    <cfRule type="containsText" dxfId="288" priority="234" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D35">
+    <cfRule type="expression" dxfId="287" priority="235">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D35">
+    <cfRule type="expression" dxfId="286" priority="236">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D35">
+    <cfRule type="cellIs" dxfId="285" priority="237" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D35">
+    <cfRule type="expression" dxfId="284" priority="238">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D35">
+    <cfRule type="expression" dxfId="283" priority="239">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", $K32 = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
+    <cfRule type="containsText" dxfId="282" priority="240" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
+    <cfRule type="expression" dxfId="281" priority="241">
+      <formula>AND($A32="begin group", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="280" priority="242">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
+    <cfRule type="cellIs" dxfId="279" priority="243" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
+    <cfRule type="expression" dxfId="278" priority="244">
+      <formula>AND($A32="begin repeat", NOT($B32 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="277" priority="245">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="276" priority="246">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K32 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="275" priority="247">
+      <formula>AND($A32="end group", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", #REF! = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="274" priority="248">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K32 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E33">
+    <cfRule type="expression" dxfId="273" priority="249">
+      <formula>AND($A32="end repeat", $B32 = "", $C32 = "", $D32 = "", $E32 = "", $F32 = "", $G32 = "", $H32 = "", $I32 = "", $J32 = "", #REF! = "", $L32 = "", $M32 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="containsText" dxfId="272" priority="228" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" dxfId="271" priority="229">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" dxfId="270" priority="230">
+      <formula>AND($A64="end group", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="269" priority="231" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" dxfId="268" priority="232">
       <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="expression" dxfId="382" priority="348">
+  <conditionalFormatting sqref="G64">
+    <cfRule type="expression" dxfId="267" priority="233">
       <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" dxfId="381" priority="349" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="380" priority="350">
+  <conditionalFormatting sqref="G65">
+    <cfRule type="containsText" dxfId="266" priority="222" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="265" priority="223">
       <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="379" priority="351">
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="264" priority="224">
       <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="378" priority="352" operator="equal">
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" dxfId="263" priority="225" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="377" priority="353">
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="262" priority="226">
       <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="376" priority="354">
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="261" priority="227">
       <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="375" priority="355" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="374" priority="356">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="373" priority="357">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="372" priority="358" operator="equal">
+  <conditionalFormatting sqref="A68">
+    <cfRule type="containsText" dxfId="260" priority="215" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="expression" dxfId="259" priority="216">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="expression" dxfId="258" priority="217">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" dxfId="257" priority="218" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="371" priority="359">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="370" priority="360">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="containsText" dxfId="369" priority="373" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="368" priority="374">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="367" priority="375">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="366" priority="376" operator="equal">
+  <conditionalFormatting sqref="A68">
+    <cfRule type="cellIs" dxfId="256" priority="219" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="expression" dxfId="255" priority="220">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="expression" dxfId="254" priority="221">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="containsText" dxfId="253" priority="209" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="expression" dxfId="252" priority="210">
+      <formula>AND($A68="begin group", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="expression" dxfId="251" priority="211">
+      <formula>AND($A68="end group", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="cellIs" dxfId="250" priority="212" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="365" priority="377">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="expression" dxfId="364" priority="378">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="containsText" dxfId="363" priority="385" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="362" priority="386">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="361" priority="387">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="360" priority="388" operator="equal">
+  <conditionalFormatting sqref="J68">
+    <cfRule type="expression" dxfId="249" priority="213">
+      <formula>AND($A68="begin repeat", NOT($B68 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="expression" dxfId="248" priority="214">
+      <formula>AND($A68="end repeat", $B68 = "", $C68 = "", $D68 = "", $E68 = "", $F68 = "", $G68 = "", $H68 = "", $I68 = "", $J68 = "", $K68 = "", $L68 = "", $M68 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:F40 I40:N40">
+    <cfRule type="expression" dxfId="247" priority="580">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", #REF! = "", #REF! = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:N39">
+    <cfRule type="expression" dxfId="246" priority="582">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G38 = "", $H38 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:F40 I40:N40">
+    <cfRule type="expression" dxfId="245" priority="594">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", #REF! = "", #REF! = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:N39">
+    <cfRule type="expression" dxfId="244" priority="596">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G38 = "", $H38 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G40">
+    <cfRule type="expression" dxfId="243" priority="203">
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G40">
+    <cfRule type="expression" dxfId="242" priority="204">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G40">
+    <cfRule type="expression" dxfId="241" priority="205">
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G40">
+    <cfRule type="expression" dxfId="240" priority="206">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G40">
+    <cfRule type="containsText" dxfId="239" priority="207" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G40">
+    <cfRule type="cellIs" dxfId="238" priority="208" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="359" priority="389">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="358" priority="390">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" dxfId="357" priority="397" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="356" priority="398">
-      <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="355" priority="399">
-      <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="354" priority="400" operator="equal">
+  <conditionalFormatting sqref="H38:H40">
+    <cfRule type="expression" dxfId="237" priority="196">
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H40">
+    <cfRule type="expression" dxfId="236" priority="197">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H40">
+    <cfRule type="expression" dxfId="235" priority="198">
+      <formula>AND(NOT($G38 = ""), $H38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H40">
+    <cfRule type="expression" dxfId="234" priority="199">
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H40">
+    <cfRule type="expression" dxfId="233" priority="200">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H40">
+    <cfRule type="containsText" dxfId="232" priority="201" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38:H40">
+    <cfRule type="cellIs" dxfId="231" priority="202" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="353" priority="401">
-      <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="352" priority="402">
-      <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="351" priority="403" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="350" priority="404">
-      <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="349" priority="405">
-      <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="348" priority="406" operator="equal">
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="expression" dxfId="230" priority="741">
+      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="expression" dxfId="229" priority="743">
+      <formula>AND($A22="end group", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="expression" dxfId="228" priority="753">
+      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $C24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="expression" dxfId="227" priority="755">
+      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="expression" dxfId="226" priority="757">
+      <formula>AND($A22="end repeat", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="expression" dxfId="225" priority="768">
+      <formula>AND($C24 = "", $A22 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="expression" dxfId="224" priority="770">
+      <formula>AND($A22="end repeat", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $C24 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="expression" dxfId="223" priority="772">
+      <formula>AND($A22="end group", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $C24 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="222" priority="1016">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="221" priority="1018">
+      <formula>AND($A24="end group", $B24 = "", $C28 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="220" priority="1020">
+      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="219" priority="1022">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="218" priority="1024">
+      <formula>AND($A24="end repeat", $B24 = "", $C28 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="217" priority="1026">
+      <formula>AND($C28 = "", $A24 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="216" priority="1028">
+      <formula>AND($A24="end repeat", $B24 = "", $C28 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C28 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="215" priority="1030">
+      <formula>AND($A24="end group", $B24 = "", $C28 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C28 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="214" priority="1037">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="213" priority="1043">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 D20:N20">
+    <cfRule type="expression" dxfId="212" priority="1059">
+      <formula>AND($A20="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 D20:N20">
+    <cfRule type="expression" dxfId="211" priority="1075">
+      <formula>AND($A20="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="210" priority="1103">
+      <formula>AND($A24="end group", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="209" priority="1104">
+      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="208" priority="1105">
+      <formula>AND($A24="end repeat", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="207" priority="1106">
+      <formula>AND($C20 = "", $A24 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="206" priority="1107">
+      <formula>AND($A24="end repeat", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C20 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="205" priority="1108">
+      <formula>AND($A24="end group", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C20 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="204" priority="175" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="203" priority="173" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="202" priority="174" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="347" priority="407">
-      <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="346" priority="408">
-      <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="345" priority="409" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="344" priority="410">
-      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="343" priority="411">
-      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="342" priority="412" operator="equal">
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="201" priority="176">
+      <formula>AND($A20="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="200" priority="177">
+      <formula>AND($A20="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="containsText" dxfId="199" priority="166" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="cellIs" dxfId="198" priority="168" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="cellIs" dxfId="197" priority="167" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="341" priority="413">
-      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="340" priority="414">
-      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" dxfId="339" priority="415" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="338" priority="416">
-      <formula>AND($A74="begin group", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="337" priority="417">
-      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="336" priority="418" operator="equal">
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="196" priority="1127">
+      <formula>AND($A24="end group", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="195" priority="1128">
+      <formula>AND($A24="end repeat", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="194" priority="1132">
+      <formula>AND($A28="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28 D28:N28">
+    <cfRule type="expression" dxfId="193" priority="1133">
+      <formula>AND(#REF!="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="192" priority="1136">
+      <formula>AND($I27 = "", $A28 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="191" priority="1137">
+      <formula>AND($I28 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="190" priority="1139">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="189" priority="1143">
+      <formula>AND($A28="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28 D28:N28">
+    <cfRule type="expression" dxfId="188" priority="1144">
+      <formula>AND(#REF!="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:C20">
+    <cfRule type="expression" dxfId="187" priority="1158">
+      <formula>AND($A28="begin group", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:N27">
+    <cfRule type="expression" dxfId="186" priority="1159">
+      <formula>AND($A28="begin group", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:C20">
+    <cfRule type="expression" dxfId="185" priority="1160">
+      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $B20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:C20">
+    <cfRule type="expression" dxfId="184" priority="1161">
+      <formula>AND($A28="begin repeat", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:N27">
+    <cfRule type="expression" dxfId="183" priority="1162">
+      <formula>AND($A28="begin repeat", NOT($B20 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="182" priority="161">
+      <formula>AND($A28="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="181" priority="162">
+      <formula>AND($A28="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="180" priority="159">
+      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="179" priority="160">
+      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="expression" dxfId="178" priority="157">
+      <formula>AND($A28="begin group", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="expression" dxfId="177" priority="158">
+      <formula>AND($A28="begin repeat", NOT($B27 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="expression" dxfId="176" priority="155">
+      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="expression" dxfId="175" priority="156">
+      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="174" priority="1180">
+      <formula>AND($A29="end repeat", $B29 = "", $C29 = "", $D29 = "", $E28 = "", $F29 = "", $G29 = "", $H29 = "", $C29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="173" priority="1182">
+      <formula>AND($A29="end group", $B29 = "", $C29 = "", $D29 = "", $E28 = "", $F29 = "", $G29 = "", $H29 = "", $C29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B62 F61:J62">
+    <cfRule type="expression" dxfId="172" priority="1217">
+      <formula>AND($A61="end group", $B61 = "", #REF! = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="171" priority="1242">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="170" priority="1243">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="169" priority="1257">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="168" priority="1258">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C62 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="167" priority="1259">
+      <formula>AND(#REF!="end group", #REF! = "", $C62 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="containsText" dxfId="166" priority="149" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="cellIs" dxfId="165" priority="150" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="335" priority="419">
-      <formula>AND($A74="begin repeat", NOT($B74 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="334" priority="420">
-      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" dxfId="333" priority="421" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="332" priority="422">
-      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="331" priority="423">
-      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="330" priority="424" operator="equal">
+  <conditionalFormatting sqref="E61:E62 K32:K33">
+    <cfRule type="expression" dxfId="164" priority="151">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62 K32:K33">
+    <cfRule type="expression" dxfId="163" priority="152">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" dxfId="162" priority="153">
+      <formula>AND(#REF!="begin group", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:E62">
+    <cfRule type="expression" dxfId="161" priority="154">
+      <formula>AND(#REF!="begin repeat", NOT($B61 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B107:B955 A20 C20 A28:C28 B19:B26 B2:B17">
+    <cfRule type="expression" dxfId="160" priority="1274">
+      <formula>COUNTIF($B$2:$B$963,A2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83 C96">
+    <cfRule type="expression" dxfId="159" priority="144">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83 C96">
+    <cfRule type="expression" dxfId="158" priority="145">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="expression" dxfId="157" priority="146">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="expression" dxfId="156" priority="147">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C83 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83 C96">
+    <cfRule type="expression" dxfId="155" priority="148">
+      <formula>AND(#REF!="end group", #REF! = "", $C83 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83">
+    <cfRule type="containsText" dxfId="154" priority="136" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83">
+    <cfRule type="cellIs" dxfId="153" priority="137" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="329" priority="425">
-      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="328" priority="426">
-      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="containsText" dxfId="327" priority="427" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="326" priority="428">
-      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="325" priority="429">
-      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="324" priority="430" operator="equal">
+  <conditionalFormatting sqref="E82:E83">
+    <cfRule type="expression" dxfId="152" priority="138">
+      <formula>AND($A84="begin repeat", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83">
+    <cfRule type="expression" dxfId="151" priority="139">
+      <formula>AND($A84="begin group", NOT($B84 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83">
+    <cfRule type="expression" dxfId="150" priority="140">
+      <formula>AND(#REF!="begin group", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82:E83">
+    <cfRule type="expression" dxfId="149" priority="141">
+      <formula>AND(#REF!="begin repeat", NOT($B82 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="containsText" dxfId="148" priority="131" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="expression" dxfId="147" priority="132">
+      <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="cellIs" dxfId="146" priority="133" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="323" priority="431">
-      <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="322" priority="432">
-      <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="containsText" dxfId="321" priority="433" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="320" priority="434">
-      <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="319" priority="435">
-      <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="318" priority="436" operator="equal">
+  <conditionalFormatting sqref="C86">
+    <cfRule type="expression" dxfId="145" priority="134">
+      <formula>AND(AND(NOT($A86 = "end group"), NOT($A86 = "end repeat"), NOT($A86 = "")), $C86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="expression" dxfId="144" priority="135">
+      <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="containsText" dxfId="143" priority="127" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="142" priority="128">
+      <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="141" priority="129" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="317" priority="437">
-      <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="316" priority="438">
-      <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="containsText" dxfId="315" priority="439" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="314" priority="440">
-      <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="313" priority="441">
-      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="312" priority="442" operator="equal">
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="140" priority="130">
+      <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="expression" dxfId="139" priority="124">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C96 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="expression" dxfId="138" priority="125">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C96 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:E96">
+    <cfRule type="containsText" dxfId="137" priority="114" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:E96">
+    <cfRule type="cellIs" dxfId="136" priority="115" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="311" priority="443">
-      <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="310" priority="444">
-      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
-    <cfRule type="containsText" dxfId="309" priority="463" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
-    <cfRule type="expression" dxfId="308" priority="464">
-      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A88:D95 A87:B87 D87 C96">
-    <cfRule type="expression" dxfId="307" priority="465">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
-    <cfRule type="cellIs" dxfId="306" priority="466" operator="equal">
+  <conditionalFormatting sqref="E95:E96">
+    <cfRule type="expression" dxfId="135" priority="116">
+      <formula>AND($A97="begin repeat", NOT($B97 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:E96">
+    <cfRule type="expression" dxfId="134" priority="117">
+      <formula>AND($A97="begin group", NOT($B97 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:E96">
+    <cfRule type="expression" dxfId="133" priority="118">
+      <formula>AND(#REF!="begin group", NOT($B95 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:E96">
+    <cfRule type="expression" dxfId="132" priority="119">
+      <formula>AND(#REF!="begin repeat", NOT($B95 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97:N104 A97:C104">
+    <cfRule type="expression" dxfId="131" priority="1346">
+      <formula>AND($A97="end group", $B97 = "", $C97 = "", #REF! = "", $D97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97:N104 A97:C104">
+    <cfRule type="expression" dxfId="130" priority="1351">
+      <formula>AND($A97="end repeat", $B97 = "", $C97 = "", #REF! = "", $D97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97:D101 D103:D104">
+    <cfRule type="expression" dxfId="129" priority="1357">
+      <formula>AND($D97 = "", $A97 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97:D101 D103:D104">
+    <cfRule type="expression" dxfId="128" priority="1359">
+      <formula>AND($A97="end repeat", $B97 = "", $C97 = "", #REF! = "", $D97 = "", $F97 = "", $G97 = "", $H97 = "", $D97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97:D101 D103:D104">
+    <cfRule type="expression" dxfId="127" priority="1361">
+      <formula>AND($A97="end group", $B97 = "", $C97 = "", #REF! = "", $D97 = "", $F97 = "", $G97 = "", $H97 = "", $D97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37 B29:B46 B56:B106 B50">
+    <cfRule type="expression" dxfId="126" priority="1414">
+      <formula>COUNTIF($B$2:$B$1002,B29)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97:F101">
+    <cfRule type="expression" dxfId="125" priority="112">
+      <formula>AND($A97="end repeat", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97:F101">
+    <cfRule type="expression" dxfId="124" priority="113">
+      <formula>AND($A97="end group", $B97 = "", $C97 = "", $D97 = "", $E97 = "", $F97 = "", $G97 = "", $H97 = "", $I97 = "", $J97 = "", $K97 = "", $L97 = "", $M97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="123" priority="1420">
+      <formula>AND($A26="end group", $B26 = "", $C32 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="122" priority="1422">
+      <formula>AND($A26="end repeat", $B26 = "", $C32 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="121" priority="1462">
+      <formula>AND($A28="end group", $B20 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="120" priority="1463">
+      <formula>AND($A28="end repeat", $B20 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="119" priority="1464">
+      <formula>AND($A38="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="118" priority="1465">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:C28">
+    <cfRule type="expression" dxfId="117" priority="1466">
+      <formula>AND($A38="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="116" priority="1469">
+      <formula>AND(#REF!="end group", $B28 = "", $C32 = "", $D28 = "", #REF! = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="115" priority="1470">
+      <formula>AND(#REF!="end repeat", $B28 = "", $C32 = "", $D28 = "", #REF! = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62 F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
+    <cfRule type="expression" dxfId="114" priority="1484">
+      <formula>AND($A62="end group", $B62 = "", #REF! = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61 F82:N82 A82:B82 D82 F95:N95 A95:B95 D95">
+    <cfRule type="expression" dxfId="113" priority="1485">
+      <formula>AND($A61="end group", $B61 = "", $C62 = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82:N82 A82:B82 D82 F95:N95 A95:B95 D95">
+    <cfRule type="expression" dxfId="112" priority="1488">
+      <formula>AND($A82="end repeat", $B82 = "", $C83 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
+    <cfRule type="expression" dxfId="111" priority="1489">
+      <formula>AND($A83="end repeat", $B83 = "", #REF! = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="110" priority="106">
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="109" priority="107">
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="108" priority="108" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="107" priority="109">
+      <formula>AND(NOT($G18 = ""), $H18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="106" priority="111">
+      <formula>COUNTIF($B$2:$B$963,B18)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="105" priority="1496">
+      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="104" priority="1499">
+      <formula>AND($I19 = "", $A18 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="103" priority="1501">
+      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="containsText" dxfId="102" priority="98" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="101" priority="99">
+      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81:C82 C85:C86 C88:C96">
-    <cfRule type="expression" dxfId="305" priority="468">
-      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $C81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
-    <cfRule type="expression" dxfId="304" priority="472">
-      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D82 A85:D86 A88:D95 A87:B87 D87 C96">
-    <cfRule type="expression" dxfId="303" priority="473">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
-    <cfRule type="expression" dxfId="302" priority="479">
-      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
-    <cfRule type="expression" dxfId="301" priority="480">
-      <formula>AND($E81 = "", $A81 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
-    <cfRule type="expression" dxfId="300" priority="481">
-      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $E81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
-    <cfRule type="expression" dxfId="299" priority="482">
-      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $E81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
-    <cfRule type="containsText" dxfId="298" priority="483" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="containsText" dxfId="297" priority="234" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="expression" dxfId="296" priority="235">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="expression" dxfId="295" priority="236">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="cellIs" dxfId="294" priority="237" operator="equal">
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="99" priority="101">
+      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="98" priority="93">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="97" priority="94">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="96" priority="95" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="95" priority="96">
+      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="containsText" dxfId="94" priority="89" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="93" priority="90">
+      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="expression" dxfId="293" priority="238">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D36">
-    <cfRule type="expression" dxfId="292" priority="239">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E36">
-    <cfRule type="containsText" dxfId="291" priority="240" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E36">
-    <cfRule type="expression" dxfId="290" priority="241">
-      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="289" priority="242">
-      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E36">
-    <cfRule type="cellIs" dxfId="288" priority="243" operator="equal">
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="91" priority="92">
+      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="90" priority="84">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="89" priority="85">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $B15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="87" priority="87">
+      <formula>AND(NOT($G15 = ""), $H15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="containsText" dxfId="86" priority="80" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="85" priority="81">
+      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E36">
-    <cfRule type="expression" dxfId="287" priority="244">
-      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="286" priority="245">
-      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="285" priority="246">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="expression" dxfId="284" priority="247">
-      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", #REF! = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="expression" dxfId="283" priority="248">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="expression" dxfId="282" priority="249">
-      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", #REF! = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="containsText" dxfId="281" priority="228" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="280" priority="229">
-      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="279" priority="230">
-      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="cellIs" dxfId="278" priority="231" operator="equal">
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="83" priority="83">
+      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="82" priority="75">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="81" priority="76">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $B16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="80" priority="77" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="79" priority="78">
+      <formula>AND(NOT($G16 = ""), $H16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H17 J17:N17">
+    <cfRule type="containsText" dxfId="78" priority="71" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H17 J17:N17">
+    <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="277" priority="232">
-      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65">
-    <cfRule type="expression" dxfId="276" priority="233">
-      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="275" priority="222" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="274" priority="223">
-      <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="273" priority="224">
-      <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="272" priority="225" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="271" priority="226">
-      <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="270" priority="227">
-      <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="containsText" dxfId="269" priority="215" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="268" priority="216">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="267" priority="217">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="266" priority="218" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="cellIs" dxfId="265" priority="219" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="264" priority="220">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="263" priority="221">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="containsText" dxfId="262" priority="209" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="261" priority="210">
-      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="260" priority="211">
-      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="cellIs" dxfId="259" priority="212" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="258" priority="213">
-      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69">
-    <cfRule type="expression" dxfId="257" priority="214">
-      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:F41 I41:N41">
-    <cfRule type="expression" dxfId="256" priority="580">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", #REF! = "", #REF! = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:N40">
-    <cfRule type="expression" dxfId="255" priority="582">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G39 = "", $H39 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:F41 I41:N41">
-    <cfRule type="expression" dxfId="254" priority="594">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", #REF! = "", #REF! = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:N40">
-    <cfRule type="expression" dxfId="253" priority="596">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G39 = "", $H39 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="expression" dxfId="252" priority="203">
-      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="expression" dxfId="251" priority="204">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="expression" dxfId="250" priority="205">
-      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="expression" dxfId="249" priority="206">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="containsText" dxfId="248" priority="207" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="cellIs" dxfId="247" priority="208" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="246" priority="196">
-      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="245" priority="197">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="244" priority="198">
-      <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="243" priority="199">
-      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="expression" dxfId="242" priority="200">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="containsText" dxfId="241" priority="201" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="cellIs" dxfId="240" priority="202" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="239" priority="741">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="238" priority="743">
-      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="237" priority="753">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="236" priority="755">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="235" priority="757">
-      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="234" priority="768">
-      <formula>AND($C25 = "", $A23 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="233" priority="770">
-      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C27">
-    <cfRule type="expression" dxfId="232" priority="772">
-      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="231" priority="1016">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="230" priority="1018">
-      <formula>AND($A25="end group", $B25 = "", $C29 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="229" priority="1020">
-      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="228" priority="1022">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="227" priority="1024">
-      <formula>AND($A25="end repeat", $B25 = "", $C29 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="226" priority="1026">
-      <formula>AND($C29 = "", $A25 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="225" priority="1028">
-      <formula>AND($A25="end repeat", $B25 = "", $C29 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C29 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="224" priority="1030">
-      <formula>AND($A25="end group", $B25 = "", $C29 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C29 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="223" priority="1037">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="222" priority="1043">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21 D21:N21">
-    <cfRule type="expression" dxfId="221" priority="1059">
-      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21 D21:N21">
-    <cfRule type="expression" dxfId="220" priority="1075">
-      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="219" priority="1103">
-      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="218" priority="1104">
-      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="217" priority="1105">
-      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="216" priority="1106">
-      <formula>AND($C21 = "", $A25 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="215" priority="1107">
-      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="214" priority="1108">
-      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="213" priority="175" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="212" priority="173" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="211" priority="174" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="210" priority="176">
-      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="209" priority="177">
-      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="containsText" dxfId="208" priority="166" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="cellIs" dxfId="207" priority="168" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C27">
-    <cfRule type="cellIs" dxfId="206" priority="167" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="205" priority="1127">
-      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="204" priority="1128">
-      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="203" priority="1132">
-      <formula>AND($A29="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29 D29:N29">
-    <cfRule type="expression" dxfId="202" priority="1133">
-      <formula>AND(#REF!="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="201" priority="1136">
-      <formula>AND($I28 = "", $A29 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="200" priority="1137">
-      <formula>AND($I29 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="199" priority="1139">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="198" priority="1143">
-      <formula>AND($A29="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29 D29:N29">
-    <cfRule type="expression" dxfId="197" priority="1144">
-      <formula>AND(#REF!="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21">
-    <cfRule type="expression" dxfId="196" priority="1158">
-      <formula>AND($A29="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:N28">
-    <cfRule type="expression" dxfId="195" priority="1159">
-      <formula>AND($A29="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21">
-    <cfRule type="expression" dxfId="194" priority="1160">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21">
-    <cfRule type="expression" dxfId="193" priority="1161">
-      <formula>AND($A29="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:N28">
-    <cfRule type="expression" dxfId="192" priority="1162">
-      <formula>AND($A29="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="191" priority="161">
-      <formula>AND($A29="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="190" priority="162">
-      <formula>AND($A29="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="189" priority="159">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="188" priority="160">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="187" priority="157">
-      <formula>AND($A29="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="186" priority="158">
-      <formula>AND($A29="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="185" priority="155">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:C29">
-    <cfRule type="expression" dxfId="184" priority="156">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="183" priority="1180">
-      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E29 = "", $F30 = "", $G30 = "", $H30 = "", $C30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="182" priority="1182">
-      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E29 = "", $F30 = "", $G30 = "", $H30 = "", $C30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B63 F62:J63">
-    <cfRule type="expression" dxfId="181" priority="1217">
-      <formula>AND($A62="end group", $B62 = "", #REF! = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="180" priority="1242">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="179" priority="1243">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="178" priority="1257">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="177" priority="1258">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C63 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="176" priority="1259">
-      <formula>AND(#REF!="end group", #REF! = "", $C63 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
-    <cfRule type="containsText" dxfId="175" priority="149" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
-    <cfRule type="cellIs" dxfId="174" priority="150" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63 K33:K34">
-    <cfRule type="expression" dxfId="173" priority="151">
-      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63 K33:K34">
-    <cfRule type="expression" dxfId="172" priority="152">
-      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" dxfId="171" priority="153">
-      <formula>AND(#REF!="begin group", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:E63">
-    <cfRule type="expression" dxfId="170" priority="154">
-      <formula>AND(#REF!="begin repeat", NOT($B62 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108:B956 B2:B13 A21 C21 A29:C29 B20:B27">
-    <cfRule type="expression" dxfId="169" priority="1274">
-      <formula>COUNTIF($B$2:$B$964,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84 C97">
-    <cfRule type="expression" dxfId="168" priority="144">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84 C97">
-    <cfRule type="expression" dxfId="167" priority="145">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="expression" dxfId="166" priority="146">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="expression" dxfId="165" priority="147">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C84 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84 C97">
-    <cfRule type="expression" dxfId="164" priority="148">
-      <formula>AND(#REF!="end group", #REF! = "", $C84 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="containsText" dxfId="163" priority="136" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="cellIs" dxfId="162" priority="137" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="161" priority="138">
-      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="160" priority="139">
-      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="159" priority="140">
-      <formula>AND(#REF!="begin group", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="158" priority="141">
-      <formula>AND(#REF!="begin repeat", NOT($B83 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="containsText" dxfId="157" priority="131" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="156" priority="132">
-      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="cellIs" dxfId="155" priority="133" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="154" priority="134">
-      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="153" priority="135">
-      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsText" dxfId="152" priority="127" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="151" priority="128">
-      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="150" priority="129" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="149" priority="130">
-      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="148" priority="124">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C97 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="expression" dxfId="147" priority="125">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C97 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="containsText" dxfId="146" priority="114" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="cellIs" dxfId="145" priority="115" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="expression" dxfId="144" priority="116">
-      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="expression" dxfId="143" priority="117">
-      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="expression" dxfId="142" priority="118">
-      <formula>AND(#REF!="begin group", NOT($B96 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96:E97">
-    <cfRule type="expression" dxfId="141" priority="119">
-      <formula>AND(#REF!="begin repeat", NOT($B96 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98:N105 A98:C105">
-    <cfRule type="expression" dxfId="140" priority="1346">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98:N105 A98:C105">
-    <cfRule type="expression" dxfId="139" priority="1351">
-      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98:D102 D104:D105">
-    <cfRule type="expression" dxfId="138" priority="1357">
-      <formula>AND($D98 = "", $A98 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98:D102 D104:D105">
-    <cfRule type="expression" dxfId="137" priority="1359">
-      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $D98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98:D102 D104:D105">
-    <cfRule type="expression" dxfId="136" priority="1361">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $D98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38 B30:B47 B57:B107 B51">
-    <cfRule type="expression" dxfId="135" priority="1414">
-      <formula>COUNTIF($B$2:$B$1003,B30)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F102">
-    <cfRule type="expression" dxfId="134" priority="112">
-      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F102">
-    <cfRule type="expression" dxfId="133" priority="113">
-      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="132" priority="1420">
-      <formula>AND($A27="end group", $B27 = "", $C33 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="131" priority="1422">
-      <formula>AND($A27="end repeat", $B27 = "", $C33 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="130" priority="1462">
-      <formula>AND($A29="end group", $B21 = "", $C33 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="129" priority="1463">
-      <formula>AND($A29="end repeat", $B21 = "", $C33 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="128" priority="1464">
-      <formula>AND($A39="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="127" priority="1465">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:C29">
-    <cfRule type="expression" dxfId="126" priority="1466">
-      <formula>AND($A39="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="125" priority="1469">
-      <formula>AND(#REF!="end group", $B29 = "", $C33 = "", $D29 = "", #REF! = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="124" priority="1470">
-      <formula>AND(#REF!="end repeat", $B29 = "", $C33 = "", $D29 = "", #REF! = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="123" priority="1477">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$965, "begin group") = COUNTIF($A$1:$A$965, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="122" priority="1478">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$956, "begin group") = COUNTIF($A$1:$A$965, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63 F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
-    <cfRule type="expression" dxfId="121" priority="1484">
-      <formula>AND($A63="end group", $B63 = "", #REF! = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62 F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
-    <cfRule type="expression" dxfId="120" priority="1485">
-      <formula>AND($A62="end group", $B62 = "", $C63 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
-    <cfRule type="expression" dxfId="119" priority="1488">
-      <formula>AND($A83="end repeat", $B83 = "", $C84 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
-    <cfRule type="expression" dxfId="118" priority="1489">
-      <formula>AND($A84="end repeat", $B84 = "", #REF! = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="117" priority="106">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="116" priority="107">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="115" priority="108" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="114" priority="109">
-      <formula>AND(NOT($G19 = ""), $H19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="113" priority="111">
-      <formula>COUNTIF($B$2:$B$964,B19)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="112" priority="1496">
-      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="111" priority="1499">
-      <formula>AND($I20 = "", $A19 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="110" priority="1501">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="containsText" dxfId="109" priority="98" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="108" priority="99">
-      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="cellIs" dxfId="107" priority="100" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="106" priority="101">
-      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="105" priority="93">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="104" priority="94">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="103" priority="95" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="102" priority="96">
-      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="101" priority="97">
-      <formula>COUNTIF($B$2:$B$964,B14)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="containsText" dxfId="100" priority="89" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="expression" dxfId="99" priority="90">
-      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="cellIs" dxfId="98" priority="91" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="expression" dxfId="97" priority="92">
-      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="96" priority="84">
-      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="95" priority="85">
-      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $B15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="94" priority="86" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="93" priority="87">
-      <formula>AND(NOT($G15 = ""), $H15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="92" priority="88">
-      <formula>COUNTIF($B$2:$B$964,B15)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="containsText" dxfId="91" priority="80" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="expression" dxfId="90" priority="81">
-      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="expression" dxfId="88" priority="83">
-      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="87" priority="75">
-      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="86" priority="76">
-      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $B16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="85" priority="77" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="84" priority="78">
-      <formula>AND(NOT($G16 = ""), $H16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="83" priority="79">
-      <formula>COUNTIF($B$2:$B$964,B16)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H18 J17:N18">
-    <cfRule type="containsText" dxfId="82" priority="71" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H18 J17:N18">
-    <cfRule type="expression" dxfId="81" priority="72">
-      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H18 J17:N18">
-    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H18 J17:N18">
-    <cfRule type="expression" dxfId="79" priority="74">
-      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="78" priority="66">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18">
-    <cfRule type="expression" dxfId="77" priority="67">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
+  <conditionalFormatting sqref="A17">
     <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
-    <cfRule type="expression" dxfId="75" priority="69">
-      <formula>AND(NOT($G17 = ""), $H17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18">
-    <cfRule type="expression" dxfId="74" priority="70">
-      <formula>COUNTIF($B$2:$B$964,B17)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52:N56 A52:J56">
-    <cfRule type="containsText" dxfId="73" priority="49" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:J56">
-    <cfRule type="expression" dxfId="72" priority="50">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:N56">
-    <cfRule type="expression" dxfId="71" priority="51">
-      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:J56">
-    <cfRule type="cellIs" dxfId="70" priority="52" operator="equal">
+  <conditionalFormatting sqref="L51:N55 A51:J55">
+    <cfRule type="containsText" dxfId="75" priority="49" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:J55">
+    <cfRule type="expression" dxfId="74" priority="50">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:N55">
+    <cfRule type="expression" dxfId="73" priority="51">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:J55">
+    <cfRule type="cellIs" dxfId="72" priority="52" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:I56">
-    <cfRule type="expression" dxfId="69" priority="53">
-      <formula>AND($I52 = "", $A52 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C56">
-    <cfRule type="expression" dxfId="68" priority="54">
-      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B56">
-    <cfRule type="expression" dxfId="67" priority="55">
+  <conditionalFormatting sqref="I51:I55">
+    <cfRule type="expression" dxfId="71" priority="53">
+      <formula>AND($I51 = "", $A51 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C55">
+    <cfRule type="expression" dxfId="70" priority="54">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B55">
+    <cfRule type="expression" dxfId="69" priority="55">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A55">
+    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51:H55">
+    <cfRule type="expression" dxfId="67" priority="57">
+      <formula>AND(NOT($G51 = ""), $H51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:J55">
+    <cfRule type="expression" dxfId="66" priority="58">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:N55">
+    <cfRule type="expression" dxfId="65" priority="59">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:K55">
+    <cfRule type="containsText" dxfId="64" priority="60" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:N55">
+    <cfRule type="expression" dxfId="63" priority="61">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:N55">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A56">
-    <cfRule type="cellIs" dxfId="66" priority="56" operator="equal">
+  <conditionalFormatting sqref="K51:N55">
+    <cfRule type="expression" dxfId="60" priority="64">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52 B51:B55">
+    <cfRule type="expression" dxfId="59" priority="65">
+      <formula>COUNTIF($B$2:$B$973,B51)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:N47 A47:J47">
+    <cfRule type="containsText" dxfId="58" priority="33" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:J47">
+    <cfRule type="expression" dxfId="57" priority="34">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:N47">
+    <cfRule type="expression" dxfId="56" priority="35">
+      <formula>AND($A47="end group", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:J47">
+    <cfRule type="cellIs" dxfId="55" priority="36" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="54" priority="37">
+      <formula>AND($I47 = "", $A47 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="53" priority="38">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $C47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="52" priority="39">
+      <formula>AND(AND(NOT($A47 = "end group"), NOT($A47 = "end repeat"), NOT($A47 = "")), $B47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H56">
-    <cfRule type="expression" dxfId="65" priority="57">
-      <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:J56">
-    <cfRule type="expression" dxfId="64" priority="58">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:N56">
-    <cfRule type="expression" dxfId="63" priority="59">
-      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:K56">
-    <cfRule type="containsText" dxfId="62" priority="60" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N56">
-    <cfRule type="expression" dxfId="61" priority="61">
-      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N56">
-    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="50" priority="41">
+      <formula>AND(NOT($G47 = ""), $H47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:J47">
+    <cfRule type="expression" dxfId="49" priority="42">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:N47">
+    <cfRule type="expression" dxfId="48" priority="43">
+      <formula>AND($A47="end repeat", $B47 = "", $C47 = "", $D47 = "", $E47 = "", $F47 = "", $G47 = "", $H47 = "", $I47 = "", $J47 = "", $K47 = "", $L47 = "", $M47 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="containsText" dxfId="47" priority="44" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:N47">
+    <cfRule type="expression" dxfId="46" priority="45">
+      <formula>AND($A47="begin group", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:N47">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="59" priority="63">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52:N56">
-    <cfRule type="expression" dxfId="58" priority="64">
-      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53 B52:B56">
-    <cfRule type="expression" dxfId="57" priority="65">
-      <formula>COUNTIF($B$2:$B$974,B52)&gt;1</formula>
+  <conditionalFormatting sqref="K47:N47">
+    <cfRule type="expression" dxfId="44" priority="47">
+      <formula>AND($A47="begin repeat", NOT($B47 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="expression" dxfId="43" priority="48">
+      <formula>COUNTIF($B$2:$B$968,B47)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48:N48 A48:J48">
-    <cfRule type="containsText" dxfId="56" priority="33" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:J48">
-    <cfRule type="expression" dxfId="55" priority="34">
+    <cfRule type="expression" dxfId="41" priority="18">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:N48">
-    <cfRule type="expression" dxfId="54" priority="35">
+    <cfRule type="expression" dxfId="40" priority="19">
       <formula>AND($A48="end group", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:J48">
-    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="expression" dxfId="52" priority="37">
+    <cfRule type="expression" dxfId="38" priority="21">
       <formula>AND($I48 = "", $A48 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="51" priority="38">
+    <cfRule type="expression" dxfId="37" priority="22">
       <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $C48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="50" priority="39">
+    <cfRule type="expression" dxfId="36" priority="23">
       <formula>AND(AND(NOT($A48 = "end group"), NOT($A48 = "end repeat"), NOT($A48 = "")), $B48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="48" priority="41">
+    <cfRule type="expression" dxfId="34" priority="25">
       <formula>AND(NOT($G48 = ""), $H48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:J48">
-    <cfRule type="expression" dxfId="47" priority="42">
+    <cfRule type="expression" dxfId="33" priority="26">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:N48">
-    <cfRule type="expression" dxfId="46" priority="43">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>AND($A48="end repeat", $B48 = "", $C48 = "", $D48 = "", $E48 = "", $F48 = "", $G48 = "", $H48 = "", $I48 = "", $J48 = "", $K48 = "", $L48 = "", $M48 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48">
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:N48">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>AND($A48="begin group", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:N48">
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:N48">
-    <cfRule type="expression" dxfId="42" priority="47">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>AND($A48="begin repeat", NOT($B48 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="41" priority="48">
-      <formula>COUNTIF($B$2:$B$969,B48)&gt;1</formula>
+    <cfRule type="expression" dxfId="27" priority="32">
+      <formula>COUNTIF($B$2:$B$968,B48)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:N49 A49:J49">
-    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:J49">
-    <cfRule type="expression" dxfId="39" priority="18">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:N49">
-    <cfRule type="expression" dxfId="38" priority="19">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:J49">
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="expression" dxfId="36" priority="21">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>AND($I49 = "", $A49 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="expression" dxfId="32" priority="25">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:J49">
-    <cfRule type="expression" dxfId="31" priority="26">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:N49">
-    <cfRule type="expression" dxfId="30" priority="27">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:N49">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:N49">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:N49">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="expression" dxfId="25" priority="32">
-      <formula>COUNTIF($B$2:$B$969,B49)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50:N50 A50:J50">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:J50">
-    <cfRule type="expression" dxfId="23" priority="2">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:N50">
-    <cfRule type="expression" dxfId="22" priority="3">
-      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:J50">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="20" priority="5">
-      <formula>AND($I50 = "", $A50 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="19" priority="6">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="18" priority="7">
-      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="16" priority="9">
-      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:J50">
-    <cfRule type="expression" dxfId="15" priority="10">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:N50">
-    <cfRule type="expression" dxfId="14" priority="11">
-      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:N50">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:N50">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K50:N50">
-    <cfRule type="expression" dxfId="10" priority="15">
-      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="expression" dxfId="9" priority="16">
-      <formula>COUNTIF($B$2:$B$969,B50)&gt;1</formula>
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>COUNTIF($B$2:$B$968,B49)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="1" priority="1510">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$964, "begin group") = COUNTIF($A$1:$A$964, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="0" priority="1511">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$955, "begin group") = COUNTIF($A$1:$A$964, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D113">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D112">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -17896,45 +17757,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="2" priority="362">
+    <cfRule type="expression" dxfId="4" priority="362">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="1" priority="363">
+    <cfRule type="expression" dxfId="3" priority="363">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="0" priority="773">
+    <cfRule type="expression" dxfId="2" priority="773">
       <formula>COUNTIF($B$2:$B$125,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18000,7 +17861,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.623240740744</v>
+        <v>44480.629063657405</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -1762,13 +1762,13 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t>Months: ${ephemeral_months} Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} DOB ISO: ${dob_iso} AGE Years: ${age_in_years}</t>
-  </si>
-  <si>
     <t>if(format-date-time(today(),"%Y") - ${age_years} - 1, format-date-time(today(),"%Y") - ${age_years})</t>
   </si>
   <si>
     <t>date(concat(string(${ephemeral_years}),'-',string(format-date-time(today(), "%d"))))</t>
+  </si>
+  <si>
+    <t>Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} DOB ISO: ${dob_iso} AGE Years: ${age_in_years}</t>
   </si>
 </sst>
 </file>
@@ -2071,6 +2071,87 @@
   </cellStyles>
   <dxfs count="429">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike/>
         <color rgb="FFFFFFFF"/>
@@ -2085,87 +2166,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6598,10 +6598,10 @@
   <dimension ref="A1:N955"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7742,7 +7742,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -7766,7 +7766,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -7782,7 +7782,7 @@
         <v>573</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="16" t="b">
@@ -12087,12 +12087,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="1510">
+    <cfRule type="expression" dxfId="10" priority="1510">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$964, "begin group") = COUNTIF($A$1:$A$964, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="0" priority="1511">
+    <cfRule type="expression" dxfId="9" priority="1511">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$955, "begin group") = COUNTIF($A$1:$A$964, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17757,45 +17757,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="4" priority="362">
+    <cfRule type="expression" dxfId="2" priority="362">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="3" priority="363">
+    <cfRule type="expression" dxfId="1" priority="363">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="2" priority="773">
+    <cfRule type="expression" dxfId="0" priority="773">
       <formula>COUNTIF($B$2:$B$125,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.629063657405</v>
+        <v>44480.631350810188</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -17,14 +17,14 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$57</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11544" uniqueCount="3114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11540" uniqueCount="3114">
   <si>
     <t>type</t>
   </si>
@@ -9665,7 +9665,106 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="396">
+  <dxfs count="391">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF980000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9818,105 +9917,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10259,13 +10259,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -10276,46 +10269,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13888,13 +13847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N957"/>
+  <dimension ref="A1:N956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14321,7 +14280,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -14332,7 +14291,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -14342,22 +14301,20 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>548</v>
+        <v>465</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>466</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" t="s">
-        <v>549</v>
-      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -14366,13 +14323,13 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>466</v>
+        <v>556</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -14388,13 +14345,13 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -14410,17 +14367,21 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>469</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -14432,21 +14393,19 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -14458,19 +14417,23 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>468</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>475</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -14482,23 +14445,19 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>468</v>
+        <v>557</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -14508,15 +14467,15 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>557</v>
+        <v>476</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -14532,20 +14491,14 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>539</v>
-      </c>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>483</v>
-      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -14557,11 +14510,6 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -14575,8 +14523,19 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -14588,23 +14547,20 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>559</v>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>477</v>
-      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -14613,16 +14569,23 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="12"/>
@@ -14634,23 +14597,17 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>232</v>
+        <v>530</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="12"/>
@@ -14660,74 +14617,77 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>530</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>237</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="10" t="s">
+        <v>542</v>
+      </c>
       <c r="J34" s="7"/>
-      <c r="K34" s="3" t="s">
-        <v>241</v>
-      </c>
+      <c r="K34" s="3"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="10" t="s">
-        <v>542</v>
-      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="3"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -14737,50 +14697,47 @@
         <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="7"/>
+      <c r="K36" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
+      <c r="A37" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>239</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="10"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -14790,16 +14747,14 @@
         <v>29</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -14808,18 +14763,26 @@
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>40</v>
+      <c r="A39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
+      <c r="G39" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>462</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
@@ -14832,10 +14795,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
@@ -14860,14 +14823,12 @@
         <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="29" t="s">
@@ -14884,25 +14845,23 @@
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>47</v>
+      <c r="A42" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="I42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
@@ -14913,8 +14872,8 @@
       <c r="A43" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>1</v>
+      <c r="B43" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>16</v>
@@ -14925,7 +14884,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="3" t="s">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -14934,101 +14893,107 @@
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>49</v>
+      <c r="A44" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="F44" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="3" t="s">
-        <v>540</v>
-      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="3" t="s">
+    <row r="45" spans="1:14" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
+      <c r="E45" s="39"/>
+      <c r="F45" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
     </row>
     <row r="46" spans="1:14" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="39" t="s">
+      <c r="A46" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-    </row>
-    <row r="47" spans="1:14" s="37" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+    </row>
+    <row r="47" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="D47" s="44" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
+      <c r="G47" s="44" t="s">
+        <v>65</v>
+      </c>
       <c r="H47" s="44" t="s">
-        <v>61</v>
+        <v>531</v>
       </c>
       <c r="I47" s="45"/>
       <c r="J47" s="45"/>
@@ -15038,44 +15003,38 @@
       <c r="N47" s="45"/>
     </row>
     <row r="48" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
+      <c r="A48" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="40"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="39" t="s">
+        <v>3099</v>
+      </c>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
     </row>
     <row r="49" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>16</v>
+        <v>3101</v>
       </c>
       <c r="D49" s="40"/>
       <c r="E49" s="39"/>
@@ -15083,7 +15042,7 @@
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="39" t="s">
-        <v>3099</v>
+        <v>3102</v>
       </c>
       <c r="J49" s="40"/>
       <c r="K49" s="40"/>
@@ -15092,23 +15051,23 @@
       <c r="N49" s="40"/>
     </row>
     <row r="50" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42" t="s">
-        <v>49</v>
+      <c r="A50" s="41" t="s">
+        <v>29</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>3101</v>
+        <v>3104</v>
       </c>
       <c r="D50" s="40"/>
-      <c r="E50" s="39"/>
+      <c r="E50" s="43" t="b">
+        <v>0</v>
+      </c>
       <c r="F50" s="39"/>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
-      <c r="I50" s="39" t="s">
-        <v>3102</v>
-      </c>
+      <c r="I50" s="40"/>
       <c r="J50" s="40"/>
       <c r="K50" s="40"/>
       <c r="L50" s="40"/>
@@ -15116,19 +15075,11 @@
       <c r="N50" s="40"/>
     </row>
     <row r="51" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>3103</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>3104</v>
-      </c>
+      <c r="A51" s="41"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
       <c r="D51" s="40"/>
-      <c r="E51" s="43" t="b">
-        <v>0</v>
-      </c>
+      <c r="E51" s="43"/>
       <c r="F51" s="39"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
@@ -15139,31 +15090,39 @@
       <c r="M51" s="40"/>
       <c r="N51" s="40"/>
     </row>
-    <row r="52" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-    </row>
-    <row r="53" spans="1:14" s="49" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="49" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="48"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="47" t="s">
+        <v>3106</v>
+      </c>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+    </row>
+    <row r="53" spans="1:14" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="46" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D53" s="48"/>
       <c r="E53" s="47"/>
@@ -15171,7 +15130,7 @@
       <c r="G53" s="48"/>
       <c r="H53" s="48"/>
       <c r="I53" s="47" t="s">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="J53" s="48"/>
       <c r="K53" s="48"/>
@@ -15184,10 +15143,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>67</v>
+        <v>3110</v>
       </c>
       <c r="D54" s="48"/>
       <c r="E54" s="47"/>
@@ -15195,7 +15154,7 @@
       <c r="G54" s="48"/>
       <c r="H54" s="48"/>
       <c r="I54" s="47" t="s">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="J54" s="48"/>
       <c r="K54" s="48"/>
@@ -15208,18 +15167,22 @@
         <v>49</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>3109</v>
+        <v>550</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>3110</v>
+        <v>16</v>
       </c>
       <c r="D55" s="48"/>
-      <c r="E55" s="47"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
+      <c r="G55" s="47" t="s">
+        <v>3112</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>3113</v>
+      </c>
       <c r="I55" s="47" t="s">
-        <v>3111</v>
+        <v>551</v>
       </c>
       <c r="J55" s="48"/>
       <c r="K55" s="48"/>
@@ -15227,59 +15190,55 @@
       <c r="M55" s="48"/>
       <c r="N55" s="48"/>
     </row>
-    <row r="56" spans="1:14" s="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47" t="s">
-        <v>3112</v>
-      </c>
-      <c r="H56" s="47" t="s">
-        <v>3113</v>
-      </c>
-      <c r="I56" s="47" t="s">
-        <v>551</v>
-      </c>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-    </row>
-    <row r="57" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
+    <row r="56" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="41"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="3"/>
@@ -15296,20 +15255,18 @@
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>73</v>
+      <c r="A59" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F59" s="17"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -15321,14 +15278,10 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="17"/>
@@ -15342,9 +15295,7 @@
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="A61" s="13"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -15360,11 +15311,19 @@
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>560</v>
+      </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="F62" s="17"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
@@ -15375,20 +15334,18 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>560</v>
+        <v>77</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
-        <v>477</v>
-      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="17"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -15399,19 +15356,21 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>29</v>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -15423,24 +15382,30 @@
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>555</v>
+      </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="K65" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
@@ -15450,13 +15415,13 @@
         <v>72</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -15477,43 +15442,39 @@
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>555</v>
-      </c>
+      <c r="F67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>44</v>
@@ -15525,7 +15486,9 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="J68" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -15533,13 +15496,13 @@
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>44</v>
@@ -15552,7 +15515,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="3" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
@@ -15561,27 +15524,23 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>229</v>
+        <v>532</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F70" s="3"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -15592,13 +15551,13 @@
         <v>18</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>91</v>
+        <v>478</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -15616,64 +15575,66 @@
         <v>18</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>478</v>
+        <v>92</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
+      <c r="K72" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>18</v>
+        <v>916</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="7" t="s">
-        <v>230</v>
-      </c>
+      <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>916</v>
+        <v>55</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>94</v>
+        <v>484</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>95</v>
+        <v>485</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -15683,41 +15644,37 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>484</v>
+        <v>96</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -15733,15 +15690,17 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -15755,19 +15714,21 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -15779,21 +15740,19 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E79" s="3"/>
-      <c r="F79" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -15805,17 +15764,11 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -15829,10 +15782,14 @@
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -15846,15 +15803,9 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -15868,11 +15819,19 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>3096</v>
+      </c>
       <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -15883,20 +15842,18 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3096</v>
+        <v>487</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
-        <v>477</v>
-      </c>
+      <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -15907,24 +15864,28 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="D85" s="3"/>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="K85" s="31" t="s">
+        <v>506</v>
+      </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -15934,10 +15895,10 @@
         <v>488</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>44</v>
@@ -15949,7 +15910,7 @@
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -15957,63 +15918,65 @@
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
-        <v>488</v>
+        <v>49</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="C87" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
+      <c r="I87" s="31" t="s">
+        <v>509</v>
+      </c>
       <c r="J87" s="3"/>
-      <c r="K87" s="31" t="s">
-        <v>507</v>
-      </c>
+      <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="3"/>
+        <v>492</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="31" t="s">
-        <v>509</v>
-      </c>
+      <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="K88" s="31" t="s">
+        <v>508</v>
+      </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
+      <c r="N88" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
-        <v>29</v>
+        <v>488</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>44</v>
@@ -16024,24 +15987,20 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="31" t="s">
-        <v>508</v>
-      </c>
+      <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
-      <c r="N89" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N89" s="3"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>488</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>44</v>
@@ -16059,13 +16018,13 @@
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
-        <v>488</v>
+        <v>62</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>44</v>
@@ -16086,10 +16045,10 @@
         <v>62</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>44</v>
@@ -16110,10 +16069,10 @@
         <v>62</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>44</v>
@@ -16131,17 +16090,11 @@
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>505</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -16154,11 +16107,9 @@
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -16172,11 +16123,19 @@
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>536</v>
+      </c>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>477</v>
+      </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -16187,20 +16146,18 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>511</v>
       </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="3" t="s">
-        <v>477</v>
-      </c>
+      <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -16211,19 +16168,22 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -16238,10 +16198,10 @@
         <v>55</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D99" s="31" t="s">
         <v>44</v>
@@ -16263,10 +16223,10 @@
         <v>55</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>44</v>
@@ -16288,10 +16248,10 @@
         <v>55</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D101" s="31" t="s">
         <v>44</v>
@@ -16313,13 +16273,16 @@
         <v>55</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D102" s="31" t="s">
         <v>44</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>517</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>71</v>
@@ -16328,72 +16291,68 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+      <c r="K102" s="31" t="s">
+        <v>525</v>
+      </c>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
-        <v>55</v>
+      <c r="A103" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>516</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
+      <c r="I103" s="34" t="s">
+        <v>3097</v>
+      </c>
       <c r="J103" s="3"/>
-      <c r="K103" s="31" t="s">
-        <v>525</v>
-      </c>
+      <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="C104" s="32"/>
+        <v>526</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="D104" s="31"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="34" t="s">
-        <v>3097</v>
-      </c>
+      <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
     </row>
-    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="C105" s="32" t="s">
-        <v>524</v>
+      <c r="B105" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>538</v>
       </c>
       <c r="D105" s="31"/>
+      <c r="E105" s="36" t="s">
+        <v>537</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -16404,20 +16363,14 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
     </row>
-    <row r="106" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>538</v>
-      </c>
-      <c r="D106" s="31"/>
-      <c r="E106" s="36" t="s">
-        <v>537</v>
-      </c>
+    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -16429,9 +16382,7 @@
       <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -16446,50 +16397,58 @@
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
     </row>
-    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
+    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
+      <c r="A109" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>16</v>
@@ -16500,7 +16459,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -16513,7 +16472,7 @@
         <v>49</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>16</v>
@@ -16524,7 +16483,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
       <c r="I111" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -16533,28 +16492,22 @@
       <c r="N111" s="8"/>
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
+      <c r="A112" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
     </row>
     <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18" t="s">
@@ -16574,24 +16527,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-    </row>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17434,1857 +17370,1831 @@
     <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J52 K37:K52 D29:N29 E32:E33 A30:N30 F59:K65 A1:N13 A109:N957 A71:D80 F71:N80 D99:D103 E107:E108 A105:D108 F82:N108 J31:N33 F31:H33 A31:D33 A59:D67 C84:C85 C98 A19:H19 J19:N19 A20:N28 A81:N81 A75:F75 L34:N52 L57:N70 A57:K58">
-    <cfRule type="containsText" dxfId="395" priority="209" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="A37:J37 A38:F41 I38:J41 A42:J51 K36:K51 D28:N28 E31:E32 A29:N29 F58:K64 A1:N13 A108:N956 A70:D79 F70:N79 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 F30:H32 A30:D32 A58:D66 C83:C84 C97 A18:H18 J18:N18 A19:N27 A80:N80 A74:F74 L33:N51 L56:N69 A56:K57">
+    <cfRule type="containsText" dxfId="390" priority="209" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70 K70:N70 A38:H38 A39:F42 F34:H37 A68:H69 A1:N13 A22:N22 A28:C28 A32:H33 A59:D62 A65:D67 A63:B64 D63:D64 F59:H65 A109:N957 D99:D103 E107:E108 A105:D108 F82:N108 J31:N33 A31:D31 F31:H31 C63 C84 A20:N20 A19:H19 J19:N19 C23:C24 A23:B28 D23:N28 I71:N74 A71:D74 A76:D80 F70:H74 F76:N80 A81:N81 A75:F75 E74 I34:J52 A43:H52 K37:K52 L34:N52 A57:H58 I57:N69">
-    <cfRule type="expression" dxfId="394" priority="210">
+  <conditionalFormatting sqref="I69 K69:N69 A37:H37 A38:F41 F33:H36 A67:H68 A1:N13 A21:N21 A27:C27 A31:H32 A58:D61 A64:D66 A62:B63 D62:D63 F58:H64 A108:N956 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 A30:D30 F30:H30 C62 C83 A19:N19 C22:C23 A22:B27 D22:N27 I70:N73 A70:D73 A75:D79 F69:H73 F75:N79 A80:N80 A74:F74 E73 I33:J51 A42:H51 K36:K51 L33:N51 A56:H57 I56:N68 A17:H18 J17:N18">
+    <cfRule type="expression" dxfId="389" priority="210">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 K37:K52 L34:N52 D29:N29 E32:E33 A30:N30 F59:J65 A1:N13 A109:N957 A71:D80 F71:N80 D99:D103 E107:E108 A105:D108 F82:N108 J31:N33 F31:H33 A31:D33 A59:D67 C84:C85 C98 A19:H19 J19:N19 A20:N28 A81:N81 A75:F75 A43:J52 A57:J58 K57:N70">
-    <cfRule type="cellIs" dxfId="393" priority="212" operator="equal">
+  <conditionalFormatting sqref="A37:J37 A38:F41 I38:J41 K36:K51 L33:N51 D28:N28 E31:E32 A29:N29 F58:J64 A1:N13 A108:N956 A70:D79 F70:N79 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 F30:H32 A30:D32 A58:D66 C83:C84 C97 A18:H18 J18:N18 A19:N27 A80:N80 A74:F74 A42:J51 A56:J57 K56:N69">
+    <cfRule type="cellIs" dxfId="388" priority="212" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I13 I21:I28 I76:I957 I34:I52 I57:I74">
-    <cfRule type="expression" dxfId="392" priority="213">
+  <conditionalFormatting sqref="I1:I13 I20:I27 I75:I956 I33:I51 I56:I73">
+    <cfRule type="expression" dxfId="387" priority="213">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C13 C99:C957 C84 C20 C22:C24 C65:C81 C31:C52 C57:C63">
-    <cfRule type="expression" dxfId="391" priority="214">
+  <conditionalFormatting sqref="C1:C13 C98:C956 C83 C19 C21:C23 C64:C80 C30:C51 C56:C62 C17">
+    <cfRule type="expression" dxfId="386" priority="214">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B13 B20 B22:B28 B31:B52 B57:B957">
-    <cfRule type="expression" dxfId="390" priority="215">
+  <conditionalFormatting sqref="B1:B13 B19 B21:B27 B30:B51 B56:B956 B17">
+    <cfRule type="expression" dxfId="385" priority="215">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A13 A30:C30 A20:A28 A71:A957 A30:A52 A57:A69">
-    <cfRule type="cellIs" dxfId="389" priority="216" operator="equal">
+  <conditionalFormatting sqref="A1:A13 A29:C29 A19:A27 A70:A956 A29:A51 A56:A68">
+    <cfRule type="cellIs" dxfId="384" priority="216" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="388" priority="218" operator="notEqual">
+    <cfRule type="cellIs" dxfId="383" priority="218" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="387" priority="219" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="382" priority="219" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="386" priority="220" operator="notEqual">
+    <cfRule type="cellIs" dxfId="381" priority="220" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="385" priority="221" operator="notEqual">
+    <cfRule type="cellIs" dxfId="380" priority="221" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="384" priority="222" operator="notEqual">
+    <cfRule type="cellIs" dxfId="379" priority="222" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="383" priority="223" operator="notEqual">
+    <cfRule type="cellIs" dxfId="378" priority="223" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="382" priority="224" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="377" priority="224" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="381" priority="225" operator="notEqual">
+    <cfRule type="cellIs" dxfId="376" priority="225" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="380" priority="226" operator="notEqual">
+    <cfRule type="cellIs" dxfId="375" priority="226" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="379" priority="227" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="374" priority="227" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="378" priority="228" operator="notEqual">
+    <cfRule type="cellIs" dxfId="373" priority="228" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="377" priority="229" operator="notEqual">
+    <cfRule type="cellIs" dxfId="372" priority="229" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H13 H20:H38 H43:H52 H57:H957">
-    <cfRule type="expression" dxfId="376" priority="230">
+  <conditionalFormatting sqref="H1:H13 H19:H37 H42:H51 H56:H956 H17">
+    <cfRule type="expression" dxfId="371" priority="230">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70 K70:N70 A38:H38 A39:F42 F34:H37 A68:H69 A1:N13 A22:N22 A28:C28 A32:H33 A59:D62 A65:D67 A63:B64 D63:D64 F59:H65 A109:N957 D99:D103 E107:E108 A105:D108 F82:N108 J31:N33 A31:D31 F31:H31 C63 C84 A20:N20 A19:H19 J19:N19 C23:C24 A23:B28 D23:N28 I71:N74 A71:D74 A76:D80 F70:H74 F76:N80 A81:N81 A75:F75 E74 I34:J52 A43:H52 K37:K52 L34:N52 A57:H58 I57:N69">
-    <cfRule type="expression" dxfId="375" priority="231">
+  <conditionalFormatting sqref="I69 K69:N69 A37:H37 A38:F41 F33:H36 A67:H68 A1:N13 A21:N21 A27:C27 A31:H32 A58:D61 A64:D66 A62:B63 D62:D63 F58:H64 A108:N956 D98:D102 E106:E107 A104:D107 F81:N107 J30:N32 A30:D30 F30:H30 C62 C83 A19:N19 C22:C23 A22:B27 D22:N27 I70:N73 A70:D73 A75:D79 F69:H73 F75:N79 A80:N80 A74:F74 E73 I33:J51 A42:H51 K36:K51 L33:N51 A56:H57 I56:N68 A17:H18 J17:N18">
+    <cfRule type="expression" dxfId="370" priority="231">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="expression" dxfId="374" priority="233">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
+  <conditionalFormatting sqref="E59:E61">
+    <cfRule type="expression" dxfId="369" priority="233">
+      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59:J59 A59:D62 A65:D67 F65:J65 E60:J62 F107:N108 A107:D108 C63 F82:N83 C84 F86:N96 A71:D74 A76:D80 F71:J74 F76:J80 A81:J81 E74">
-    <cfRule type="expression" dxfId="373" priority="234">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+  <conditionalFormatting sqref="F58:J58 A58:D61 A64:D66 F64:J64 E59:J61 F106:N107 A106:D107 C62 F81:N82 C83 F85:N95 A70:D73 A75:D79 F70:J73 F75:J79 A80:J80 E73">
+    <cfRule type="expression" dxfId="368" priority="234">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="367" priority="235">
+      <formula>AND($A64="begin group", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58:J58 A58:D61 A64:D66 E64:J64 E59:J61 F106:N107 A106:D107 C62 F81:N82 C83 F85:N95 A70:D73 A75:D79 F70:J73 F75:J79 A80:J80 E73">
+    <cfRule type="expression" dxfId="366" priority="236">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
+    <cfRule type="expression" dxfId="365" priority="239">
+      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
+    <cfRule type="cellIs" dxfId="364" priority="240" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K34">
+    <cfRule type="expression" dxfId="363" priority="243">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="362" priority="244">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K34">
+    <cfRule type="expression" dxfId="361" priority="245">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="expression" dxfId="360" priority="246">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19 C30:C32 C21:C23">
+    <cfRule type="expression" dxfId="359" priority="247">
+      <formula>AND($C19 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32 C19 C21:C23">
+    <cfRule type="expression" dxfId="358" priority="248">
+      <formula>AND($A19="end repeat", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C32 C19 C21:C23">
+    <cfRule type="expression" dxfId="357" priority="249">
+      <formula>AND($A19="end group", $B19 = "", $C19 = "", $D19 = "", $E19 = "", $F19 = "", $G19 = "", $H19 = "", $C19 = "", $J19 = "", $K19 = "", $L19 = "", $M19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K34 F33:J36 A67:K68 A33:C36 F65:F66 B69:D69 F69:I69 K69 H65:K66">
+    <cfRule type="containsText" dxfId="356" priority="250" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C36 F65:F66 B69:D69 H65:H66">
+    <cfRule type="expression" dxfId="355" priority="251">
+      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C36 F33:J36 F65:F66 B69:D69 F69:I69 H65:J66">
+    <cfRule type="expression" dxfId="354" priority="252">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33:K34 F33:J36 A67:J68 A33:C36 F65:F66 B69:D69 F69:I69 H65:J66">
+    <cfRule type="cellIs" dxfId="353" priority="253" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="352" priority="256">
+      <formula>AND(AND(NOT($A38 = "end group"), NOT($A38 = "end repeat"), NOT($A38 = "")), $B38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C36 F65:F66 B69:D69 H65:H66">
+    <cfRule type="expression" dxfId="351" priority="259">
+      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:C36 F33:J36 F65:F66 B69:D69 F69:I69 H65:J66">
+    <cfRule type="expression" dxfId="350" priority="260">
+      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="349" priority="273" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="348" priority="274" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="containsText" dxfId="347" priority="281" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="346" priority="282">
+      <formula>AND($A58="begin group", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="345" priority="283">
+      <formula>AND($A58="end group", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="344" priority="284" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="343" priority="285">
+      <formula>AND($A58="begin repeat", NOT($B58 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="expression" dxfId="342" priority="286">
+      <formula>AND($A58="end repeat", $B58 = "", $C58 = "", $D58 = "", $E58 = "", $F58 = "", $G58 = "", $H58 = "", $I58 = "", $J58 = "", $K58 = "", $L58 = "", $M58 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E61">
+    <cfRule type="containsText" dxfId="341" priority="293" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E61">
+    <cfRule type="expression" dxfId="340" priority="294">
+      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E61">
+    <cfRule type="cellIs" dxfId="339" priority="296" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" dxfId="338" priority="303" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="337" priority="304" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="336" priority="305">
+      <formula>AND($A64="begin repeat", NOT($B64 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="expression" dxfId="335" priority="306">
+      <formula>AND($A64="end repeat", $B64 = "", $C64 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="372" priority="235">
+    <cfRule type="containsText" dxfId="334" priority="307" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="333" priority="308">
       <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59:J59 A59:D62 A65:D67 E65:J65 E60:J62 F107:N108 A107:D108 C63 F82:N83 C84 F86:N96 A71:D74 A76:D80 F71:J74 F76:J80 A81:J81 E74">
-    <cfRule type="expression" dxfId="371" priority="236">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="expression" dxfId="332" priority="309">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96">
-    <cfRule type="expression" dxfId="370" priority="239">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96">
-    <cfRule type="cellIs" dxfId="369" priority="240" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35">
-    <cfRule type="expression" dxfId="368" priority="243">
-      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="367" priority="244">
-      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35">
-    <cfRule type="expression" dxfId="366" priority="245">
-      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="365" priority="246">
-      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20 C31:C33 C22:C24">
-    <cfRule type="expression" dxfId="364" priority="247">
-      <formula>AND($C20 = "", $A20 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C33 C20 C22:C24">
-    <cfRule type="expression" dxfId="363" priority="248">
-      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C33 C20 C22:C24">
-    <cfRule type="expression" dxfId="362" priority="249">
-      <formula>AND($A20="end group", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35 F34:J37 A68:K69 A34:C37 F66:F67 B70:D70 F70:I70 K70 H66:K67">
-    <cfRule type="containsText" dxfId="361" priority="250" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C37 F66:F67 B70:D70 H66:H67">
-    <cfRule type="expression" dxfId="360" priority="251">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C37 F34:J37 F66:F67 B70:D70 F70:I70 H66:J67">
-    <cfRule type="expression" dxfId="359" priority="252">
-      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K35 F34:J37 A68:J69 A34:C37 F66:F67 B70:D70 F70:I70 H66:J67">
-    <cfRule type="cellIs" dxfId="358" priority="253" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="357" priority="256">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C37 F66:F67 B70:D70 H66:H67">
-    <cfRule type="expression" dxfId="356" priority="259">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C37 F34:J37 F66:F67 B70:D70 F70:I70 H66:J67">
-    <cfRule type="expression" dxfId="355" priority="260">
-      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="containsText" dxfId="354" priority="273" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="353" priority="274" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="352" priority="281" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="351" priority="282">
-      <formula>AND($A59="begin group", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="350" priority="283">
-      <formula>AND($A59="end group", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="349" priority="284" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="348" priority="285">
-      <formula>AND($A59="begin repeat", NOT($B59 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="expression" dxfId="347" priority="286">
-      <formula>AND($A59="end repeat", $B59 = "", $C59 = "", $D59 = "", $E59 = "", $F59 = "", $G59 = "", $H59 = "", $I59 = "", $J59 = "", $K59 = "", $L59 = "", $M59 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="containsText" dxfId="346" priority="293" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="expression" dxfId="345" priority="294">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:E62">
-    <cfRule type="cellIs" dxfId="344" priority="296" operator="equal">
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="331" priority="310" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="containsText" dxfId="343" priority="303" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="342" priority="304" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="341" priority="305">
+    <cfRule type="expression" dxfId="330" priority="311">
       <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="expression" dxfId="340" priority="306">
+    <cfRule type="expression" dxfId="329" priority="312">
       <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="339" priority="307" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="328" priority="313" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="338" priority="308">
+    <cfRule type="expression" dxfId="327" priority="314">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="337" priority="309">
+    <cfRule type="expression" dxfId="326" priority="315">
       <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="336" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="316" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="335" priority="311">
+    <cfRule type="expression" dxfId="324" priority="317">
       <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="334" priority="312">
+    <cfRule type="expression" dxfId="323" priority="318">
       <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="333" priority="313" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" dxfId="322" priority="331" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="332" priority="314">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="321" priority="332">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="331" priority="315">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="320" priority="333">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="330" priority="316" operator="equal">
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="319" priority="334" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="329" priority="317">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="318" priority="335">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="328" priority="318">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="expression" dxfId="317" priority="336">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="containsText" dxfId="327" priority="331" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="316" priority="343" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="326" priority="332">
+    <cfRule type="expression" dxfId="315" priority="344">
       <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="325" priority="333">
+    <cfRule type="expression" dxfId="314" priority="345">
       <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="324" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="346" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="323" priority="335">
+    <cfRule type="expression" dxfId="312" priority="347">
       <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="322" priority="336">
+    <cfRule type="expression" dxfId="311" priority="348">
       <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="containsText" dxfId="321" priority="343" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="310" priority="355" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="320" priority="344">
+    <cfRule type="expression" dxfId="309" priority="356">
       <formula>AND($A71="begin group", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="319" priority="345">
+    <cfRule type="expression" dxfId="308" priority="357">
       <formula>AND($A71="end group", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="318" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="358" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="317" priority="347">
+    <cfRule type="expression" dxfId="306" priority="359">
       <formula>AND($A71="begin repeat", NOT($B71 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="316" priority="348">
+    <cfRule type="expression" dxfId="305" priority="360">
       <formula>AND($A71="end repeat", $B71 = "", $C71 = "", $D71 = "", $E71 = "", $F71 = "", $G71 = "", $H71 = "", $I71 = "", $J71 = "", $K71 = "", $L71 = "", $M71 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="315" priority="355" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="304" priority="361" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="314" priority="356">
+    <cfRule type="expression" dxfId="303" priority="362">
       <formula>AND($A72="begin group", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="313" priority="357">
+    <cfRule type="expression" dxfId="302" priority="363">
       <formula>AND($A72="end group", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="312" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="364" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="311" priority="359">
+    <cfRule type="expression" dxfId="300" priority="365">
       <formula>AND($A72="begin repeat", NOT($B72 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="310" priority="360">
+    <cfRule type="expression" dxfId="299" priority="366">
       <formula>AND($A72="end repeat", $B72 = "", $C72 = "", $D72 = "", $E72 = "", $F72 = "", $G72 = "", $H72 = "", $I72 = "", $J72 = "", $K72 = "", $L72 = "", $M72 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="309" priority="361" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E73:E74">
+    <cfRule type="containsText" dxfId="298" priority="367" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="308" priority="362">
-      <formula>AND($A73="begin group", NOT($B73 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="307" priority="363">
-      <formula>AND($A73="end group", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="306" priority="364" operator="equal">
+  <conditionalFormatting sqref="E73:E74">
+    <cfRule type="cellIs" dxfId="297" priority="370" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="305" priority="365">
-      <formula>AND($A73="begin repeat", NOT($B73 = ""))</formula>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" dxfId="296" priority="373" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="295" priority="374">
+      <formula>AND($A75="begin group", NOT($B75 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="304" priority="366">
-      <formula>AND($A73="end repeat", $B73 = "", $C73 = "", $D73 = "", $E73 = "", $F73 = "", $G73 = "", $H73 = "", $I73 = "", $J73 = "", $K73 = "", $L73 = "", $M73 = "")</formula>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="294" priority="375">
+      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E75">
-    <cfRule type="containsText" dxfId="303" priority="367" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="293" priority="376" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E75">
-    <cfRule type="cellIs" dxfId="302" priority="370" operator="equal">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="292" priority="377">
+      <formula>AND($A75="begin repeat", NOT($B75 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="291" priority="378">
+      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="containsText" dxfId="290" priority="379" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="289" priority="380">
+      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="288" priority="381">
+      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="287" priority="382" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="containsText" dxfId="301" priority="373" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="300" priority="374">
-      <formula>AND($A76="begin group", NOT($B76 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="299" priority="375">
-      <formula>AND($A76="end group", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="298" priority="376" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="297" priority="377">
+    <cfRule type="expression" dxfId="286" priority="383">
       <formula>AND($A76="begin repeat", NOT($B76 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="296" priority="378">
+    <cfRule type="expression" dxfId="285" priority="384">
       <formula>AND($A76="end repeat", $B76 = "", $C76 = "", $D76 = "", $E76 = "", $F76 = "", $G76 = "", $H76 = "", $I76 = "", $J76 = "", $K76 = "", $L76 = "", $M76 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="containsText" dxfId="295" priority="379" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="284" priority="385" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="294" priority="380">
+    <cfRule type="expression" dxfId="283" priority="386">
       <formula>AND($A77="begin group", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="293" priority="381">
+    <cfRule type="expression" dxfId="282" priority="387">
       <formula>AND($A77="end group", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="292" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="388" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="291" priority="383">
+    <cfRule type="expression" dxfId="280" priority="389">
       <formula>AND($A77="begin repeat", NOT($B77 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="290" priority="384">
+    <cfRule type="expression" dxfId="279" priority="390">
       <formula>AND($A77="end repeat", $B77 = "", $C77 = "", $D77 = "", $E77 = "", $F77 = "", $G77 = "", $H77 = "", $I77 = "", $J77 = "", $K77 = "", $L77 = "", $M77 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="containsText" dxfId="289" priority="385" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="278" priority="391" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="288" priority="386">
+    <cfRule type="expression" dxfId="277" priority="392">
       <formula>AND($A78="begin group", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="287" priority="387">
+    <cfRule type="expression" dxfId="276" priority="393">
       <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="286" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="394" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="285" priority="389">
+    <cfRule type="expression" dxfId="274" priority="395">
       <formula>AND($A78="begin repeat", NOT($B78 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="284" priority="390">
+    <cfRule type="expression" dxfId="273" priority="396">
       <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $I78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="283" priority="391" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="272" priority="397" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="282" priority="392">
+    <cfRule type="expression" dxfId="271" priority="398">
       <formula>AND($A79="begin group", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="281" priority="393">
+    <cfRule type="expression" dxfId="270" priority="399">
       <formula>AND($A79="end group", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="280" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="400" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="279" priority="395">
+    <cfRule type="expression" dxfId="268" priority="401">
       <formula>AND($A79="begin repeat", NOT($B79 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="278" priority="396">
+    <cfRule type="expression" dxfId="267" priority="402">
       <formula>AND($A79="end repeat", $B79 = "", $C79 = "", $D79 = "", $E79 = "", $F79 = "", $G79 = "", $H79 = "", $I79 = "", $J79 = "", $K79 = "", $L79 = "", $M79 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="containsText" dxfId="277" priority="397" operator="containsText" text="calculate"/>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
+    <cfRule type="containsText" dxfId="266" priority="421" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="276" priority="398">
-      <formula>AND($A80="begin group", NOT($B80 = ""))</formula>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
+    <cfRule type="expression" dxfId="265" priority="422">
+      <formula>AND($A81="begin group", NOT($B81 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="275" priority="399">
-      <formula>AND($A80="end group", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A88:D95 A87:B87 D87 C96">
+    <cfRule type="expression" dxfId="264" priority="423">
+      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="274" priority="400" operator="equal">
+  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
+    <cfRule type="cellIs" dxfId="263" priority="424" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="273" priority="401">
-      <formula>AND($A80="begin repeat", NOT($B80 = ""))</formula>
+  <conditionalFormatting sqref="C81:C82 C85:C86 C88:C96">
+    <cfRule type="expression" dxfId="262" priority="426">
+      <formula>AND(AND(NOT($A81 = "end group"), NOT($A81 = "end repeat"), NOT($A81 = "")), $C81 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="272" priority="402">
-      <formula>AND($A80="end repeat", $B80 = "", $C80 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A83:B84 D83:D84 A88:D95 A87:B87 D87 A98:D102 A96:B97 D96:D97 A103:C103 C96">
+    <cfRule type="expression" dxfId="261" priority="430">
+      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D83 A86:D87 A84:B85 D84:D85 A89:D96 A88:B88 D88 A99:D103 A97:B98 D97:D98 A104:C104 C97">
-    <cfRule type="containsText" dxfId="271" priority="421" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D83 A86:D87 A84:B85 D84:D85 A89:D96 A88:B88 D88 A99:D103 A97:B98 D97:D98 A104:C104 C97">
-    <cfRule type="expression" dxfId="270" priority="422">
-      <formula>AND($A82="begin group", NOT($B82 = ""))</formula>
+  <conditionalFormatting sqref="A81:D82 A85:D86 A88:D95 A87:B87 D87 C96">
+    <cfRule type="expression" dxfId="260" priority="431">
+      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D83 A86:D87 A89:D96 A88:B88 D88 C97">
-    <cfRule type="expression" dxfId="269" priority="423">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
+    <cfRule type="expression" dxfId="259" priority="437">
+      <formula>AND($A81="begin repeat", NOT($B81 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D83 A86:D87 A84:B85 D84:D85 A89:D96 A88:B88 D88 A99:D103 A97:B98 D97:D98 A104:C104 C97">
-    <cfRule type="cellIs" dxfId="268" priority="424" operator="equal">
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
+    <cfRule type="expression" dxfId="258" priority="438">
+      <formula>AND($E81 = "", $A81 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
+    <cfRule type="expression" dxfId="257" priority="439">
+      <formula>AND($A81="end repeat", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $E81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95 E106:E107">
+    <cfRule type="expression" dxfId="256" priority="440">
+      <formula>AND($A81="end group", $B81 = "", $C81 = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $E81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82 E85:E86 E88:E95">
+    <cfRule type="containsText" dxfId="255" priority="441" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="containsText" dxfId="254" priority="192" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="expression" dxfId="253" priority="193">
+      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="expression" dxfId="252" priority="194">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="cellIs" dxfId="251" priority="195" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C83 C86:C87 C89:C97">
-    <cfRule type="expression" dxfId="267" priority="426">
-      <formula>AND(AND(NOT($A82 = "end group"), NOT($A82 = "end repeat"), NOT($A82 = "")), $C82 = "")</formula>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="expression" dxfId="250" priority="196">
+      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D83 A86:D87 A84:B85 D84:D85 A89:D96 A88:B88 D88 A99:D103 A97:B98 D97:D98 A104:C104 C97">
-    <cfRule type="expression" dxfId="266" priority="430">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+  <conditionalFormatting sqref="D33:D36">
+    <cfRule type="expression" dxfId="249" priority="197">
+      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D83 A86:D87 A89:D96 A88:B88 D88 C97">
-    <cfRule type="expression" dxfId="265" priority="431">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $I82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
+  <conditionalFormatting sqref="E33:E36">
+    <cfRule type="containsText" dxfId="248" priority="198" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E36">
+    <cfRule type="expression" dxfId="247" priority="199">
+      <formula>AND($A33="begin group", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96">
-    <cfRule type="expression" dxfId="264" priority="437">
-      <formula>AND($A82="begin repeat", NOT($B82 = ""))</formula>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="246" priority="200">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96 E107:E108">
-    <cfRule type="expression" dxfId="263" priority="438">
-      <formula>AND($E82 = "", $A82 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96 E107:E108">
-    <cfRule type="expression" dxfId="262" priority="439">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $E82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96 E107:E108">
-    <cfRule type="expression" dxfId="261" priority="440">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $E82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83 E86:E87 E89:E96">
-    <cfRule type="containsText" dxfId="260" priority="441" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="containsText" dxfId="259" priority="192" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="258" priority="193">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="257" priority="194">
-      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="cellIs" dxfId="256" priority="195" operator="equal">
+  <conditionalFormatting sqref="E33:E36">
+    <cfRule type="cellIs" dxfId="245" priority="201" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="255" priority="196">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+  <conditionalFormatting sqref="E33:E36">
+    <cfRule type="expression" dxfId="244" priority="202">
+      <formula>AND($A33="begin repeat", NOT($B33 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D37">
-    <cfRule type="expression" dxfId="254" priority="197">
-      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="243" priority="203">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K36 = "", $L36 = "", $M36 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E37">
-    <cfRule type="containsText" dxfId="253" priority="198" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E37">
-    <cfRule type="expression" dxfId="252" priority="199">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="242" priority="204">
+      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="251" priority="200">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="241" priority="205">
+      <formula>AND($A33="end group", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", #REF! = "", $L33 = "", $M33 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E37">
-    <cfRule type="cellIs" dxfId="250" priority="201" operator="equal">
+  <conditionalFormatting sqref="E35">
+    <cfRule type="expression" dxfId="240" priority="206">
+      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E35 = "", $F35 = "", $G35 = "", $H35 = "", $I35 = "", $J35 = "", $K33 = "", $L35 = "", $M35 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="239" priority="207">
+      <formula>AND($A33="end repeat", $B33 = "", $C33 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", #REF! = "", $L33 = "", $M33 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="containsText" dxfId="238" priority="186" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="237" priority="187">
+      <formula>AND($A65="begin group", NOT($B65 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="236" priority="188">
+      <formula>AND($A65="end group", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="cellIs" dxfId="235" priority="189" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E37">
-    <cfRule type="expression" dxfId="249" priority="202">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="234" priority="190">
+      <formula>AND($A65="begin repeat", NOT($B65 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="expression" dxfId="248" priority="203">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+  <conditionalFormatting sqref="G65">
+    <cfRule type="expression" dxfId="233" priority="191">
+      <formula>AND($A65="end repeat", $B65 = "", $C65 = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="247" priority="204">
-      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="232" priority="178">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E35">
-    <cfRule type="expression" dxfId="246" priority="205">
-      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", #REF! = "", $L34 = "", $M34 = "")</formula>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="231" priority="179">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
-    <cfRule type="expression" dxfId="245" priority="206">
-      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="containsText" dxfId="230" priority="173" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="229" priority="174">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E35">
-    <cfRule type="expression" dxfId="244" priority="207">
-      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", #REF! = "", $L34 = "", $M34 = "")</formula>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="228" priority="175">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" dxfId="227" priority="176" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="cellIs" dxfId="226" priority="177" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="containsText" dxfId="225" priority="167" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="expression" dxfId="224" priority="168">
+      <formula>AND($A69="begin group", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="expression" dxfId="223" priority="169">
+      <formula>AND($A69="end group", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="cellIs" dxfId="222" priority="170" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="expression" dxfId="221" priority="171">
+      <formula>AND($A69="begin repeat", NOT($B69 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="expression" dxfId="220" priority="172">
+      <formula>AND($A69="end repeat", $B69 = "", $C69 = "", $D69 = "", $E69 = "", $F69 = "", $G69 = "", $H69 = "", $I69 = "", $J69 = "", $K69 = "", $L69 = "", $M69 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:F41 I41:N41">
+    <cfRule type="expression" dxfId="219" priority="538">
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", #REF! = "", #REF! = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:N40">
+    <cfRule type="expression" dxfId="218" priority="540">
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G39 = "", $H39 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:F41 I41:N41">
+    <cfRule type="expression" dxfId="217" priority="552">
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", #REF! = "", #REF! = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:N40">
+    <cfRule type="expression" dxfId="216" priority="554">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G39 = "", $H39 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="expression" dxfId="215" priority="161">
+      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="expression" dxfId="214" priority="162">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="expression" dxfId="213" priority="163">
+      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="expression" dxfId="212" priority="164">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="containsText" dxfId="211" priority="165" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="cellIs" dxfId="210" priority="166" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="209" priority="154">
+      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="208" priority="155">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="207" priority="156">
+      <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="206" priority="157">
+      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="expression" dxfId="205" priority="158">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="containsText" dxfId="204" priority="159" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="cellIs" dxfId="203" priority="160" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="202" priority="699">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="201" priority="701">
+      <formula>AND($A22="end group", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="200" priority="711">
+      <formula>AND(AND(NOT($A22 = "end group"), NOT($A22 = "end repeat"), NOT($A22 = "")), $C24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="199" priority="713">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="198" priority="715">
+      <formula>AND($A22="end repeat", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $I22 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="197" priority="726">
+      <formula>AND($C24 = "", $A22 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="196" priority="728">
+      <formula>AND($A22="end repeat", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $C24 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="195" priority="730">
+      <formula>AND($A22="end group", $B22 = "", $C24 = "", $D22 = "", $E22 = "", $F22 = "", $G22 = "", $H22 = "", $C24 = "", $J22 = "", $K22 = "", $L22 = "", $M22 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="194" priority="974">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="193" priority="976">
+      <formula>AND($A24="end group", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="192" priority="978">
+      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="191" priority="980">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="190" priority="982">
+      <formula>AND($A24="end repeat", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="189" priority="984">
+      <formula>AND($C29 = "", $A24 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="188" priority="986">
+      <formula>AND($A24="end repeat", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C29 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="187" priority="988">
+      <formula>AND($A24="end group", $B24 = "", $C29 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C29 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="186" priority="995">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="185" priority="1001">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 D20:N20">
+    <cfRule type="expression" dxfId="184" priority="1017">
+      <formula>AND($A20="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20 D20:N20">
+    <cfRule type="expression" dxfId="183" priority="1033">
+      <formula>AND($A20="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="182" priority="133" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="181" priority="131" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="180" priority="132" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="179" priority="134">
+      <formula>AND($A20="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="178" priority="135">
+      <formula>AND($A20="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="containsText" dxfId="177" priority="124" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="cellIs" dxfId="176" priority="126" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="cellIs" dxfId="175" priority="125" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="174" priority="1085">
+      <formula>AND($A26="end group", $B26 = "", $C31 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="173" priority="1086">
+      <formula>AND($A26="end repeat", $B26 = "", $C31 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="172" priority="1090">
+      <formula>AND($A29="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29 D29:N29">
+    <cfRule type="expression" dxfId="171" priority="1091">
+      <formula>AND(#REF!="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="170" priority="1094">
+      <formula>AND($I28 = "", $A29 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="169" priority="1095">
+      <formula>AND($I29 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="168" priority="1097">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="167" priority="1101">
+      <formula>AND($A29="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29 D29:N29">
+    <cfRule type="expression" dxfId="166" priority="1102">
+      <formula>AND(#REF!="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="165" priority="119">
+      <formula>AND($A29="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="164" priority="120">
+      <formula>AND($A29="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="163" priority="117">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="expression" dxfId="162" priority="118">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="161" priority="115">
+      <formula>AND($A29="begin group", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="160" priority="116">
+      <formula>AND($A29="begin repeat", NOT($B28 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="159" priority="113">
+      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="158" priority="114">
+      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="157" priority="1138">
+      <formula>AND($A30="end repeat", $B30 = "", $C30 = "", $D30 = "", $E29 = "", $F30 = "", $G30 = "", $H30 = "", $C30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="156" priority="1140">
+      <formula>AND($A30="end group", $B30 = "", $C30 = "", $D30 = "", $E29 = "", $F30 = "", $G30 = "", $H30 = "", $C30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B63 F62:J63">
+    <cfRule type="expression" dxfId="155" priority="1175">
+      <formula>AND($A62="end group", $B62 = "", #REF! = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="154" priority="1200">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="153" priority="1201">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="152" priority="1215">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="151" priority="1216">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C63 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="150" priority="1217">
+      <formula>AND(#REF!="end group", #REF! = "", $C63 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="containsText" dxfId="149" priority="107" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="cellIs" dxfId="148" priority="108" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63 K33:K34">
+    <cfRule type="expression" dxfId="147" priority="109">
+      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63 K33:K34">
+    <cfRule type="expression" dxfId="146" priority="110">
+      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="expression" dxfId="145" priority="111">
+      <formula>AND(#REF!="begin group", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E63">
+    <cfRule type="expression" dxfId="144" priority="112">
+      <formula>AND(#REF!="begin repeat", NOT($B62 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108:B956 A20 C20 A29:C29 B2:B27">
+    <cfRule type="expression" dxfId="143" priority="1232">
+      <formula>COUNTIF($B$2:$B$964,A2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84 C97">
+    <cfRule type="expression" dxfId="142" priority="102">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84 C97">
+    <cfRule type="expression" dxfId="141" priority="103">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="expression" dxfId="140" priority="104">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="expression" dxfId="139" priority="105">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C84 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84 C97">
+    <cfRule type="expression" dxfId="138" priority="106">
+      <formula>AND(#REF!="end group", #REF! = "", $C84 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="containsText" dxfId="137" priority="94" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="cellIs" dxfId="136" priority="95" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="135" priority="96">
+      <formula>AND($A85="begin repeat", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="134" priority="97">
+      <formula>AND($A85="begin group", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="133" priority="98">
+      <formula>AND(#REF!="begin group", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="132" priority="99">
+      <formula>AND(#REF!="begin repeat", NOT($B83 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="containsText" dxfId="131" priority="89" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" dxfId="130" priority="90">
+      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="cellIs" dxfId="129" priority="91" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" dxfId="128" priority="92">
+      <formula>AND(AND(NOT($A87 = "end group"), NOT($A87 = "end repeat"), NOT($A87 = "")), $C87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" dxfId="127" priority="93">
+      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="containsText" dxfId="126" priority="85" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="125" priority="86">
+      <formula>AND($A87="begin group", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="124" priority="87" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="123" priority="88">
+      <formula>AND($A87="begin repeat", NOT($B87 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="expression" dxfId="122" priority="82">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C97 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="expression" dxfId="121" priority="83">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C97 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="containsText" dxfId="120" priority="72" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="cellIs" dxfId="119" priority="73" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="expression" dxfId="118" priority="74">
+      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="expression" dxfId="117" priority="75">
+      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="expression" dxfId="116" priority="76">
+      <formula>AND(#REF!="begin group", NOT($B96 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="expression" dxfId="115" priority="77">
+      <formula>AND(#REF!="begin repeat", NOT($B96 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:N105 A98:C105">
+    <cfRule type="expression" dxfId="114" priority="1304">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:N105 A98:C105">
+    <cfRule type="expression" dxfId="113" priority="1309">
+      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98:D102 D104:D105">
+    <cfRule type="expression" dxfId="112" priority="1315">
+      <formula>AND($D98 = "", $A98 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98:D102 D104:D105">
+    <cfRule type="expression" dxfId="111" priority="1317">
+      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $D98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98:D102 D104:D105">
+    <cfRule type="expression" dxfId="110" priority="1319">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $D98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:F102">
+    <cfRule type="expression" dxfId="109" priority="70">
+      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98:F102">
+    <cfRule type="expression" dxfId="108" priority="71">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", $D98 = "", $E98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27 C24:C25">
+    <cfRule type="expression" dxfId="107" priority="1378">
+      <formula>AND($A24="end group", $B24 = "", $C30 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27 C24:C25">
+    <cfRule type="expression" dxfId="106" priority="1380">
+      <formula>AND($A24="end repeat", $B24 = "", $C30 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="105" priority="1422">
+      <formula>AND($A39="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="104" priority="1423">
+      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:C29">
+    <cfRule type="expression" dxfId="103" priority="1424">
+      <formula>AND($A39="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="102" priority="1427">
+      <formula>AND(#REF!="end group", $B29 = "", $C33 = "", $D29 = "", #REF! = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="101" priority="1428">
+      <formula>AND(#REF!="end repeat", $B29 = "", $C33 = "", $D29 = "", #REF! = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63 F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
+    <cfRule type="expression" dxfId="100" priority="1442">
+      <formula>AND($A63="end group", $B63 = "", #REF! = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62 F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
+    <cfRule type="expression" dxfId="99" priority="1443">
+      <formula>AND($A62="end group", $B62 = "", $C63 = "", $D62 = "", $E62 = "", $F62 = "", $G62 = "", $H62 = "", $I62 = "", $J62 = "", $K62 = "", $L62 = "", $M62 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:N83 A83:B83 D83 F96:N96 A96:B96 D96">
+    <cfRule type="expression" dxfId="98" priority="1446">
+      <formula>AND($A83="end repeat", $B83 = "", $C84 = "", $D83 = "", $E83 = "", $F83 = "", $G83 = "", $H83 = "", $I83 = "", $J83 = "", $K83 = "", $L83 = "", $M83 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
+    <cfRule type="expression" dxfId="97" priority="1447">
+      <formula>AND($A84="end repeat", $B84 = "", #REF! = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="96" priority="64">
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="expression" dxfId="95" priority="65">
+      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="94" priority="66" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="expression" dxfId="93" priority="67">
+      <formula>AND(NOT($G18 = ""), $H18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="92" priority="1454">
+      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="91" priority="1457">
+      <formula>AND($I19 = "", $A18 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="90" priority="1459">
+      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="containsText" dxfId="89" priority="56" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="88" priority="57">
+      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="cellIs" dxfId="87" priority="58" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="86" priority="59">
+      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="85" priority="51">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="84" priority="52">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="83" priority="53" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="82" priority="54">
+      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="containsText" dxfId="81" priority="47" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="80" priority="48">
+      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="cellIs" dxfId="79" priority="49" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="78" priority="50">
+      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="77" priority="42">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="76" priority="43">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $B15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="75" priority="44" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="74" priority="45">
+      <formula>AND(NOT($G15 = ""), $H15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="containsText" dxfId="73" priority="38" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="72" priority="39">
+      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="cellIs" dxfId="71" priority="40" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="70" priority="41">
+      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="69" priority="33">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="68" priority="34">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $B16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="66" priority="36">
+      <formula>AND(NOT($G16 = ""), $H16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H17 J17:N17">
+    <cfRule type="containsText" dxfId="65" priority="29" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H17 J17:N17">
+    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="63" priority="26" operator="equal">
+      <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="containsText" dxfId="243" priority="186" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="242" priority="187">
+    <cfRule type="expression" dxfId="61" priority="19">
       <formula>AND($A66="begin group", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="241" priority="188">
+    <cfRule type="expression" dxfId="60" priority="20">
       <formula>AND($A66="end group", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="cellIs" dxfId="240" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="239" priority="190">
+    <cfRule type="expression" dxfId="58" priority="22">
       <formula>AND($A66="begin repeat", NOT($B66 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="238" priority="191">
+    <cfRule type="expression" dxfId="57" priority="23">
       <formula>AND($A66="end repeat", $B66 = "", $C66 = "", $D66 = "", $E66 = "", $F66 = "", $G66 = "", $H66 = "", $I66 = "", $J66 = "", $K66 = "", $L66 = "", $M66 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="237" priority="178">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="56" priority="1460">
+      <formula>AND($A22="begin group", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="236" priority="179">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="55" priority="1466">
+      <formula>AND($A22="begin repeat", NOT($B22 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="containsText" dxfId="235" priority="173" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="234" priority="174">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="54" priority="1507">
+      <formula>AND($A24="end group", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="233" priority="175">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="53" priority="1508">
+      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="232" priority="176" operator="equal">
-      <formula>"note"</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="52" priority="1509">
+      <formula>AND($A24="end repeat", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="231" priority="177" operator="equal">
-      <formula>"hidden"</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="51" priority="1510">
+      <formula>AND($C20 = "", $A24 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="containsText" dxfId="230" priority="167" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="expression" dxfId="229" priority="168">
-      <formula>AND($A70="begin group", NOT($B70 = ""))</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="50" priority="1511">
+      <formula>AND($A24="end repeat", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C20 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="expression" dxfId="228" priority="169">
-      <formula>AND($A70="end group", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="49" priority="1512">
+      <formula>AND($A24="end group", $B24 = "", $C20 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C20 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="cellIs" dxfId="227" priority="170" operator="equal">
-      <formula>"note"</formula>
+  <conditionalFormatting sqref="A20:C20">
+    <cfRule type="expression" dxfId="48" priority="1513">
+      <formula>AND($A29="begin group", NOT($B20 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="expression" dxfId="226" priority="171">
-      <formula>AND($A70="begin repeat", NOT($B70 = ""))</formula>
+  <conditionalFormatting sqref="D28:N28">
+    <cfRule type="expression" dxfId="47" priority="1514">
+      <formula>AND($A29="begin group", NOT($B20 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="expression" dxfId="225" priority="172">
-      <formula>AND($A70="end repeat", $B70 = "", $C70 = "", $D70 = "", $E70 = "", $F70 = "", $G70 = "", $H70 = "", $I70 = "", $J70 = "", $K70 = "", $L70 = "", $M70 = "")</formula>
+  <conditionalFormatting sqref="A20:C20">
+    <cfRule type="expression" dxfId="46" priority="1515">
+      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $B20 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:F42 I42:N42">
-    <cfRule type="expression" dxfId="224" priority="538">
-      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", #REF! = "", #REF! = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+  <conditionalFormatting sqref="A20:C20">
+    <cfRule type="expression" dxfId="45" priority="1516">
+      <formula>AND($A29="begin repeat", NOT($B20 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:N41">
-    <cfRule type="expression" dxfId="223" priority="540">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G40 = "", $H40 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+  <conditionalFormatting sqref="D28:N28">
+    <cfRule type="expression" dxfId="44" priority="1517">
+      <formula>AND($A29="begin repeat", NOT($B20 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:F42 I42:N42">
-    <cfRule type="expression" dxfId="222" priority="552">
-      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", #REF! = "", #REF! = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="43" priority="1525">
+      <formula>AND($A29="end group", $B20 = "", $C33 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:N41">
-    <cfRule type="expression" dxfId="221" priority="554">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G40 = "", $H40 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="42" priority="1526">
+      <formula>AND($A29="end repeat", $B20 = "", $C33 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="expression" dxfId="220" priority="161">
-      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="41" priority="1530">
+      <formula>AND($A23="end group", $B23 = "", $C26 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="expression" dxfId="219" priority="162">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="40" priority="1532">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C26 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="expression" dxfId="218" priority="163">
-      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="39" priority="1534">
+      <formula>AND($A23="end repeat", $B23 = "", $C26 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="expression" dxfId="217" priority="164">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="38" priority="1536">
+      <formula>AND($C26 = "", $A23 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="containsText" dxfId="216" priority="165" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:G42">
-    <cfRule type="cellIs" dxfId="215" priority="166" operator="equal">
-      <formula>"note"</formula>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="37" priority="1538">
+      <formula>AND($A23="end repeat", $B23 = "", $C26 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C26 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="214" priority="154">
-      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="36" priority="1540">
+      <formula>AND($A23="end group", $B23 = "", $C26 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C26 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="213" priority="155">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="212" priority="156">
-      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="211" priority="157">
-      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="expression" dxfId="210" priority="158">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="containsText" dxfId="209" priority="159" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H42">
-    <cfRule type="cellIs" dxfId="208" priority="160" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="207" priority="699">
-      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="206" priority="701">
-      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="205" priority="711">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="204" priority="713">
-      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="203" priority="715">
-      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="202" priority="726">
-      <formula>AND($C25 = "", $A23 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="201" priority="728">
-      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="200" priority="730">
-      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="199" priority="974">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="198" priority="976">
-      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="197" priority="978">
-      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="196" priority="980">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="195" priority="982">
-      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="194" priority="984">
-      <formula>AND($C30 = "", $A25 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="193" priority="986">
-      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C30 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="192" priority="988">
-      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C30 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="191" priority="995">
-      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="190" priority="1001">
-      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21 D21:N21">
-    <cfRule type="expression" dxfId="189" priority="1017">
-      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21 D21:N21">
-    <cfRule type="expression" dxfId="188" priority="1033">
-      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="187" priority="133" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="186" priority="131" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="185" priority="132" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="184" priority="134">
-      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="183" priority="135">
-      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="containsText" dxfId="182" priority="124" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="cellIs" dxfId="181" priority="126" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:C28">
-    <cfRule type="cellIs" dxfId="180" priority="125" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="179" priority="1085">
-      <formula>AND($A27="end group", $B27 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="178" priority="1086">
-      <formula>AND($A27="end repeat", $B27 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="177" priority="1090">
-      <formula>AND($A30="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30 D30:N30">
-    <cfRule type="expression" dxfId="176" priority="1091">
-      <formula>AND(#REF!="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="175" priority="1094">
-      <formula>AND($I29 = "", $A30 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="174" priority="1095">
-      <formula>AND($I30 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="173" priority="1097">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="172" priority="1101">
-      <formula>AND($A30="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30 D30:N30">
-    <cfRule type="expression" dxfId="171" priority="1102">
-      <formula>AND(#REF!="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="170" priority="119">
-      <formula>AND($A30="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="169" priority="120">
-      <formula>AND($A30="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="168" priority="117">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="expression" dxfId="167" priority="118">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="166" priority="115">
-      <formula>AND($A30="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="165" priority="116">
-      <formula>AND($A30="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="164" priority="113">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="expression" dxfId="163" priority="114">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="162" priority="1138">
-      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E30 = "", $F31 = "", $G31 = "", $H31 = "", $C31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="161" priority="1140">
-      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E30 = "", $F31 = "", $G31 = "", $H31 = "", $C31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B64 F63:J64">
-    <cfRule type="expression" dxfId="160" priority="1175">
-      <formula>AND($A63="end group", $B63 = "", #REF! = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="159" priority="1200">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="158" priority="1201">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="157" priority="1215">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="156" priority="1216">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C64 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="155" priority="1217">
-      <formula>AND(#REF!="end group", #REF! = "", $C64 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E64">
-    <cfRule type="containsText" dxfId="154" priority="107" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E64">
-    <cfRule type="cellIs" dxfId="153" priority="108" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E64 K34:K35">
-    <cfRule type="expression" dxfId="152" priority="109">
-      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E64 K34:K35">
-    <cfRule type="expression" dxfId="151" priority="110">
-      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E64">
-    <cfRule type="expression" dxfId="150" priority="111">
-      <formula>AND(#REF!="begin group", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E64">
-    <cfRule type="expression" dxfId="149" priority="112">
-      <formula>AND(#REF!="begin repeat", NOT($B63 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B109:B957 A21 C21 A30:C30 B2:B28">
-    <cfRule type="expression" dxfId="148" priority="1232">
-      <formula>COUNTIF($B$2:$B$965,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85 C98">
-    <cfRule type="expression" dxfId="147" priority="102">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85 C98">
-    <cfRule type="expression" dxfId="146" priority="103">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="145" priority="104">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="144" priority="105">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C85 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85 C98">
-    <cfRule type="expression" dxfId="143" priority="106">
-      <formula>AND(#REF!="end group", #REF! = "", $C85 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="containsText" dxfId="142" priority="94" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="cellIs" dxfId="141" priority="95" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="expression" dxfId="140" priority="96">
-      <formula>AND($A86="begin repeat", NOT($B86 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="expression" dxfId="139" priority="97">
-      <formula>AND($A86="begin group", NOT($B86 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="expression" dxfId="138" priority="98">
-      <formula>AND(#REF!="begin group", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="expression" dxfId="137" priority="99">
-      <formula>AND(#REF!="begin repeat", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="containsText" dxfId="136" priority="89" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="135" priority="90">
-      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="cellIs" dxfId="134" priority="91" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="133" priority="92">
-      <formula>AND(AND(NOT($A88 = "end group"), NOT($A88 = "end repeat"), NOT($A88 = "")), $C88 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="132" priority="93">
-      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="containsText" dxfId="131" priority="85" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="130" priority="86">
-      <formula>AND($A88="begin group", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="129" priority="87" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="128" priority="88">
-      <formula>AND($A88="begin repeat", NOT($B88 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="expression" dxfId="127" priority="82">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C98 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="expression" dxfId="126" priority="83">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C98 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97:E98">
-    <cfRule type="containsText" dxfId="125" priority="72" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97:E98">
-    <cfRule type="cellIs" dxfId="124" priority="73" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97:E98">
-    <cfRule type="expression" dxfId="123" priority="74">
-      <formula>AND($A99="begin repeat", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97:E98">
-    <cfRule type="expression" dxfId="122" priority="75">
-      <formula>AND($A99="begin group", NOT($B99 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97:E98">
-    <cfRule type="expression" dxfId="121" priority="76">
-      <formula>AND(#REF!="begin group", NOT($B97 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97:E98">
-    <cfRule type="expression" dxfId="120" priority="77">
-      <formula>AND(#REF!="begin repeat", NOT($B97 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99:N106 A99:C106">
-    <cfRule type="expression" dxfId="119" priority="1304">
-      <formula>AND($A99="end group", $B99 = "", $C99 = "", #REF! = "", $D99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99:N106 A99:C106">
-    <cfRule type="expression" dxfId="118" priority="1309">
-      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", #REF! = "", $D99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D103 D105:D106">
-    <cfRule type="expression" dxfId="117" priority="1315">
-      <formula>AND($D99 = "", $A99 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D103 D105:D106">
-    <cfRule type="expression" dxfId="116" priority="1317">
-      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", #REF! = "", $D99 = "", $F99 = "", $G99 = "", $H99 = "", $D99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99:D103 D105:D106">
-    <cfRule type="expression" dxfId="115" priority="1319">
-      <formula>AND($A99="end group", $B99 = "", $C99 = "", #REF! = "", $D99 = "", $F99 = "", $G99 = "", $H99 = "", $D99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99:F103">
-    <cfRule type="expression" dxfId="114" priority="70">
-      <formula>AND($A99="end repeat", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F99:F103">
-    <cfRule type="expression" dxfId="113" priority="71">
-      <formula>AND($A99="end group", $B99 = "", $C99 = "", $D99 = "", $E99 = "", $F99 = "", $G99 = "", $H99 = "", $I99 = "", $J99 = "", $K99 = "", $L99 = "", $M99 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C25:C26">
-    <cfRule type="expression" dxfId="112" priority="1378">
-      <formula>AND($A25="end group", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28 C25:C26">
-    <cfRule type="expression" dxfId="111" priority="1380">
-      <formula>AND($A25="end repeat", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="110" priority="1422">
-      <formula>AND($A40="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="109" priority="1423">
-      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:C30">
-    <cfRule type="expression" dxfId="108" priority="1424">
-      <formula>AND($A40="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="107" priority="1427">
-      <formula>AND(#REF!="end group", $B30 = "", $C34 = "", $D30 = "", #REF! = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="106" priority="1428">
-      <formula>AND(#REF!="end repeat", $B30 = "", $C34 = "", $D30 = "", #REF! = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64 F85:N85 A85:B85 D85 F98:N98 A98:B98 D98">
-    <cfRule type="expression" dxfId="105" priority="1442">
-      <formula>AND($A64="end group", $B64 = "", #REF! = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63 F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
-    <cfRule type="expression" dxfId="104" priority="1443">
-      <formula>AND($A63="end group", $B63 = "", $C64 = "", $D63 = "", $E63 = "", $F63 = "", $G63 = "", $H63 = "", $I63 = "", $J63 = "", $K63 = "", $L63 = "", $M63 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84:N84 A84:B84 D84 F97:N97 A97:B97 D97">
-    <cfRule type="expression" dxfId="103" priority="1446">
-      <formula>AND($A84="end repeat", $B84 = "", $C85 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:N85 A85:B85 D85 F98:N98 A98:B98 D98">
-    <cfRule type="expression" dxfId="102" priority="1447">
-      <formula>AND($A85="end repeat", $B85 = "", #REF! = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="101" priority="64">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="100" priority="65">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="99" priority="66" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="98" priority="67">
-      <formula>AND(NOT($G19 = ""), $H19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="97" priority="1454">
-      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="96" priority="1457">
-      <formula>AND($I20 = "", $A19 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="95" priority="1459">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="containsText" dxfId="94" priority="56" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="93" priority="57">
-      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="cellIs" dxfId="92" priority="58" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:H14 J14:N14">
-    <cfRule type="expression" dxfId="91" priority="59">
-      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="90" priority="51">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="89" priority="52">
-      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="88" priority="53" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="87" priority="54">
-      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="containsText" dxfId="86" priority="47" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="expression" dxfId="85" priority="48">
-      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="cellIs" dxfId="84" priority="49" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:H15 J15:N15">
-    <cfRule type="expression" dxfId="83" priority="50">
-      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="82" priority="42">
-      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="expression" dxfId="81" priority="43">
-      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $B15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="80" priority="44" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="79" priority="45">
-      <formula>AND(NOT($G15 = ""), $H15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="containsText" dxfId="78" priority="38" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="expression" dxfId="77" priority="39">
-      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="cellIs" dxfId="76" priority="40" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:H16 J16:N16">
-    <cfRule type="expression" dxfId="75" priority="41">
-      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="74" priority="33">
-      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="73" priority="34">
-      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $B16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="72" priority="35" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="71" priority="36">
-      <formula>AND(NOT($G16 = ""), $H16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H18 J17:N18">
-    <cfRule type="containsText" dxfId="70" priority="29" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H18 J17:N18">
-    <cfRule type="expression" dxfId="69" priority="30">
-      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H18 J17:N18">
-    <cfRule type="cellIs" dxfId="68" priority="31" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:H18 J17:N18">
-    <cfRule type="expression" dxfId="67" priority="32">
-      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="66" priority="24">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $C17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:B18">
-    <cfRule type="expression" dxfId="65" priority="25">
-      <formula>AND(AND(NOT($A17 = "end group"), NOT($A17 = "end repeat"), NOT($A17 = "")), $B17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H18">
-    <cfRule type="expression" dxfId="63" priority="27">
-      <formula>AND(NOT($G17 = ""), $H17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="expression" dxfId="61" priority="19">
-      <formula>AND($A67="begin group", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="expression" dxfId="60" priority="20">
-      <formula>AND($A67="end group", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="expression" dxfId="58" priority="22">
-      <formula>AND($A67="begin repeat", NOT($B67 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="expression" dxfId="57" priority="23">
-      <formula>AND($A67="end repeat", $B67 = "", $C67 = "", $D67 = "", $E67 = "", $F67 = "", $G67 = "", $H67 = "", $I67 = "", $J67 = "", $K67 = "", $L67 = "", $M67 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="56" priority="1460">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="expression" dxfId="55" priority="1466">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="54" priority="1507">
-      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="53" priority="1508">
-      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="52" priority="1509">
-      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="51" priority="1510">
-      <formula>AND($C21 = "", $A25 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="50" priority="1511">
-      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="49" priority="1512">
-      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21">
-    <cfRule type="expression" dxfId="48" priority="1513">
-      <formula>AND($A30="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:N29">
-    <cfRule type="expression" dxfId="47" priority="1514">
-      <formula>AND($A30="begin group", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21">
-    <cfRule type="expression" dxfId="46" priority="1515">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B21 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:C21">
-    <cfRule type="expression" dxfId="45" priority="1516">
-      <formula>AND($A30="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:N29">
-    <cfRule type="expression" dxfId="44" priority="1517">
-      <formula>AND($A30="begin repeat", NOT($B21 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="43" priority="1525">
-      <formula>AND($A30="end group", $B21 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="42" priority="1526">
-      <formula>AND($A30="end repeat", $B21 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="41" priority="1530">
-      <formula>AND($A24="end group", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="40" priority="1532">
-      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="39" priority="1534">
-      <formula>AND($A24="end repeat", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="38" priority="1536">
-      <formula>AND($C27 = "", $A24 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="37" priority="1538">
-      <formula>AND($A24="end repeat", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C27 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C28">
-    <cfRule type="expression" dxfId="36" priority="1540">
-      <formula>AND($A24="end group", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C27 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G75:N75">
+  <conditionalFormatting sqref="G74:N74">
     <cfRule type="expression" dxfId="35" priority="1544">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I75">
+  <conditionalFormatting sqref="I74">
     <cfRule type="expression" dxfId="34" priority="1555">
-      <formula>AND($I75 = "", #REF! = "calculate")</formula>
+      <formula>AND($I74 = "", #REF! = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:N75">
+  <conditionalFormatting sqref="G74:N74">
     <cfRule type="expression" dxfId="33" priority="1564">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:J75">
+  <conditionalFormatting sqref="G74:J74">
     <cfRule type="expression" dxfId="32" priority="1573">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G75:J75">
+  <conditionalFormatting sqref="G74:J74">
     <cfRule type="expression" dxfId="31" priority="1579">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G75 = "", $H75 = "", $I75 = "", $J75 = "", $K75 = "", $L75 = "", $M75 = "")</formula>
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G74 = "", $H74 = "", $I74 = "", $J74 = "", $K74 = "", $L74 = "", $M74 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:F75">
+  <conditionalFormatting sqref="A74:F74">
     <cfRule type="expression" dxfId="30" priority="1593">
-      <formula>AND($A75="end repeat", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+      <formula>AND($A74="end repeat", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:F75">
+  <conditionalFormatting sqref="A74:F74">
     <cfRule type="expression" dxfId="29" priority="1594">
-      <formula>AND($A75="end group", $B75 = "", $C75 = "", $D75 = "", $E75 = "", $F75 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+      <formula>AND($A74="end group", $B74 = "", $C74 = "", $D74 = "", $E74 = "", $F74 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39 B31:B52 B57:B108">
+  <conditionalFormatting sqref="I38 B30:B51 B56:B107">
     <cfRule type="expression" dxfId="28" priority="1623">
-      <formula>COUNTIF($B$2:$B$1004,B31)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1003,B30)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:N55 A52:J55">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:J55">
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:N55">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>AND($A52="end group", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:J55">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:I55">
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>AND($I52 = "", $A52 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C55">
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $C52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B55">
+    <cfRule type="expression" dxfId="21" priority="7">
+      <formula>AND(AND(NOT($A52 = "end group"), NOT($A52 = "end repeat"), NOT($A52 = "")), $B52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:A55">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:H55">
+    <cfRule type="expression" dxfId="19" priority="9">
+      <formula>AND(NOT($G52 = ""), $H52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:J55">
+    <cfRule type="expression" dxfId="18" priority="10">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:N55">
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>AND($A52="end repeat", $B52 = "", $C52 = "", $D52 = "", $E52 = "", $F52 = "", $G52 = "", $H52 = "", $I52 = "", $J52 = "", $K52 = "", $L52 = "", $M52 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:K55">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:N55">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>AND($A52="begin group", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:N55">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52:N55">
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>AND($A52="begin repeat", NOT($B52 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53 B52:B55">
+    <cfRule type="expression" dxfId="11" priority="17">
+      <formula>COUNTIF($B$2:$B$972,B52)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="27" priority="1626">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$966, "begin group") = COUNTIF($A$1:$A$966, "end group"))</formula>
+    <cfRule type="expression" dxfId="10" priority="1642">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$965, "begin group") = COUNTIF($A$1:$A$965, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="26" priority="1627">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$957, "begin group") = COUNTIF($A$1:$A$966, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53:N56 A53:J56">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:J56">
-    <cfRule type="expression" dxfId="15" priority="2">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:N56">
-    <cfRule type="expression" dxfId="14" priority="3">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:J56">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:I56">
-    <cfRule type="expression" dxfId="12" priority="5">
-      <formula>AND($I53 = "", $A53 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C56">
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B56">
-    <cfRule type="expression" dxfId="10" priority="7">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:A56">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53:H56">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:J56">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:N56">
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:K56">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:N56">
-    <cfRule type="expression" dxfId="4" priority="13">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:N56">
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="2" priority="15">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:N56">
-    <cfRule type="expression" dxfId="1" priority="16">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54 B53:B56">
-    <cfRule type="expression" dxfId="0" priority="17">
-      <formula>COUNTIF($B$2:$B$973,B53)&gt;1</formula>
+    <cfRule type="expression" dxfId="9" priority="1643">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$956, "begin group") = COUNTIF($A$1:$A$965, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D114">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D113">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -60533,45 +60443,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="19" priority="362">
+    <cfRule type="expression" dxfId="2" priority="362">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="18" priority="363">
+    <cfRule type="expression" dxfId="1" priority="363">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "", $L2 = "", $M2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="17" priority="773">
+    <cfRule type="expression" dxfId="0" priority="773">
       <formula>COUNTIF($B$2:$B$125,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60637,7 +60547,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.664835648146</v>
+        <v>44480.671030439815</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -13850,10 +13850,10 @@
   <dimension ref="A1:N956"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -60547,7 +60547,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.671030439815</v>
+        <v>44480.672300231483</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -1747,9 +1747,6 @@
     <t>date(concat(string(${ephemeral_years}),'-',string(format-date-time(today(), "%d"))))</t>
   </si>
   <si>
-    <t>Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} DOB ISO: ${dob_iso} AGE Years: ${age_in_years}</t>
-  </si>
-  <si>
     <t>${dob_calendar}</t>
   </si>
   <si>
@@ -1757,6 +1754,9 @@
   </si>
   <si>
     <t>if(or((${c1} ='yes' and ${c2}='yes' and ${c3}='no' and ${c4}='no'), (${c1} ='yes' and ${c2}='yes' and ${c3}='no' and ${c4}='yes' and${c5}='no')), 'ELIGIBLE',  'NOT ELIGIBLE')</t>
+  </si>
+  <si>
+    <t>Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} AGE Years: ${age_in_years}</t>
   </si>
 </sst>
 </file>
@@ -6487,10 +6487,10 @@
   <dimension ref="A1:N953"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6932,7 +6932,7 @@
         <v>562</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
@@ -7699,7 +7699,7 @@
         <v>566</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="16" t="b">
@@ -7970,7 +7970,7 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -8000,7 +8000,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -8876,7 +8876,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -17644,7 +17644,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.72692685185</v>
+        <v>44480.731874999998</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>219</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -9367,7 +9367,7 @@
     <t>Why are you not willing to participate in the study?</t>
   </si>
   <si>
-    <t xml:space="preserve">${dob_calendar} or ${age_years} </t>
+    <t>(${dob_calendar} or ${age_years})</t>
   </si>
 </sst>
 </file>
@@ -14379,10 +14379,10 @@
   <dimension ref="A1:N954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -61294,7 +61294,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.775557060188</v>
+        <v>44480.785237152777</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>219</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -14379,10 +14379,10 @@
   <dimension ref="A1:N954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -61294,7 +61294,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.785237152777</v>
+        <v>44480.791378703703</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>219</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -9367,7 +9367,7 @@
     <t>Why are you not willing to participate in the study?</t>
   </si>
   <si>
-    <t>(${dob_calendar} or ${age_years})</t>
+    <t>(${dob_calendar})or(${age_years}))</t>
   </si>
 </sst>
 </file>
@@ -14379,10 +14379,10 @@
   <dimension ref="A1:N954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -61294,7 +61294,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44480.791378703703</v>
+        <v>44481.88253865741</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>219</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -14379,10 +14379,10 @@
   <dimension ref="A1:N954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -61294,7 +61294,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44481.88253865741</v>
+        <v>44481.940130439812</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>219</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Working Monday Oct 11 2021\Final Deployed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Working Monday Oct 11 2021\Final Deployed DHARC_Medic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9367,7 +9367,7 @@
     <t>Why are you not willing to participate in the study?</t>
   </si>
   <si>
-    <t>(${dob_calendar})or(${age_years}))</t>
+    <t>(${dob_calendar}) or (${age_years})</t>
   </si>
 </sst>
 </file>
@@ -14379,10 +14379,10 @@
   <dimension ref="A1:N954"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -61294,7 +61294,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44481.940130439812</v>
+        <v>44481.945982638892</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>219</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -9317,9 +9317,6 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t>Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} DOB ISO: ${dob_iso} AGE Years: ${age_in_years}</t>
-  </si>
-  <si>
     <t>search</t>
   </si>
   <si>
@@ -9348,6 +9345,9 @@
   </si>
   <si>
     <t>if(or((${c1} ='yes' and ${c2}='yes' and ${c3}='no' and ${c4}='no'), (${c1} ='yes' and ${c2}='yes' and ${c3}='no' and ${c4}='yes' and${c5}='no')), 'ELIGIBLE',  'NOT ELIGIBLE')</t>
+  </si>
+  <si>
+    <t>Year: ${ephemeral_years} DOB Approx: ${dob_approx} DOB Calendar: ${dob_calendar} AGE Years: ${age_in_years}</t>
   </si>
 </sst>
 </file>
@@ -13826,10 +13826,10 @@
   <dimension ref="A1:N951"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14329,7 +14329,7 @@
         <v>478</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -14530,7 +14530,7 @@
         <v>479</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
@@ -15058,7 +15058,7 @@
         <v>3096</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>3097</v>
+        <v>3107</v>
       </c>
       <c r="D51" s="40"/>
       <c r="E51" s="43" t="b">
@@ -15186,7 +15186,7 @@
         <v>480</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
@@ -15272,7 +15272,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="3" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -15302,7 +15302,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="39" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -15422,7 +15422,7 @@
         <v>477</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>44</v>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -15855,7 +15855,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="44" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -15881,7 +15881,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="44" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -16005,7 +16005,7 @@
         <v>509</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
@@ -16185,7 +16185,7 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="34" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
@@ -60434,7 +60434,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44481.985516898145</v>
+        <v>44481.993656481478</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>220</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Working Monday Oct 11 2021\Final Deployed DHARC_Medic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\PC (2)\Desktop\CHT Forms\Final Deployed DHARC_Medic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14449,7 +14449,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomRight" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -61394,7 +61394,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44481.999859722222</v>
+        <v>44482.006865740739</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>219</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -7940,7 +7940,7 @@
     <t>ward = ${ward}</t>
   </si>
   <si>
-    <t>contact:suspected_case:edit</t>
+    <t>contact:suspected_case-edit</t>
   </si>
 </sst>
 </file>
@@ -52814,7 +52814,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -52865,7 +52865,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44571.009000578706</v>
+        <v>44572.914829166664</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>218</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\Boda Boda\CHT Toolkit Medic Mobile\Final Deployed DHARC_Test\Bodaboda Latest Forms Jan 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\Covid-19 TB Community Testing\CHT Tool Configuration\config-covid-community-testing\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -7940,7 +7940,7 @@
     <t>ward = ${ward}</t>
   </si>
   <si>
-    <t>contact:suspected_case-edit</t>
+    <t>contact:suspected_case:edit</t>
   </si>
 </sst>
 </file>
@@ -12858,7 +12858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N954"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -18389,8 +18389,8 @@
   <dimension ref="A1:X2330"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -52812,15 +52812,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
@@ -52865,7 +52865,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44572.914829166664</v>
+        <v>44759.797917129632</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>218</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\Medic CHT Toolkit and Forms\Covid-19 TB Community Testing\CHT App and Form Configuration\CHT Forms\Community Testing Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53440545-0B3C-4DC7-8202-C357B9F1CBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7926,7 +7925,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
@@ -8229,52 +8228,6 @@
   </cellStyles>
   <dxfs count="424">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFCCCCCC"/>
       </font>
@@ -8352,6 +8305,52 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12708,10 +12707,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N950"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -18040,37 +18039,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:B101 I39 B31:B48 B52">
-    <cfRule type="expression" dxfId="5" priority="1727">
+    <cfRule type="expression" dxfId="14" priority="1727">
       <formula>COUNTIF($B$2:$B$997,B31)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:B54 B18">
-    <cfRule type="expression" dxfId="4" priority="1732">
+    <cfRule type="expression" dxfId="13" priority="1732">
       <formula>COUNTIF($B$2:$B$968,B18)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B51">
-    <cfRule type="expression" dxfId="3" priority="1734">
+    <cfRule type="expression" dxfId="12" priority="1734">
       <formula>COUNTIF($B$2:$B$963,B49)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="2" priority="1735">
+    <cfRule type="expression" dxfId="11" priority="1735">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$959, "begin group") = COUNTIF($A$1:$A$959, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="1" priority="1736">
+    <cfRule type="expression" dxfId="10" priority="1736">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$950, "begin group") = COUNTIF($A$1:$A$959, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="0" priority="1737">
+    <cfRule type="expression" dxfId="9" priority="1737">
       <formula>COUNTIF($B$2:$B$955,B26)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D107" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D107">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -18081,7 +18080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2330"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -52457,45 +52456,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND($A2="begin group", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(AND(NOT($A2 = "end group"), NOT($A2 = "end repeat"), NOT($A2 = "")), $B2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND($A2="begin repeat", NOT($B2 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="8" priority="773">
+    <cfRule type="expression" dxfId="2" priority="773">
       <formula>COUNTIF($B$2:$B$127,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="7" priority="1630">
+    <cfRule type="expression" dxfId="1" priority="1630">
       <formula>AND($A2="end group", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", #REF! = "", #REF! = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B3">
-    <cfRule type="expression" dxfId="6" priority="1631">
+    <cfRule type="expression" dxfId="0" priority="1631">
       <formula>AND($A2="end repeat", $B2 = "", $C2 = "", $E2 = "", #REF! = "", $F2 = "", #REF! = "", #REF! = "", $G2 = "", $H2 = "", $I2 = "", $J2 = "", $K2 = "")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52505,10 +52504,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -52561,7 +52560,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44760.900461805555</v>
+        <v>44761.036785185184</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>217</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\Medic CHT Toolkit and Forms\Covid-19 TB Community Testing\Community Testing Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\Medic CHT Toolkit and Forms\Covid-19 TB Community Testing\config-covid-community-testing\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9600" uniqueCount="2625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9601" uniqueCount="2626">
   <si>
     <t>type</t>
   </si>
@@ -7914,6 +7914,9 @@
   </si>
   <si>
     <t>if((${c1} ='yes' and ${c2}='no' and ${c3}='no' or ${c1} ='yes' and ${c2}='no' and ${c3}='yes' and ${c4}='no'), 'ELIGIBLE',  'NOT ELIGIBLE')</t>
+  </si>
+  <si>
+    <t>meta_grp</t>
   </si>
 </sst>
 </file>
@@ -12685,10 +12688,10 @@
   <dimension ref="A1:N949"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15075,7 +15078,9 @@
       <c r="B101" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="C101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>2625</v>
+      </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="5" t="s">
@@ -52499,7 +52504,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44761.38864351852</v>
+        <v>44761.413122569444</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>216</v>

--- a/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
+++ b/config-boda-moh-ke-master/forms/contact/suspected_case-edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1023">
   <si>
     <t>type</t>
   </si>
@@ -7990,7 +7990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N951"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -13423,9 +13423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y950"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A869" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A951" sqref="A951"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A917" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B937" sqref="B937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -26743,9 +26743,6 @@
       </c>
     </row>
     <row r="936" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A936" t="s">
-        <v>310</v>
-      </c>
       <c r="B936" s="53"/>
       <c r="C936" s="53"/>
       <c r="F936" s="53"/>
@@ -27007,7 +27004,7 @@
       </c>
       <c r="C2" s="25">
         <f ca="1">NOW()</f>
-        <v>44767.736482986111</v>
+        <v>44767.964667939814</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>215</v>
